--- a/docs/TeamHogwartsReport.xlsx
+++ b/docs/TeamHogwartsReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huying/Dropbox-yhu@stevens/Dropbox/My Dropbox Move/0_SSW-555/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huying/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA9AF16-5A01-DE47-BD40-F753BF809A14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654C3FF9-CAFB-914F-8A19-A919BE35A679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="620" windowWidth="25600" windowHeight="15480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="15480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="234">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -748,6 +748,36 @@
   </si>
   <si>
     <t>Epimetheus12</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Devolop</t>
+  </si>
+  <si>
+    <t>Permanent Branches:</t>
+  </si>
+  <si>
+    <t>May named by developers' names or others</t>
+  </si>
+  <si>
+    <t>works as the production environment, which stores codes and files of completed sprints.</t>
+  </si>
+  <si>
+    <t>Temporary Branches:</t>
+  </si>
+  <si>
+    <t>works as the developing environment, which stores codes and files of the current working sprint. When a sprint completed, this branch will be merged into Master Branch, operated by Yu Zhou only.</t>
+  </si>
+  <si>
+    <t>Every developer shall commit changes to temporary branches. Every developer has permit to merge changes from their temporary branches into Develop Branch.</t>
+  </si>
+  <si>
+    <t>Collaboration Model:</t>
+  </si>
+  <si>
+    <t>Collaborator</t>
   </si>
 </sst>
 </file>
@@ -837,7 +867,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -918,6 +948,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -987,7 +1032,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1098,6 +1143,31 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1116,7 +1186,6 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2261,10 +2330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2272,10 +2341,11 @@
     <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
         <v>19</v>
       </c>
@@ -2292,7 +2362,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>193</v>
       </c>
@@ -2309,7 +2379,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>196</v>
       </c>
@@ -2326,7 +2396,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>197</v>
       </c>
@@ -2343,7 +2413,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>202</v>
       </c>
@@ -2360,18 +2430,69 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D8" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D8" s="55" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>204</v>
       </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D9" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+    </row>
+    <row r="11" spans="1:8" ht="82" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="62"/>
+      <c r="E11" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+    </row>
+    <row r="12" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D4">
     <sortCondition ref="C2:C4"/>
   </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="D10:D11"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{491585F5-1070-FA43-806C-9162A05F1980}"/>
@@ -2386,10 +2507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2398,7 +2519,7 @@
     <col min="2" max="2" width="14" style="22" customWidth="1"/>
     <col min="3" max="3" width="36" style="22" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="60" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="20" customFormat="1" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2440,7 +2561,7 @@
         <f>Sprint1!C5</f>
         <v>hy</v>
       </c>
-      <c r="E2" s="60" t="str">
+      <c r="E2" s="54" t="str">
         <f>Sprint1!D5</f>
         <v>To do</v>
       </c>
@@ -2461,7 +2582,7 @@
         <f>Sprint1!C6</f>
         <v>hy</v>
       </c>
-      <c r="E3" s="60" t="str">
+      <c r="E3" s="54" t="str">
         <f>Sprint1!D6</f>
         <v>To do</v>
       </c>
@@ -2482,7 +2603,7 @@
         <f>Sprint1!C7</f>
         <v>zy</v>
       </c>
-      <c r="E4" s="60" t="str">
+      <c r="E4" s="54" t="str">
         <f>Sprint1!D7</f>
         <v>To do</v>
       </c>
@@ -2503,7 +2624,7 @@
         <f>Sprint1!C8</f>
         <v>zy</v>
       </c>
-      <c r="E5" s="60" t="str">
+      <c r="E5" s="54" t="str">
         <f>Sprint1!D8</f>
         <v>To do</v>
       </c>
@@ -2524,7 +2645,7 @@
         <f>Sprint1!C9</f>
         <v>hw</v>
       </c>
-      <c r="E6" s="60" t="str">
+      <c r="E6" s="54" t="str">
         <f>Sprint1!D9</f>
         <v>To do</v>
       </c>
@@ -2545,7 +2666,7 @@
         <f>Sprint1!C10</f>
         <v>hw</v>
       </c>
-      <c r="E7" s="60" t="str">
+      <c r="E7" s="54" t="str">
         <f>Sprint1!D10</f>
         <v>To do</v>
       </c>
@@ -2566,7 +2687,7 @@
         <f>Sprint1!C11</f>
         <v>fl</v>
       </c>
-      <c r="E8" s="60" t="str">
+      <c r="E8" s="54" t="str">
         <f>Sprint1!D11</f>
         <v>To do</v>
       </c>
@@ -2587,9 +2708,269 @@
         <f>Sprint1!C12</f>
         <v>fl</v>
       </c>
-      <c r="E9" s="60" t="str">
+      <c r="E9" s="54" t="str">
         <f>Sprint1!D12</f>
         <v>To do</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="22" t="str">
+        <f>Stories!A11</f>
+        <v>US10</v>
+      </c>
+      <c r="C10" s="22" t="str">
+        <f>Stories!B11</f>
+        <v>Marriage after 14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="22" t="str">
+        <f>Stories!A12</f>
+        <v>US11</v>
+      </c>
+      <c r="C11" s="22" t="str">
+        <f>Stories!B12</f>
+        <v>No bigamy</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="22" t="str">
+        <f>Stories!A13</f>
+        <v>US12</v>
+      </c>
+      <c r="C12" s="22" t="str">
+        <f>Stories!B13</f>
+        <v>Parents not too old</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="22" t="str">
+        <f>Stories!A14</f>
+        <v>US13</v>
+      </c>
+      <c r="C13" s="22" t="str">
+        <f>Stories!B14</f>
+        <v>Siblings spacing</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="22" t="str">
+        <f>Stories!A15</f>
+        <v>US14</v>
+      </c>
+      <c r="C14" s="22" t="str">
+        <f>Stories!B15</f>
+        <v>Multiple births &lt;= 5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="22" t="str">
+        <f>Stories!A16</f>
+        <v>US15</v>
+      </c>
+      <c r="C15" s="22" t="str">
+        <f>Stories!B16</f>
+        <v>Fewer than 15 siblings</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="22" t="str">
+        <f>Stories!A17</f>
+        <v>US16</v>
+      </c>
+      <c r="C16" s="22" t="str">
+        <f>Stories!B17</f>
+        <v>Male last names</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="22" t="str">
+        <f>Stories!A18</f>
+        <v>US17</v>
+      </c>
+      <c r="C17" s="22" t="str">
+        <f>Stories!B18</f>
+        <v>No marriages to children</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="22" t="str">
+        <f>Stories!A19</f>
+        <v>US18</v>
+      </c>
+      <c r="C18" s="22" t="str">
+        <f>Stories!B19</f>
+        <v>Siblings should not marry</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="22" t="str">
+        <f>Stories!A20</f>
+        <v>US19</v>
+      </c>
+      <c r="C19" s="22" t="str">
+        <f>Stories!B20</f>
+        <v>First cousins should not marry</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="22" t="str">
+        <f>Stories!A21</f>
+        <v>US20</v>
+      </c>
+      <c r="C20" s="22" t="str">
+        <f>Stories!B21</f>
+        <v>Aunts and uncles</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="22" t="str">
+        <f>Stories!A22</f>
+        <v>US21</v>
+      </c>
+      <c r="C21" s="22" t="str">
+        <f>Stories!B22</f>
+        <v>Correct gender for role</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B22" s="22" t="str">
+        <f>Stories!A23</f>
+        <v>US22</v>
+      </c>
+      <c r="C22" s="22" t="str">
+        <f>Stories!B23</f>
+        <v>Unique IDs</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B23" s="22" t="str">
+        <f>Stories!A24</f>
+        <v>US23</v>
+      </c>
+      <c r="C23" s="22" t="str">
+        <f>Stories!B24</f>
+        <v>Unique name and birth date</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="22" t="str">
+        <f>Stories!A25</f>
+        <v>US24</v>
+      </c>
+      <c r="C24" s="22" t="str">
+        <f>Stories!B25</f>
+        <v>Unique families by spouses</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="22" t="str">
+        <f>Stories!A26</f>
+        <v>US25</v>
+      </c>
+      <c r="C25" s="22" t="str">
+        <f>Stories!B26</f>
+        <v>Unique first names in families</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="22" t="str">
+        <f>Stories!A27</f>
+        <v>US26</v>
+      </c>
+      <c r="C26" s="22" t="str">
+        <f>Stories!B27</f>
+        <v>Corresponding entries</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B27" s="22" t="str">
+        <f>Stories!A28</f>
+        <v>US27</v>
+      </c>
+      <c r="C27" s="22" t="str">
+        <f>Stories!B28</f>
+        <v>Include individual ages</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="22" t="str">
+        <f>Stories!A29</f>
+        <v>US28</v>
+      </c>
+      <c r="C28" s="22" t="str">
+        <f>Stories!B29</f>
+        <v>Order siblings by age</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B29" s="22" t="str">
+        <f>Stories!A30</f>
+        <v>US29</v>
+      </c>
+      <c r="C29" s="22" t="str">
+        <f>Stories!B30</f>
+        <v>List deceased</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B30" s="22" t="str">
+        <f>Stories!A31</f>
+        <v>US30</v>
+      </c>
+      <c r="C30" s="22" t="str">
+        <f>Stories!B31</f>
+        <v>List living married</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B31" s="22" t="str">
+        <f>Stories!A32</f>
+        <v>US31</v>
+      </c>
+      <c r="C31" s="22" t="str">
+        <f>Stories!B32</f>
+        <v>List living single</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B32" s="22" t="str">
+        <f>Stories!A33</f>
+        <v>US32</v>
+      </c>
+      <c r="C32" s="22" t="str">
+        <f>Stories!B33</f>
+        <v>List multiple births</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="22" t="str">
+        <f>Stories!A34</f>
+        <v>US33</v>
+      </c>
+      <c r="C33" s="22" t="str">
+        <f>Stories!B34</f>
+        <v>List orphans</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="22" t="str">
+        <f>Stories!A35</f>
+        <v>US34</v>
+      </c>
+      <c r="C34" s="22" t="str">
+        <f>Stories!B35</f>
+        <v>List large age differences</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="22" t="str">
+        <f>Stories!A36</f>
+        <v>US35</v>
+      </c>
+      <c r="C35" s="22" t="str">
+        <f>Stories!B36</f>
+        <v>List recent births</v>
       </c>
     </row>
   </sheetData>
@@ -2867,43 +3248,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="20" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="54" t="s">
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="54" t="s">
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="56"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="65"/>
     </row>
     <row r="2" spans="1:16" s="20" customFormat="1" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="32" t="s">
         <v>13</v>
       </c>
@@ -3284,43 +3665,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="54" t="s">
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="54" t="s">
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="56"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="65"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="32" t="s">
         <v>13</v>
       </c>
@@ -3390,43 +3771,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="54" t="s">
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="54" t="s">
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="56"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="65"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="32" t="s">
         <v>13</v>
       </c>
@@ -3496,43 +3877,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="54" t="s">
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="54" t="s">
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="56"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="65"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="32" t="s">
         <v>13</v>
       </c>

--- a/docs/TeamHogwartsReport.xlsx
+++ b/docs/TeamHogwartsReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huying/Dropbox-yhu@stevens/Dropbox/My Dropbox Move/0_SSW-555/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huying/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA9AF16-5A01-DE47-BD40-F753BF809A14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC17ED6-FE5A-1F41-8AAB-96187BFD79E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="620" windowWidth="25600" windowHeight="15480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="15540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,15 +37,34 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="271">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -150,10 +170,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>hm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Story ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -166,10 +182,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprint</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -189,15 +201,6 @@
     <t>GitHub Repository:</t>
   </si>
   <si>
-    <t>Bring pizza to our meetings</t>
-  </si>
-  <si>
-    <t>Leaving leftover pizza on the counter</t>
-  </si>
-  <si>
-    <t>Bring silverware for everyone</t>
-  </si>
-  <si>
     <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
   </si>
   <si>
@@ -624,15 +627,6 @@
     <t>Source File</t>
   </si>
   <si>
-    <t>gedcom.py</t>
-  </si>
-  <si>
-    <t>us03_birth_b4_death</t>
-  </si>
-  <si>
-    <t>33-36</t>
-  </si>
-  <si>
     <t>Test File</t>
   </si>
   <si>
@@ -648,15 +642,6 @@
     <t>Test lines</t>
   </si>
   <si>
-    <t>test_us03</t>
-  </si>
-  <si>
-    <t>15-23</t>
-  </si>
-  <si>
-    <t>test03.py</t>
-  </si>
-  <si>
     <t>yz</t>
   </si>
   <si>
@@ -723,9 +708,6 @@
     <t>zy</t>
   </si>
   <si>
-    <t>EXAMPLE</t>
-  </si>
-  <si>
     <t>Estimation</t>
   </si>
   <si>
@@ -748,6 +730,183 @@
   </si>
   <si>
     <t>Epimetheus12</t>
+  </si>
+  <si>
+    <t>Collaboration Model:</t>
+  </si>
+  <si>
+    <t>Collaborator</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>works as the production environment, which stores codes and files of completed sprints.</t>
+  </si>
+  <si>
+    <t>Devolop</t>
+  </si>
+  <si>
+    <t>works as the developing environment, which stores codes and files of the current working sprint. When a sprint completed, this branch will be merged into Master Branch, operated by Yu Zhou only.</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>Unify name rule to avoid conflicts</t>
+  </si>
+  <si>
+    <t>Coding without comments</t>
+  </si>
+  <si>
+    <t>Communicate in time</t>
+  </si>
+  <si>
+    <t>The main file should be revised ASAP if needs arises, or it'll occur a lot of rework</t>
+  </si>
+  <si>
+    <t>us02.py</t>
+  </si>
+  <si>
+    <t>us03.py</t>
+  </si>
+  <si>
+    <t>us04.py</t>
+  </si>
+  <si>
+    <t>us05.py</t>
+  </si>
+  <si>
+    <t>us07.py</t>
+  </si>
+  <si>
+    <t>us01.py</t>
+  </si>
+  <si>
+    <t>us08.py</t>
+  </si>
+  <si>
+    <t>us09.py</t>
+  </si>
+  <si>
+    <t>us02_test.py</t>
+  </si>
+  <si>
+    <t>us03_test.py</t>
+  </si>
+  <si>
+    <t>us04_test.py</t>
+  </si>
+  <si>
+    <t>us05_test.py</t>
+  </si>
+  <si>
+    <t>us01_test.py</t>
+  </si>
+  <si>
+    <t>us07_test.py</t>
+  </si>
+  <si>
+    <t>us08_test.py</t>
+  </si>
+  <si>
+    <t>us09_test.py</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>us01_current_date_check</t>
+  </si>
+  <si>
+    <t>us02_birth_before_marriage</t>
+  </si>
+  <si>
+    <t>us03_birth_before_death</t>
+  </si>
+  <si>
+    <t>us04_marriage_before_divorce</t>
+  </si>
+  <si>
+    <t>us05_marriage_before_death</t>
+  </si>
+  <si>
+    <t>us07_not_olderthan150</t>
+  </si>
+  <si>
+    <t>us08_birth_before_marriage</t>
+  </si>
+  <si>
+    <t>us09_birth_after_death</t>
+  </si>
+  <si>
+    <t>6-41</t>
+  </si>
+  <si>
+    <t>Testcurrent_date_check</t>
+  </si>
+  <si>
+    <t>10-23</t>
+  </si>
+  <si>
+    <t>10-32</t>
+  </si>
+  <si>
+    <t>Testbirth_before_marriage</t>
+  </si>
+  <si>
+    <t>10-22</t>
+  </si>
+  <si>
+    <t>6-23</t>
+  </si>
+  <si>
+    <t>US04_TestCase</t>
+  </si>
+  <si>
+    <t>11-25</t>
+  </si>
+  <si>
+    <t>6-30</t>
+  </si>
+  <si>
+    <t>US05_TestCase</t>
+  </si>
+  <si>
+    <t>11-23</t>
+  </si>
+  <si>
+    <t>6-25</t>
+  </si>
+  <si>
+    <t>10-21</t>
+  </si>
+  <si>
+    <t>5-18</t>
+  </si>
+  <si>
+    <t>US08_TestCase</t>
+  </si>
+  <si>
+    <t>11-24</t>
+  </si>
+  <si>
+    <t>5-19</t>
+  </si>
+  <si>
+    <t>US09_TestCase</t>
+  </si>
+  <si>
+    <t>Asserting GED data opptionally, it may probaberly affect previous us test. Instead, we shall always add new GED data at the end of the GED file.</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>(expected)</t>
+  </si>
+  <si>
+    <t>Doing</t>
   </si>
 </sst>
 </file>
@@ -805,7 +964,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -820,24 +979,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -918,6 +1071,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -987,7 +1155,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1008,28 +1176,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="65"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1037,47 +1192,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1088,35 +1216,107 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1361,19 +1561,37 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Burndown!$A$2:$A$7</c:f>
+              <c:f>Burndown!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>42406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42427</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42483</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$B$2:$B$7</c:f>
+              <c:f>Burndown!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1397,7 +1615,7 @@
         <c:axId val="1158123744"/>
         <c:axId val="1158126064"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="1158123744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1411,10 +1629,9 @@
         <c:crossAx val="1158126064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="1158126064"/>
         <c:scaling>
@@ -1423,7 +1640,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1904,13 +2121,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>948267</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>160867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>397934</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
@@ -2261,117 +2478,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="E1" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D8" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>204</v>
-      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D9" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+    </row>
+    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D4">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
     <sortCondition ref="C2:C4"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{491585F5-1070-FA43-806C-9162A05F1980}"/>
@@ -2386,39 +2635,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14" style="22" customWidth="1"/>
-    <col min="3" max="3" width="36" style="22" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="60" customWidth="1"/>
+    <col min="2" max="2" width="14" style="17" customWidth="1"/>
+    <col min="3" max="3" width="36" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="20" customFormat="1" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="53" t="s">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="52" t="s">
+      <c r="E1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="45" t="s">
-        <v>29</v>
-      </c>
       <c r="F1" s="13" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G1"/>
       <c r="H1"/>
@@ -2428,168 +2677,466 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="str">
-        <f>Sprint1!A5</f>
+      <c r="B2" s="17" t="str">
+        <f>Sprint1!A3</f>
         <v>US02</v>
       </c>
-      <c r="C2" s="22" t="str">
-        <f>Sprint1!B5</f>
+      <c r="C2" s="17" t="str">
+        <f>Sprint1!B3</f>
         <v>Birth before marriage</v>
       </c>
-      <c r="D2" s="22" t="str">
-        <f>Sprint1!C5</f>
+      <c r="D2" s="17" t="str">
+        <f>Sprint1!C3</f>
         <v>hy</v>
       </c>
-      <c r="E2" s="60" t="str">
-        <f>Sprint1!D5</f>
-        <v>To do</v>
+      <c r="E2" s="36" t="str">
+        <f>Sprint1!D3</f>
+        <v>Done</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="str">
-        <f>Sprint1!A6</f>
+      <c r="B3" s="17" t="str">
+        <f>Sprint1!A4</f>
         <v>US03</v>
       </c>
-      <c r="C3" s="22" t="str">
-        <f>Sprint1!B6</f>
+      <c r="C3" s="17" t="str">
+        <f>Sprint1!B4</f>
         <v>Birth before death</v>
       </c>
-      <c r="D3" s="22" t="str">
-        <f>Sprint1!C6</f>
+      <c r="D3" s="17" t="str">
+        <f>Sprint1!C4</f>
         <v>hy</v>
       </c>
-      <c r="E3" s="60" t="str">
-        <f>Sprint1!D6</f>
-        <v>To do</v>
+      <c r="E3" s="36" t="str">
+        <f>Sprint1!D4</f>
+        <v>Done</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="str">
-        <f>Sprint1!A7</f>
+      <c r="B4" s="17" t="str">
+        <f>Sprint1!A5</f>
         <v>US04</v>
       </c>
-      <c r="C4" s="22" t="str">
-        <f>Sprint1!B7</f>
+      <c r="C4" s="17" t="str">
+        <f>Sprint1!B5</f>
         <v>Marriage before divorce</v>
       </c>
-      <c r="D4" s="22" t="str">
-        <f>Sprint1!C7</f>
+      <c r="D4" s="17" t="str">
+        <f>Sprint1!C5</f>
         <v>zy</v>
       </c>
-      <c r="E4" s="60" t="str">
-        <f>Sprint1!D7</f>
-        <v>To do</v>
+      <c r="E4" s="36" t="str">
+        <f>Sprint1!D5</f>
+        <v>Done</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="str">
-        <f>Sprint1!A8</f>
+      <c r="B5" s="17" t="str">
+        <f>Sprint1!A6</f>
         <v>US05</v>
       </c>
-      <c r="C5" s="22" t="str">
-        <f>Sprint1!B8</f>
+      <c r="C5" s="17" t="str">
+        <f>Sprint1!B6</f>
         <v>Marriage before death</v>
       </c>
-      <c r="D5" s="22" t="str">
-        <f>Sprint1!C8</f>
+      <c r="D5" s="17" t="str">
+        <f>Sprint1!C6</f>
         <v>zy</v>
       </c>
-      <c r="E5" s="60" t="str">
-        <f>Sprint1!D8</f>
-        <v>To do</v>
+      <c r="E5" s="36" t="str">
+        <f>Sprint1!D6</f>
+        <v>Done</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="22" t="str">
-        <f>Sprint1!A9</f>
+      <c r="B6" s="17" t="str">
+        <f>Sprint1!A7</f>
         <v>US01</v>
       </c>
-      <c r="C6" s="22" t="str">
-        <f>Sprint1!B9</f>
+      <c r="C6" s="17" t="str">
+        <f>Sprint1!B7</f>
         <v>Dates before current date</v>
       </c>
-      <c r="D6" s="22" t="str">
-        <f>Sprint1!C9</f>
+      <c r="D6" s="17" t="str">
+        <f>Sprint1!C7</f>
         <v>hw</v>
       </c>
-      <c r="E6" s="60" t="str">
-        <f>Sprint1!D9</f>
-        <v>To do</v>
+      <c r="E6" s="36" t="str">
+        <f>Sprint1!D7</f>
+        <v>Done</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="22" t="str">
-        <f>Sprint1!A10</f>
+      <c r="B7" s="17" t="str">
+        <f>Sprint1!A8</f>
         <v>US07</v>
       </c>
-      <c r="C7" s="22" t="str">
-        <f>Sprint1!B10</f>
+      <c r="C7" s="17" t="str">
+        <f>Sprint1!B8</f>
         <v>Less then 150 years old</v>
       </c>
-      <c r="D7" s="22" t="str">
-        <f>Sprint1!C10</f>
+      <c r="D7" s="17" t="str">
+        <f>Sprint1!C8</f>
         <v>hw</v>
       </c>
-      <c r="E7" s="60" t="str">
-        <f>Sprint1!D10</f>
-        <v>To do</v>
+      <c r="E7" s="36" t="str">
+        <f>Sprint1!D8</f>
+        <v>Done</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="22" t="str">
-        <f>Sprint1!A11</f>
+      <c r="B8" s="17" t="str">
+        <f>Sprint1!A9</f>
         <v>US08</v>
       </c>
-      <c r="C8" s="22" t="str">
-        <f>Sprint1!B11</f>
+      <c r="C8" s="17" t="str">
+        <f>Sprint1!B9</f>
         <v>Birth before marriage of parents</v>
       </c>
-      <c r="D8" s="22" t="str">
-        <f>Sprint1!C11</f>
+      <c r="D8" s="17" t="str">
+        <f>Sprint1!C9</f>
         <v>fl</v>
       </c>
-      <c r="E8" s="60" t="str">
-        <f>Sprint1!D11</f>
-        <v>To do</v>
+      <c r="E8" s="36" t="str">
+        <f>Sprint1!D9</f>
+        <v>Done</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="22" t="str">
-        <f>Sprint1!A12</f>
+      <c r="B9" s="17" t="str">
+        <f>Sprint1!A10</f>
         <v>US09</v>
       </c>
-      <c r="C9" s="22" t="str">
-        <f>Sprint1!B12</f>
+      <c r="C9" s="17" t="str">
+        <f>Sprint1!B10</f>
         <v>Birth before death of parents</v>
       </c>
-      <c r="D9" s="22" t="str">
-        <f>Sprint1!C12</f>
+      <c r="D9" s="17" t="str">
+        <f>Sprint1!C10</f>
         <v>fl</v>
       </c>
-      <c r="E9" s="60" t="str">
-        <f>Sprint1!D12</f>
+      <c r="E9" s="36" t="str">
+        <f>Sprint1!D10</f>
+        <v>Done</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="17" t="str" cm="1">
+        <f t="array" ref="B10:E17">Sprint2!A3:D10</f>
+        <v>US06</v>
+      </c>
+      <c r="C10" s="17" t="str">
+        <v>Divorce before death</v>
+      </c>
+      <c r="D10" s="17" t="str">
+        <v>yh</v>
+      </c>
+      <c r="E10" s="36" t="str">
+        <v>Doing</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="17" t="str">
+        <v>US10</v>
+      </c>
+      <c r="C11" s="17" t="str">
+        <v>Marriage after 14</v>
+      </c>
+      <c r="D11" s="17" t="str">
+        <v>yz</v>
+      </c>
+      <c r="E11" s="36" t="str">
         <v>To do</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="17" t="str">
+        <v>US12</v>
+      </c>
+      <c r="C12" s="17" t="str">
+        <v>Parents not too old</v>
+      </c>
+      <c r="D12" s="17" t="str">
+        <v>yh</v>
+      </c>
+      <c r="E12" s="36" t="str">
+        <v>Doing</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="17" t="str">
+        <v>US11</v>
+      </c>
+      <c r="C13" s="17" t="str">
+        <v>No bigamy</v>
+      </c>
+      <c r="D13" s="17" t="str">
+        <v>yz</v>
+      </c>
+      <c r="E13" s="36" t="str">
+        <v>To do</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="17" t="str">
+        <v>US17</v>
+      </c>
+      <c r="C14" s="17" t="str">
+        <v>No marriages to children</v>
+      </c>
+      <c r="D14" s="17" t="str">
+        <v>hw</v>
+      </c>
+      <c r="E14" s="36" t="str">
+        <v>Doing</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="17" t="str">
+        <v>US18</v>
+      </c>
+      <c r="C15" s="17" t="str">
+        <v>Siblings should not marry</v>
+      </c>
+      <c r="D15" s="17" t="str">
+        <v>hw</v>
+      </c>
+      <c r="E15" s="36" t="str">
+        <v>Doing</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" s="17" t="str">
+        <v>US15</v>
+      </c>
+      <c r="C16" s="17" t="str">
+        <v>Fewer than 15 siblings</v>
+      </c>
+      <c r="D16" s="17" t="str">
+        <v>fl</v>
+      </c>
+      <c r="E16" s="36" t="str">
+        <v>To do</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="17" t="str">
+        <v>US16</v>
+      </c>
+      <c r="C17" s="17" t="str">
+        <v>Male last names</v>
+      </c>
+      <c r="D17" s="17" t="str">
+        <v>fl</v>
+      </c>
+      <c r="E17" s="36" t="str">
+        <v>To do</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="17" t="str" cm="1">
+        <f t="array" ref="B18:C37">Stories!A21:B40</f>
+        <v>US20</v>
+      </c>
+      <c r="C18" s="17" t="str">
+        <v>Aunts and uncles</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="17" t="str">
+        <v>US21</v>
+      </c>
+      <c r="C19" s="17" t="str">
+        <v>Correct gender for role</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="17" t="str">
+        <v>US22</v>
+      </c>
+      <c r="C20" s="17" t="str">
+        <v>Unique IDs</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B21" s="17" t="str">
+        <v>US23</v>
+      </c>
+      <c r="C21" s="17" t="str">
+        <v>Unique name and birth date</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="17" t="str">
+        <v>US24</v>
+      </c>
+      <c r="C22" s="17" t="str">
+        <v>Unique families by spouses</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B23" s="17" t="str">
+        <v>US25</v>
+      </c>
+      <c r="C23" s="17" t="str">
+        <v>Unique first names in families</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B24" s="17" t="str">
+        <v>US26</v>
+      </c>
+      <c r="C24" s="17" t="str">
+        <v>Corresponding entries</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B25" s="17" t="str">
+        <v>US27</v>
+      </c>
+      <c r="C25" s="17" t="str">
+        <v>Include individual ages</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B26" s="17" t="str">
+        <v>US28</v>
+      </c>
+      <c r="C26" s="17" t="str">
+        <v>Order siblings by age</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="17" t="str">
+        <v>US29</v>
+      </c>
+      <c r="C27" s="17" t="str">
+        <v>List deceased</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="17" t="str">
+        <v>US30</v>
+      </c>
+      <c r="C28" s="17" t="str">
+        <v>List living married</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="17" t="str">
+        <v>US31</v>
+      </c>
+      <c r="C29" s="17" t="str">
+        <v>List living single</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="17" t="str">
+        <v>US32</v>
+      </c>
+      <c r="C30" s="17" t="str">
+        <v>List multiple births</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="17" t="str">
+        <v>US33</v>
+      </c>
+      <c r="C31" s="17" t="str">
+        <v>List orphans</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="17" t="str">
+        <v>US34</v>
+      </c>
+      <c r="C32" s="17" t="str">
+        <v>List large age differences</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="17" t="str">
+        <v>US35</v>
+      </c>
+      <c r="C33" s="17" t="str">
+        <v>List recent births</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="17" t="str">
+        <v>US36</v>
+      </c>
+      <c r="C34" s="17" t="str">
+        <v>List recent deaths</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="17" t="str">
+        <v>US37</v>
+      </c>
+      <c r="C35" s="17" t="str">
+        <v>List recent survivors</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="17" t="str">
+        <v>US38</v>
+      </c>
+      <c r="C36" s="17" t="str">
+        <v>List upcoming birthdays</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="17" t="str">
+        <v>US39</v>
+      </c>
+      <c r="C37" s="17" t="str">
+        <v>List upcoming anniversaries</v>
       </c>
     </row>
   </sheetData>
@@ -2603,8 +3150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2619,37 +3166,37 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -2672,7 +3219,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B15" s="8">
         <v>41065</v>
@@ -2688,7 +3235,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B16" s="8">
         <v>41078</v>
@@ -2713,7 +3260,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B17" s="8">
         <v>41092</v>
@@ -2738,7 +3285,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B18" s="8">
         <v>41106</v>
@@ -2763,7 +3310,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B19" s="8">
         <v>41120</v>
@@ -2795,41 +3342,127 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="60">
+        <v>42406</v>
+      </c>
+      <c r="C2" s="62">
+        <v>32</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="63">
+        <v>0</v>
+      </c>
+      <c r="F2" s="63"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42427</v>
+      </c>
+      <c r="C3" s="62">
+        <f>32-8</f>
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3" s="63">
+        <f>SUM(Sprint1!G3:G10)</f>
+        <v>196</v>
+      </c>
+      <c r="F3" s="63">
+        <f>SUM(Sprint1!H3:H10)</f>
+        <v>460</v>
+      </c>
+      <c r="G3" s="7">
+        <f>(E3-E2)/F3*60</f>
+        <v>25.565217391304348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="74" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" s="75">
+        <v>42483</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C8" s="61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2841,402 +3474,568 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="24" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="13" style="51" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" style="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="20" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="56"/>
-    </row>
-    <row r="2" spans="1:16" s="20" customFormat="1" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="32" t="s">
+      <c r="E1" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="68"/>
+      <c r="G1" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" s="68"/>
+      <c r="O1" s="69"/>
+    </row>
+    <row r="2" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="70"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="O2" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="K2" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="21" t="s">
+    </row>
+    <row r="3" spans="1:16" ht="14" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="17">
+        <v>10</v>
+      </c>
+      <c r="F3">
         <v>30</v>
       </c>
-      <c r="E3" s="21">
-        <v>150</v>
-      </c>
-      <c r="F3" s="16">
+      <c r="G3" s="17">
+        <v>30</v>
+      </c>
+      <c r="H3" s="39">
         <v>60</v>
       </c>
-      <c r="G3" s="21">
-        <v>120</v>
-      </c>
-      <c r="H3" s="16">
-        <v>90</v>
-      </c>
-      <c r="I3" s="17">
-        <v>40444</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>215</v>
+      <c r="I3" s="4">
+        <v>42423</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="17">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4" s="17">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4" s="4">
+        <v>42423</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="L4" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="O4" s="57" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="E5" s="22">
-        <v>10</v>
+      <c r="A5" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="17">
+        <v>15</v>
       </c>
       <c r="F5">
         <v>30</v>
       </c>
+      <c r="G5" s="17">
+        <v>23</v>
+      </c>
+      <c r="H5" s="39">
+        <v>45</v>
+      </c>
+      <c r="I5" s="4">
+        <v>42425</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="L5" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O5" s="57" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="E6" s="22">
-        <v>10</v>
+      <c r="A6" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="17">
+        <v>15</v>
       </c>
       <c r="F6">
         <v>30</v>
       </c>
+      <c r="G6" s="17">
+        <v>30</v>
+      </c>
+      <c r="H6" s="39">
+        <v>45</v>
+      </c>
+      <c r="I6" s="4">
+        <v>42425</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="L6" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="O6" s="57" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="17">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="17">
+        <v>41</v>
+      </c>
+      <c r="H7" s="39">
+        <v>180</v>
+      </c>
+      <c r="I7" s="4">
+        <v>42417</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="L7" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="O7" s="57" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="17">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8" s="17">
+        <v>25</v>
+      </c>
+      <c r="H8" s="39">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4">
+        <v>42417</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="O8" s="57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="17">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9" s="17">
+        <v>13</v>
+      </c>
+      <c r="H9" s="39">
+        <v>40</v>
+      </c>
+      <c r="I9" s="4">
+        <v>42425</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="L9" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="O9" s="57" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B10" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D7" s="36" t="s">
+      <c r="C10" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="17">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10" s="17">
+        <v>14</v>
+      </c>
+      <c r="H10" s="39">
+        <v>20</v>
+      </c>
+      <c r="I10" s="4">
+        <v>42425</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="L10" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="O10" s="57" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="B13" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="B14" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="41">
+        <v>1</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="47"/>
+    </row>
+    <row r="16" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="41">
+        <v>2</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="47"/>
+    </row>
+    <row r="17" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="41">
+        <v>3</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="B18" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="43" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="41">
+        <v>1</v>
+      </c>
+      <c r="B19" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="22">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="E8" s="22">
-        <v>15</v>
-      </c>
-      <c r="F8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="E9" s="22">
-        <v>15</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="31"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="E10" s="22">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="E11" s="22">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="E12" s="22">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="B15" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B16" s="25"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="B17" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="28" x14ac:dyDescent="0.15">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="28" x14ac:dyDescent="0.15">
-      <c r="A19" s="37"/>
-      <c r="B19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="B21" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="28" x14ac:dyDescent="0.15">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="19" t="s">
-        <v>215</v>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="47"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="41">
+        <v>2</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3258,16 +4057,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
@@ -3284,78 +4083,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="56"/>
+      <c r="E1" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="68"/>
+      <c r="G1" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" s="68"/>
+      <c r="O1" s="69"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="32" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="O2" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="K2" s="33" t="s">
+    </row>
+    <row r="3" spans="1:15" ht="14" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="L2" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="D9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="J1:L1"/>
@@ -3390,75 +4348,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="56"/>
+      <c r="E1" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="68"/>
+      <c r="G1" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" s="68"/>
+      <c r="O1" s="69"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="32" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="O2" s="25" t="s">
         <v>181</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
@@ -3496,75 +4454,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="56"/>
+      <c r="E1" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="68"/>
+      <c r="G1" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" s="68"/>
+      <c r="O1" s="69"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="32" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="O2" s="25" t="s">
         <v>181</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
@@ -3588,516 +4546,531 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="47"/>
-    <col min="2" max="2" width="28.1640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="49" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="47"/>
+    <col min="1" max="1" width="10.83203125" style="29"/>
+    <col min="2" max="2" width="28.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="20" customFormat="1" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:4" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="35" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A4" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+      <c r="A5" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+      <c r="A6" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B6" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C6" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A7" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="35" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="48" t="s">
+      <c r="C7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
+      <c r="D7" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+      <c r="A8" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B8" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="D8" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+      <c r="A9" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+      <c r="A10" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+      <c r="A11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+      <c r="A12" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="46" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A4" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="48" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+      <c r="A13" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.15">
+      <c r="A14" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+      <c r="A15" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="46" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.15">
-      <c r="A5" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="48" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A16" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.15">
-      <c r="A6" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="48" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+      <c r="A17" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="46" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="48" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A18" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A19" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.15">
-      <c r="A8" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.15">
-      <c r="A9" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.15">
-      <c r="A10" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.15">
-      <c r="A11" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.15">
-      <c r="A12" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="48" t="s">
+      <c r="D19" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A20" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.15">
-      <c r="A13" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.15">
-      <c r="A14" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="47" t="s">
+    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+      <c r="A21" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="48" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.15">
-      <c r="A15" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="47" t="s">
+      <c r="C21" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+      <c r="A22" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+      <c r="A23" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+      <c r="A24" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+      <c r="A25" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+      <c r="A26" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="136" x14ac:dyDescent="0.15">
+      <c r="A27" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+      <c r="A28" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+      <c r="A29" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A16" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A17" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
-      <c r="A18" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
-      <c r="A19" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
-      <c r="A20" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A21" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="48" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A30" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A22" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A23" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A24" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="48" t="s">
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A31" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
-      <c r="A25" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="48" t="s">
+    <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+      <c r="A32" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A26" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="48" t="s">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A33" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
-      <c r="A27" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A28" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="48" t="s">
+    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A34" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A29" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
-      <c r="A30" s="47" t="s">
+    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+      <c r="A35" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B35" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A36" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
-      <c r="A31" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" s="47" t="s">
+      <c r="C36" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A37" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A32" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="B32" s="47" t="s">
+      <c r="C37" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A38" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
-      <c r="A33" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" s="47" t="s">
+      <c r="C38" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A39" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A34" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34" s="47" t="s">
+      <c r="C39" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A40" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="B35" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="48" t="s">
+      <c r="C40" s="30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A36" s="47" t="s">
+    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A41" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B41" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C41" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A42" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A37" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="B37" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="48" t="s">
+    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A43" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="30" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A38" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="B38" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A39" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="B39" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A40" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="B40" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A41" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="B41" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A42" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="B42" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A43" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="B43" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="48" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/docs/TeamHogwartsReport.xlsx
+++ b/docs/TeamHogwartsReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huying/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC17ED6-FE5A-1F41-8AAB-96187BFD79E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE2834B-CE79-C94F-B271-C741A4F50980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="15540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="268">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -840,60 +839,21 @@
     <t>us09_birth_after_death</t>
   </si>
   <si>
-    <t>6-41</t>
-  </si>
-  <si>
     <t>Testcurrent_date_check</t>
   </si>
   <si>
-    <t>10-23</t>
-  </si>
-  <si>
-    <t>10-32</t>
-  </si>
-  <si>
     <t>Testbirth_before_marriage</t>
   </si>
   <si>
-    <t>10-22</t>
-  </si>
-  <si>
-    <t>6-23</t>
-  </si>
-  <si>
     <t>US04_TestCase</t>
   </si>
   <si>
-    <t>11-25</t>
-  </si>
-  <si>
-    <t>6-30</t>
-  </si>
-  <si>
     <t>US05_TestCase</t>
   </si>
   <si>
-    <t>11-23</t>
-  </si>
-  <si>
-    <t>6-25</t>
-  </si>
-  <si>
-    <t>10-21</t>
-  </si>
-  <si>
-    <t>5-18</t>
-  </si>
-  <si>
     <t>US08_TestCase</t>
   </si>
   <si>
-    <t>11-24</t>
-  </si>
-  <si>
-    <t>5-19</t>
-  </si>
-  <si>
     <t>US09_TestCase</t>
   </si>
   <si>
@@ -907,6 +867,36 @@
   </si>
   <si>
     <t>Doing</t>
+  </si>
+  <si>
+    <t>1-23</t>
+  </si>
+  <si>
+    <t>1-22</t>
+  </si>
+  <si>
+    <t>1-25</t>
+  </si>
+  <si>
+    <t>1-21</t>
+  </si>
+  <si>
+    <t>1-24</t>
+  </si>
+  <si>
+    <t>1-41</t>
+  </si>
+  <si>
+    <t>1-32</t>
+  </si>
+  <si>
+    <t>1-30</t>
+  </si>
+  <si>
+    <t>1-18</t>
+  </si>
+  <si>
+    <t>1-19</t>
   </si>
 </sst>
 </file>
@@ -917,7 +907,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -960,6 +950,13 @@
     <font>
       <i/>
       <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -1286,6 +1283,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1313,10 +1311,9 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2597,21 +2594,21 @@
       <c r="D10" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
@@ -3344,8 +3341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3415,7 +3412,7 @@
       </c>
       <c r="E3" s="63">
         <f>SUM(Sprint1!G3:G10)</f>
-        <v>196</v>
+        <v>415</v>
       </c>
       <c r="F3" s="63">
         <f>SUM(Sprint1!H3:H10)</f>
@@ -3423,7 +3420,7 @@
       </c>
       <c r="G3" s="7">
         <f>(E3-E2)/F3*60</f>
-        <v>25.565217391304348</v>
+        <v>54.130434782608695</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -3452,13 +3449,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="74" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B7" s="75">
         <v>42483</v>
       </c>
       <c r="C7" s="76" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -3476,8 +3473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3500,43 +3497,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="67" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="67" t="s">
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="67" t="s">
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="70"/>
     </row>
     <row r="2" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -3591,7 +3588,8 @@
         <v>30</v>
       </c>
       <c r="G3" s="17">
-        <v>30</v>
+        <f>23+41</f>
+        <v>64</v>
       </c>
       <c r="H3" s="39">
         <v>60</v>
@@ -3606,16 +3604,16 @@
         <v>241</v>
       </c>
       <c r="L3" s="54" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>231</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O3" s="57" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
@@ -3638,7 +3636,8 @@
         <v>30</v>
       </c>
       <c r="G4" s="17">
-        <v>20</v>
+        <f>32+22</f>
+        <v>54</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -3653,16 +3652,16 @@
         <v>242</v>
       </c>
       <c r="L4" s="52" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="M4" s="20" t="s">
         <v>232</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O4" s="57" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
@@ -3685,7 +3684,8 @@
         <v>30</v>
       </c>
       <c r="G5" s="17">
-        <v>23</v>
+        <f>23+25</f>
+        <v>48</v>
       </c>
       <c r="H5" s="39">
         <v>45</v>
@@ -3700,16 +3700,16 @@
         <v>243</v>
       </c>
       <c r="L5" s="52" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M5" s="20" t="s">
         <v>233</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O5" s="57" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
@@ -3732,7 +3732,8 @@
         <v>30</v>
       </c>
       <c r="G6" s="17">
-        <v>30</v>
+        <f>30+23</f>
+        <v>53</v>
       </c>
       <c r="H6" s="39">
         <v>45</v>
@@ -3747,16 +3748,16 @@
         <v>244</v>
       </c>
       <c r="L6" s="52" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="M6" s="20" t="s">
         <v>234</v>
       </c>
       <c r="N6" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="O6" s="57" t="s">
         <v>258</v>
-      </c>
-      <c r="O6" s="57" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
@@ -3779,7 +3780,8 @@
         <v>10</v>
       </c>
       <c r="G7" s="17">
-        <v>41</v>
+        <f>41+24</f>
+        <v>65</v>
       </c>
       <c r="H7" s="39">
         <v>180</v>
@@ -3794,16 +3796,16 @@
         <v>240</v>
       </c>
       <c r="L7" s="52" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="M7" s="21" t="s">
         <v>235</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O7" s="57" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -3826,7 +3828,8 @@
         <v>8</v>
       </c>
       <c r="G8" s="17">
-        <v>25</v>
+        <f>25+21</f>
+        <v>46</v>
       </c>
       <c r="H8" s="39">
         <v>10</v>
@@ -3847,7 +3850,7 @@
         <v>236</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O8" s="57" t="s">
         <v>261</v>
@@ -3873,7 +3876,8 @@
         <v>15</v>
       </c>
       <c r="G9" s="17">
-        <v>13</v>
+        <f>18+24</f>
+        <v>42</v>
       </c>
       <c r="H9" s="39">
         <v>40</v>
@@ -3888,16 +3892,16 @@
         <v>246</v>
       </c>
       <c r="L9" s="52" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M9" s="20" t="s">
         <v>237</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="O9" s="57" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
@@ -3920,7 +3924,8 @@
         <v>15</v>
       </c>
       <c r="G10" s="17">
-        <v>14</v>
+        <f>19+24</f>
+        <v>43</v>
       </c>
       <c r="H10" s="39">
         <v>20</v>
@@ -3935,16 +3940,16 @@
         <v>247</v>
       </c>
       <c r="L10" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M10" s="20" t="s">
         <v>238</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="O10" s="57" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
@@ -4035,7 +4040,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4083,43 +4088,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="67" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="67" t="s">
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="67" t="s">
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="70"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -4165,7 +4170,7 @@
         <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -4205,7 +4210,7 @@
         <v>191</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E5">
         <v>60</v>
@@ -4245,7 +4250,7 @@
         <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -4265,7 +4270,7 @@
         <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -4278,7 +4283,7 @@
       <c r="A9" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="64" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -4298,7 +4303,7 @@
       <c r="A10" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="64" t="s">
         <v>82</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -4348,43 +4353,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="67" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="67" t="s">
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="67" t="s">
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="70"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -4454,43 +4459,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="67" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="67" t="s">
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="67" t="s">
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="70"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>

--- a/docs/TeamHogwartsReport.xlsx
+++ b/docs/TeamHogwartsReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huying/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huying/Dropbox-yhu@stevens/Dropbox/My Dropbox Move/0_SSW-555/Project/prj04_hogwarts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE2834B-CE79-C94F-B271-C741A4F50980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E1984B-51EE-FC46-8C5D-003594F64554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="266">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -858,12 +858,6 @@
   </si>
   <si>
     <t>Asserting GED data opptionally, it may probaberly affect previous us test. Instead, we shall always add new GED data at the end of the GED file.</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>(expected)</t>
   </si>
   <si>
     <t>Doing</t>
@@ -1284,6 +1278,9 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1311,9 +1308,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1412,7 +1406,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.4667543857072795E-2"/>
+          <c:y val="7.4548675069745163E-2"/>
+          <c:w val="0.90164523550086917"/>
+          <c:h val="0.83261962940375134"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1556,6 +1560,23 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-B34F-FC48-9D37-A0CABE8FE464}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:numRef>
               <c:f>Burndown!$B$2:$B$7</c:f>
@@ -1567,9 +1588,6 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42427</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1585,9 +1603,6 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2594,21 +2609,21 @@
       <c r="D10" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
     </row>
     <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
@@ -3147,8 +3162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G19" sqref="B19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3448,15 +3463,9 @@
       <c r="F6" s="63"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="74" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="75">
-        <v>42483</v>
-      </c>
-      <c r="C7" s="76" t="s">
-        <v>256</v>
-      </c>
+      <c r="A7" s="65"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C8" s="61"/>
@@ -3497,43 +3506,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="68" t="s">
+      <c r="F1" s="72"/>
+      <c r="G1" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="68" t="s">
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="68" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="69"/>
-      <c r="O1" s="70"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="73"/>
     </row>
     <row r="2" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -3604,7 +3613,7 @@
         <v>241</v>
       </c>
       <c r="L3" s="54" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>231</v>
@@ -3613,7 +3622,7 @@
         <v>248</v>
       </c>
       <c r="O3" s="57" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
@@ -3652,7 +3661,7 @@
         <v>242</v>
       </c>
       <c r="L4" s="52" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M4" s="20" t="s">
         <v>232</v>
@@ -3661,7 +3670,7 @@
         <v>249</v>
       </c>
       <c r="O4" s="57" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
@@ -3700,7 +3709,7 @@
         <v>243</v>
       </c>
       <c r="L5" s="52" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M5" s="20" t="s">
         <v>233</v>
@@ -3709,7 +3718,7 @@
         <v>250</v>
       </c>
       <c r="O5" s="57" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
@@ -3748,7 +3757,7 @@
         <v>244</v>
       </c>
       <c r="L6" s="52" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M6" s="20" t="s">
         <v>234</v>
@@ -3757,7 +3766,7 @@
         <v>251</v>
       </c>
       <c r="O6" s="57" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
@@ -3796,7 +3805,7 @@
         <v>240</v>
       </c>
       <c r="L7" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M7" s="21" t="s">
         <v>235</v>
@@ -3805,7 +3814,7 @@
         <v>248</v>
       </c>
       <c r="O7" s="57" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -3844,7 +3853,7 @@
         <v>245</v>
       </c>
       <c r="L8" s="52" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M8" s="20" t="s">
         <v>236</v>
@@ -3853,7 +3862,7 @@
         <v>248</v>
       </c>
       <c r="O8" s="57" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
@@ -3892,7 +3901,7 @@
         <v>246</v>
       </c>
       <c r="L9" s="52" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M9" s="20" t="s">
         <v>237</v>
@@ -3901,7 +3910,7 @@
         <v>252</v>
       </c>
       <c r="O9" s="57" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
@@ -3940,7 +3949,7 @@
         <v>247</v>
       </c>
       <c r="L10" s="52" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M10" s="20" t="s">
         <v>238</v>
@@ -3949,7 +3958,7 @@
         <v>253</v>
       </c>
       <c r="O10" s="57" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
@@ -4088,43 +4097,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="68" t="s">
+      <c r="F1" s="72"/>
+      <c r="G1" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="68" t="s">
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="68" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="69"/>
-      <c r="O1" s="70"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="73"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -4170,7 +4179,7 @@
         <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -4210,7 +4219,7 @@
         <v>191</v>
       </c>
       <c r="D5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E5">
         <v>60</v>
@@ -4250,7 +4259,7 @@
         <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -4270,7 +4279,7 @@
         <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -4353,43 +4362,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="68" t="s">
+      <c r="F1" s="72"/>
+      <c r="G1" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="68" t="s">
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="68" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="69"/>
-      <c r="O1" s="70"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="73"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -4459,43 +4468,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="68" t="s">
+      <c r="F1" s="72"/>
+      <c r="G1" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="68" t="s">
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="68" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="69"/>
-      <c r="O1" s="70"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="73"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>

--- a/docs/TeamHogwartsReport.xlsx
+++ b/docs/TeamHogwartsReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huying/Dropbox-yhu@stevens/Dropbox/My Dropbox Move/0_SSW-555/Project/prj04_hogwarts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huying/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E1984B-51EE-FC46-8C5D-003594F64554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658D03ED-426E-7E47-9719-63864D0020F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="15540" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="277">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -891,6 +891,39 @@
   </si>
   <si>
     <t>1-19</t>
+  </si>
+  <si>
+    <t>us06.py</t>
+  </si>
+  <si>
+    <t>us06_divorce_before_death</t>
+  </si>
+  <si>
+    <t>us06_test</t>
+  </si>
+  <si>
+    <t>Testdivorce_before_death</t>
+  </si>
+  <si>
+    <t>3/15</t>
+  </si>
+  <si>
+    <t>us12.py</t>
+  </si>
+  <si>
+    <t>us12_parents_not_too_old</t>
+  </si>
+  <si>
+    <t>1-35</t>
+  </si>
+  <si>
+    <t>us12_test</t>
+  </si>
+  <si>
+    <t>Testparents_not_too_old</t>
+  </si>
+  <si>
+    <t>1-26</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1179,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1308,6 +1341,8 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2868,7 +2903,7 @@
         <v>yh</v>
       </c>
       <c r="E10" s="36" t="str">
-        <v>Doing</v>
+        <v>Done</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -2902,7 +2937,7 @@
         <v>yh</v>
       </c>
       <c r="E12" s="36" t="str">
-        <v>Doing</v>
+        <v>Done</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -3356,7 +3391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -4073,8 +4108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4087,13 +4122,13 @@
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="77" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="77" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" style="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4146,7 +4181,7 @@
       <c r="H2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="50" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="22" t="s">
@@ -4155,7 +4190,7 @@
       <c r="K2" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="50" t="s">
         <v>179</v>
       </c>
       <c r="M2" s="22" t="s">
@@ -4164,7 +4199,7 @@
       <c r="N2" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="55" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4179,13 +4214,40 @@
         <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E3">
         <v>30</v>
       </c>
       <c r="F3">
         <v>30</v>
+      </c>
+      <c r="G3">
+        <v>58</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="J3" t="s">
+        <v>266</v>
+      </c>
+      <c r="K3" t="s">
+        <v>267</v>
+      </c>
+      <c r="L3" s="78" t="s">
+        <v>262</v>
+      </c>
+      <c r="M3" t="s">
+        <v>268</v>
+      </c>
+      <c r="N3" t="s">
+        <v>269</v>
+      </c>
+      <c r="O3" s="78" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -4219,13 +4281,40 @@
         <v>191</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E5">
         <v>60</v>
       </c>
       <c r="F5">
         <v>30</v>
+      </c>
+      <c r="G5">
+        <v>61</v>
+      </c>
+      <c r="H5">
+        <v>120</v>
+      </c>
+      <c r="I5" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="L5" s="78" t="s">
+        <v>273</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="O5" s="78" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">

--- a/docs/TeamHogwartsReport.xlsx
+++ b/docs/TeamHogwartsReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huying/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeyiszy/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658D03ED-426E-7E47-9719-63864D0020F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2D82C87-2112-6349-BBF1-5F8E49993672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="15540" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="290">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -924,6 +924,54 @@
   </si>
   <si>
     <t>1-26</t>
+  </si>
+  <si>
+    <t>3/18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us10.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us11.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us10_marriage_after_14</t>
+  </si>
+  <si>
+    <t>us11_no_bigamy</t>
+  </si>
+  <si>
+    <t>1-22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us10_test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us11_test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_us10</t>
+  </si>
+  <si>
+    <t>test_us11</t>
+  </si>
+  <si>
+    <t>11-20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -931,10 +979,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -986,6 +1034,12 @@
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1181,16 +1235,16 @@
   </cellStyleXfs>
   <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1222,7 +1276,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1264,7 +1318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1306,14 +1360,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1341,76 +1397,74 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="66">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1428,7 +1482,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1575,7 +1629,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2531,7 +2585,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -2539,7 +2593,7 @@
     <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
@@ -2556,7 +2610,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="14" thickTop="1">
       <c r="A2" s="13" t="s">
         <v>182</v>
       </c>
@@ -2573,7 +2627,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="13" t="s">
         <v>185</v>
       </c>
@@ -2590,7 +2644,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="13" t="s">
         <v>186</v>
       </c>
@@ -2607,7 +2661,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>191</v>
       </c>
@@ -2624,7 +2678,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="D8" s="37" t="s">
         <v>34</v>
       </c>
@@ -2632,7 +2686,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="D9" s="37" t="s">
         <v>212</v>
       </c>
@@ -2640,25 +2694,25 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="28" customHeight="1">
       <c r="D10" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-    </row>
-    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+    </row>
+    <row r="11" spans="1:7" ht="66" customHeight="1">
       <c r="D11" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
@@ -2688,7 +2742,7 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="13.1640625" customWidth="1"/>
     <col min="2" max="2" width="14" style="17" customWidth="1"/>
@@ -2697,7 +2751,7 @@
     <col min="5" max="5" width="15.5" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>29</v>
       </c>
@@ -2720,7 +2774,7 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" ht="14" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="14" thickTop="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2741,7 +2795,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2762,7 +2816,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2783,7 +2837,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2804,7 +2858,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2825,7 +2879,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2846,7 +2900,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2867,7 +2921,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2888,7 +2942,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2906,7 +2960,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2923,7 +2977,7 @@
         <v>To do</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2940,7 +2994,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2957,7 +3011,7 @@
         <v>To do</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2974,7 +3028,7 @@
         <v>Doing</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2991,7 +3045,7 @@
         <v>Doing</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3008,7 +3062,7 @@
         <v>To do</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3025,7 +3079,7 @@
         <v>To do</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="B18" s="17" t="str" cm="1">
         <f t="array" ref="B18:C37">Stories!A21:B40</f>
         <v>US20</v>
@@ -3034,7 +3088,7 @@
         <v>Aunts and uncles</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="B19" s="17" t="str">
         <v>US21</v>
       </c>
@@ -3042,7 +3096,7 @@
         <v>Correct gender for role</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="B20" s="17" t="str">
         <v>US22</v>
       </c>
@@ -3050,7 +3104,7 @@
         <v>Unique IDs</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="B21" s="17" t="str">
         <v>US23</v>
       </c>
@@ -3058,7 +3112,7 @@
         <v>Unique name and birth date</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="B22" s="17" t="str">
         <v>US24</v>
       </c>
@@ -3066,7 +3120,7 @@
         <v>Unique families by spouses</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="B23" s="17" t="str">
         <v>US25</v>
       </c>
@@ -3074,7 +3128,7 @@
         <v>Unique first names in families</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="B24" s="17" t="str">
         <v>US26</v>
       </c>
@@ -3082,7 +3136,7 @@
         <v>Corresponding entries</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="B25" s="17" t="str">
         <v>US27</v>
       </c>
@@ -3090,7 +3144,7 @@
         <v>Include individual ages</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="B26" s="17" t="str">
         <v>US28</v>
       </c>
@@ -3098,7 +3152,7 @@
         <v>Order siblings by age</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="B27" s="17" t="str">
         <v>US29</v>
       </c>
@@ -3106,7 +3160,7 @@
         <v>List deceased</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="B28" s="17" t="str">
         <v>US30</v>
       </c>
@@ -3114,7 +3168,7 @@
         <v>List living married</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="B29" s="17" t="str">
         <v>US31</v>
       </c>
@@ -3122,7 +3176,7 @@
         <v>List living single</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="B30" s="17" t="str">
         <v>US32</v>
       </c>
@@ -3130,7 +3184,7 @@
         <v>List multiple births</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="B31" s="17" t="str">
         <v>US33</v>
       </c>
@@ -3138,7 +3192,7 @@
         <v>List orphans</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="B32" s="17" t="str">
         <v>US34</v>
       </c>
@@ -3146,7 +3200,7 @@
         <v>List large age differences</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:3">
       <c r="B33" s="17" t="str">
         <v>US35</v>
       </c>
@@ -3154,7 +3208,7 @@
         <v>List recent births</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:3">
       <c r="B34" s="17" t="str">
         <v>US36</v>
       </c>
@@ -3162,7 +3216,7 @@
         <v>List recent deaths</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:3">
       <c r="B35" s="17" t="str">
         <v>US37</v>
       </c>
@@ -3170,7 +3224,7 @@
         <v>List recent survivors</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:3">
       <c r="B36" s="17" t="str">
         <v>US38</v>
       </c>
@@ -3178,7 +3232,7 @@
         <v>List upcoming birthdays</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:3">
       <c r="B37" s="17" t="str">
         <v>US39</v>
       </c>
@@ -3201,7 +3255,7 @@
       <selection activeCell="G19" sqref="B19:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="5"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
@@ -3211,37 +3265,37 @@
     <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
         <v>159</v>
       </c>
@@ -3264,7 +3318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -3280,7 +3334,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -3305,7 +3359,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
         <v>162</v>
       </c>
@@ -3330,7 +3384,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
         <v>163</v>
       </c>
@@ -3355,7 +3409,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
         <v>164</v>
       </c>
@@ -3381,6 +3435,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -3395,7 +3450,7 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
@@ -3405,7 +3460,7 @@
     <col min="7" max="7" width="13.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>159</v>
       </c>
@@ -3428,7 +3483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="13" t="s">
         <v>160</v>
       </c>
@@ -3446,7 +3501,7 @@
       </c>
       <c r="F2" s="63"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="13" t="s">
         <v>161</v>
       </c>
@@ -3473,7 +3528,7 @@
         <v>54.130434782608695</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="13" t="s">
         <v>162</v>
       </c>
@@ -3481,7 +3536,7 @@
       <c r="E4" s="63"/>
       <c r="F4" s="63"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>163</v>
       </c>
@@ -3489,7 +3544,7 @@
       <c r="E5" s="63"/>
       <c r="F5" s="63"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="13" t="s">
         <v>164</v>
       </c>
@@ -3497,12 +3552,12 @@
       <c r="E6" s="63"/>
       <c r="F6" s="63"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="65"/>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="C8" s="61"/>
     </row>
   </sheetData>
@@ -3521,7 +3576,7 @@
       <selection activeCell="H3" sqref="H3:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="9.83203125" style="17" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="18" customWidth="1"/>
@@ -3540,44 +3595,44 @@
     <col min="15" max="15" width="10.1640625" style="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1">
+      <c r="A1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="71" t="s">
+      <c r="F1" s="74"/>
+      <c r="G1" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="71" t="s">
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="71" t="s">
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="73"/>
-    </row>
-    <row r="2" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="75"/>
+    </row>
+    <row r="2" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
+      <c r="A2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -3612,7 +3667,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="14" thickTop="1">
       <c r="A3" s="33" t="s">
         <v>113</v>
       </c>
@@ -3660,7 +3715,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="A4" s="33" t="s">
         <v>114</v>
       </c>
@@ -3708,7 +3763,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="A5" s="29" t="s">
         <v>115</v>
       </c>
@@ -3756,7 +3811,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="A6" s="29" t="s">
         <v>116</v>
       </c>
@@ -3804,7 +3859,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="A7" s="29" t="s">
         <v>112</v>
       </c>
@@ -3852,7 +3907,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="A8" s="29" t="s">
         <v>118</v>
       </c>
@@ -3900,7 +3955,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="A9" s="29" t="s">
         <v>119</v>
       </c>
@@ -3948,7 +4003,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16">
       <c r="A10" s="29" t="s">
         <v>120</v>
       </c>
@@ -3996,17 +4051,17 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="14">
       <c r="B13" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="14">
       <c r="B14" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" s="43" customFormat="1">
       <c r="A15" s="41">
         <v>1</v>
       </c>
@@ -4026,7 +4081,7 @@
       <c r="O15" s="58"/>
       <c r="P15" s="47"/>
     </row>
-    <row r="16" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" s="43" customFormat="1">
       <c r="A16" s="41">
         <v>2</v>
       </c>
@@ -4046,7 +4101,7 @@
       <c r="O16" s="58"/>
       <c r="P16" s="47"/>
     </row>
-    <row r="17" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" ht="14">
       <c r="A17" s="41">
         <v>3</v>
       </c>
@@ -4054,12 +4109,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" ht="14">
       <c r="B18" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="43" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" s="43" customFormat="1" ht="14">
       <c r="A19" s="41">
         <v>1</v>
       </c>
@@ -4079,7 +4134,7 @@
       <c r="O19" s="58"/>
       <c r="P19" s="47"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="41">
         <v>2</v>
       </c>
@@ -4109,10 +4164,10 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
@@ -4122,53 +4177,53 @@
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="68" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="77" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="68" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" style="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:15" ht="20" customHeight="1">
+      <c r="A1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="71" t="s">
+      <c r="F1" s="74"/>
+      <c r="G1" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="71" t="s">
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="71" t="s">
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="73"/>
-    </row>
-    <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="75"/>
+    </row>
+    <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
+      <c r="A2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -4203,7 +4258,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="14" thickTop="1">
       <c r="A3" s="13" t="s">
         <v>117</v>
       </c>
@@ -4228,7 +4283,7 @@
       <c r="H3">
         <v>50</v>
       </c>
-      <c r="I3" s="78" t="s">
+      <c r="I3" s="69" t="s">
         <v>270</v>
       </c>
       <c r="J3" t="s">
@@ -4237,7 +4292,7 @@
       <c r="K3" t="s">
         <v>267</v>
       </c>
-      <c r="L3" s="78" t="s">
+      <c r="L3" s="69" t="s">
         <v>262</v>
       </c>
       <c r="M3" t="s">
@@ -4246,11 +4301,11 @@
       <c r="N3" t="s">
         <v>269</v>
       </c>
-      <c r="O3" s="78" t="s">
+      <c r="O3" s="69" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" s="13" t="s">
         <v>121</v>
       </c>
@@ -4269,8 +4324,35 @@
       <c r="F4">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G4">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4" s="69" t="s">
+        <v>277</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="K4" t="s">
+        <v>280</v>
+      </c>
+      <c r="L4" s="69" t="s">
+        <v>282</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="N4" t="s">
+        <v>286</v>
+      </c>
+      <c r="O4" s="69" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="13" t="s">
         <v>123</v>
       </c>
@@ -4295,7 +4377,7 @@
       <c r="H5">
         <v>120</v>
       </c>
-      <c r="I5" s="78" t="s">
+      <c r="I5" s="69" t="s">
         <v>270</v>
       </c>
       <c r="J5" s="13" t="s">
@@ -4304,7 +4386,7 @@
       <c r="K5" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="L5" s="78" t="s">
+      <c r="L5" s="69" t="s">
         <v>273</v>
       </c>
       <c r="M5" s="13" t="s">
@@ -4313,11 +4395,11 @@
       <c r="N5" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="O5" s="78" t="s">
+      <c r="O5" s="69" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" s="13" t="s">
         <v>122</v>
       </c>
@@ -4336,8 +4418,35 @@
       <c r="F6">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6" s="69" t="s">
+        <v>277</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="K6" t="s">
+        <v>281</v>
+      </c>
+      <c r="L6" s="69" t="s">
+        <v>283</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="N6" t="s">
+        <v>287</v>
+      </c>
+      <c r="O6" s="69" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="13" t="s">
         <v>128</v>
       </c>
@@ -4357,7 +4466,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" s="13" t="s">
         <v>129</v>
       </c>
@@ -4377,7 +4486,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" s="13" t="s">
         <v>126</v>
       </c>
@@ -4397,7 +4506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" s="13" t="s">
         <v>127</v>
       </c>
@@ -4442,7 +4551,7 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
@@ -4450,44 +4559,44 @@
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:15" ht="20" customHeight="1">
+      <c r="A1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="71" t="s">
+      <c r="F1" s="74"/>
+      <c r="G1" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="71" t="s">
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="71" t="s">
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="73"/>
-    </row>
-    <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="75"/>
+    </row>
+    <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
+      <c r="A2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -4522,7 +4631,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:15" ht="14" thickTop="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="J1:L1"/>
@@ -4547,7 +4656,7 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
@@ -4556,44 +4665,44 @@
     <col min="14" max="14" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:15" ht="20" customHeight="1">
+      <c r="A1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="71" t="s">
+      <c r="F1" s="74"/>
+      <c r="G1" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="71" t="s">
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="71" t="s">
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="73"/>
-    </row>
-    <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="75"/>
+    </row>
+    <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
+      <c r="A2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -4628,7 +4737,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:15" ht="14" thickTop="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="J1:L1"/>
@@ -4653,7 +4762,7 @@
       <selection activeCell="B16" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="29"/>
     <col min="2" max="2" width="28.1640625" style="29" bestFit="1" customWidth="1"/>
@@ -4661,7 +4770,7 @@
     <col min="4" max="4" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>111</v>
       </c>
@@ -4675,7 +4784,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="35" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="35" thickTop="1">
       <c r="A2" s="29" t="s">
         <v>112</v>
       </c>
@@ -4689,7 +4798,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="17">
       <c r="A3" s="28" t="s">
         <v>113</v>
       </c>
@@ -4703,7 +4812,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="17">
       <c r="A4" s="29" t="s">
         <v>114</v>
       </c>
@@ -4717,7 +4826,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="34">
       <c r="A5" s="29" t="s">
         <v>115</v>
       </c>
@@ -4731,7 +4840,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="17">
       <c r="A6" s="29" t="s">
         <v>116</v>
       </c>
@@ -4745,7 +4854,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="17">
       <c r="A7" s="29" t="s">
         <v>117</v>
       </c>
@@ -4759,7 +4868,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="51">
       <c r="A8" s="29" t="s">
         <v>118</v>
       </c>
@@ -4773,7 +4882,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="34">
       <c r="A9" s="29" t="s">
         <v>119</v>
       </c>
@@ -4787,7 +4896,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="34">
       <c r="A10" s="29" t="s">
         <v>120</v>
       </c>
@@ -4801,7 +4910,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="34">
       <c r="A11" s="29" t="s">
         <v>121</v>
       </c>
@@ -4815,7 +4924,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="34">
       <c r="A12" s="29" t="s">
         <v>122</v>
       </c>
@@ -4826,7 +4935,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="51">
       <c r="A13" s="29" t="s">
         <v>123</v>
       </c>
@@ -4840,7 +4949,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="68">
       <c r="A14" s="29" t="s">
         <v>124</v>
       </c>
@@ -4851,7 +4960,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="34">
       <c r="A15" s="29" t="s">
         <v>125</v>
       </c>
@@ -4862,7 +4971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="17">
       <c r="A16" s="29" t="s">
         <v>126</v>
       </c>
@@ -4873,7 +4982,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="34">
       <c r="A17" s="29" t="s">
         <v>127</v>
       </c>
@@ -4884,7 +4993,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="17">
       <c r="A18" s="29" t="s">
         <v>128</v>
       </c>
@@ -4898,7 +5007,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="17">
       <c r="A19" s="29" t="s">
         <v>129</v>
       </c>
@@ -4912,7 +5021,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="17">
       <c r="A20" s="29" t="s">
         <v>130</v>
       </c>
@@ -4923,7 +5032,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="34">
       <c r="A21" s="29" t="s">
         <v>131</v>
       </c>
@@ -4934,7 +5043,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="34">
       <c r="A22" s="29" t="s">
         <v>132</v>
       </c>
@@ -4945,7 +5054,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="34">
       <c r="A23" s="29" t="s">
         <v>133</v>
       </c>
@@ -4956,7 +5065,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="34">
       <c r="A24" s="29" t="s">
         <v>134</v>
       </c>
@@ -4967,7 +5076,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="51">
       <c r="A25" s="29" t="s">
         <v>135</v>
       </c>
@@ -4978,7 +5087,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="34">
       <c r="A26" s="29" t="s">
         <v>136</v>
       </c>
@@ -4989,7 +5098,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="136" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="136">
       <c r="A27" s="29" t="s">
         <v>137</v>
       </c>
@@ -5000,7 +5109,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="17">
       <c r="A28" s="29" t="s">
         <v>138</v>
       </c>
@@ -5011,7 +5120,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="34">
       <c r="A29" s="29" t="s">
         <v>139</v>
       </c>
@@ -5022,7 +5131,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="17">
       <c r="A30" s="29" t="s">
         <v>140</v>
       </c>
@@ -5033,7 +5142,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="17">
       <c r="A31" s="29" t="s">
         <v>141</v>
       </c>
@@ -5044,7 +5153,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="34">
       <c r="A32" s="29" t="s">
         <v>142</v>
       </c>
@@ -5055,7 +5164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="17">
       <c r="A33" s="29" t="s">
         <v>143</v>
       </c>
@@ -5066,7 +5175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="34">
       <c r="A34" s="29" t="s">
         <v>144</v>
       </c>
@@ -5077,7 +5186,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="51">
       <c r="A35" s="29" t="s">
         <v>145</v>
       </c>
@@ -5088,7 +5197,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="34">
       <c r="A36" s="29" t="s">
         <v>146</v>
       </c>
@@ -5099,7 +5208,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="34">
       <c r="A37" s="29" t="s">
         <v>147</v>
       </c>
@@ -5110,7 +5219,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="34">
       <c r="A38" s="29" t="s">
         <v>148</v>
       </c>
@@ -5121,7 +5230,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="34">
       <c r="A39" s="29" t="s">
         <v>149</v>
       </c>
@@ -5132,7 +5241,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="34">
       <c r="A40" s="29" t="s">
         <v>150</v>
       </c>
@@ -5143,7 +5252,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="34">
       <c r="A41" s="29" t="s">
         <v>151</v>
       </c>
@@ -5154,7 +5263,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="34">
       <c r="A42" s="29" t="s">
         <v>152</v>
       </c>
@@ -5165,7 +5274,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="34">
       <c r="A43" s="29" t="s">
         <v>153</v>
       </c>
@@ -5177,6 +5286,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>

--- a/docs/TeamHogwartsReport.xlsx
+++ b/docs/TeamHogwartsReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeyiszy/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huying/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2D82C87-2112-6349-BBF1-5F8E49993672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4DBE56-557F-0A47-BD87-D10043993CE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="15540" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="15540" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="293">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -860,9 +860,6 @@
     <t>Asserting GED data opptionally, it may probaberly affect previous us test. Instead, we shall always add new GED data at the end of the GED file.</t>
   </si>
   <si>
-    <t>Doing</t>
-  </si>
-  <si>
     <t>1-23</t>
   </si>
   <si>
@@ -972,6 +969,18 @@
   <si>
     <t>11-21</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keep refactorying if needs arise</t>
+  </si>
+  <si>
+    <t>Try Mock from Sprint 3 for test code</t>
+  </si>
+  <si>
+    <t>duplication</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -979,8 +988,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="m/d"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1233,18 +1242,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1276,7 +1285,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1318,7 +1327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1360,13 +1369,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1397,74 +1406,101 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="66">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1482,7 +1518,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1629,7 +1665,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2736,10 +2772,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2974,7 +3010,7 @@
         <v>yz</v>
       </c>
       <c r="E11" s="36" t="str">
-        <v>To do</v>
+        <v>Done</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3008,7 +3044,7 @@
         <v>yz</v>
       </c>
       <c r="E13" s="36" t="str">
-        <v>To do</v>
+        <v>Done</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3025,7 +3061,7 @@
         <v>hw</v>
       </c>
       <c r="E14" s="36" t="str">
-        <v>Doing</v>
+        <v>Done</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3042,7 +3078,7 @@
         <v>hw</v>
       </c>
       <c r="E15" s="36" t="str">
-        <v>Doing</v>
+        <v>Done</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3059,7 +3095,7 @@
         <v>fl</v>
       </c>
       <c r="E16" s="36" t="str">
-        <v>To do</v>
+        <v>Done</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3076,169 +3112,210 @@
         <v>fl</v>
       </c>
       <c r="E17" s="36" t="str">
+        <v>Done</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="29">
+        <v>3</v>
+      </c>
+      <c r="B18" s="29" t="str">
+        <f>Sprint3!A3</f>
+        <v>US13</v>
+      </c>
+      <c r="C18" s="29" t="str">
+        <f>Sprint3!B3</f>
+        <v>Siblings spacing</v>
+      </c>
+      <c r="D18" s="29" t="str">
+        <f>Sprint3!C3</f>
+        <v>yz</v>
+      </c>
+      <c r="E18" s="29" t="str">
+        <f>Sprint3!D3</f>
         <v>To do</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="B18" s="17" t="str" cm="1">
-        <f t="array" ref="B18:C37">Stories!A21:B40</f>
+    <row r="19" spans="1:5">
+      <c r="A19" s="29">
+        <v>3</v>
+      </c>
+      <c r="B19" s="29" t="str">
+        <f>Sprint3!A4</f>
+        <v>US14</v>
+      </c>
+      <c r="C19" s="29" t="str">
+        <f>Sprint3!B4</f>
+        <v>Multiple births &lt;= 5</v>
+      </c>
+      <c r="D19" s="29" t="str">
+        <f>Sprint3!C4</f>
+        <v>yz</v>
+      </c>
+      <c r="E19" s="29" t="str">
+        <f>Sprint3!D4</f>
+        <v>To do</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="29">
+        <v>3</v>
+      </c>
+      <c r="B20" s="29" t="str">
+        <f>Sprint3!A5</f>
+        <v>US19</v>
+      </c>
+      <c r="C20" s="29" t="str">
+        <f>Sprint3!B5</f>
+        <v>First cousins should not marry</v>
+      </c>
+      <c r="D20" s="29" t="str">
+        <f>Sprint3!C5</f>
+        <v>fl</v>
+      </c>
+      <c r="E20" s="29" t="str">
+        <f>Sprint3!D5</f>
+        <v>To do</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="29">
+        <v>3</v>
+      </c>
+      <c r="B21" s="29" t="str">
+        <f>Sprint3!A6</f>
         <v>US20</v>
       </c>
-      <c r="C18" s="17" t="str">
+      <c r="C21" s="29" t="str">
+        <f>Sprint3!B6</f>
         <v>Aunts and uncles</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="B19" s="17" t="str">
+      <c r="D21" s="29" t="str">
+        <f>Sprint3!C6</f>
+        <v>fl</v>
+      </c>
+      <c r="E21" s="29" t="str">
+        <f>Sprint3!D6</f>
+        <v>To do</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="29">
+        <v>3</v>
+      </c>
+      <c r="B22" s="29" t="str">
+        <f>Sprint3!A7</f>
         <v>US21</v>
       </c>
-      <c r="C19" s="17" t="str">
+      <c r="C22" s="29" t="str">
+        <f>Sprint3!B7</f>
         <v>Correct gender for role</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="B20" s="17" t="str">
+      <c r="D22" s="29" t="str">
+        <f>Sprint3!C7</f>
+        <v>hw</v>
+      </c>
+      <c r="E22" s="29" t="str">
+        <f>Sprint3!D7</f>
+        <v>To do</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="29">
+        <v>3</v>
+      </c>
+      <c r="B23" s="29" t="str">
+        <f>Sprint3!A8</f>
         <v>US22</v>
       </c>
-      <c r="C20" s="17" t="str">
+      <c r="C23" s="29" t="str">
+        <f>Sprint3!B8</f>
         <v>Unique IDs</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" s="17" t="str">
+      <c r="D23" s="29" t="str">
+        <f>Sprint3!C8</f>
+        <v>hw</v>
+      </c>
+      <c r="E23" s="29" t="str">
+        <f>Sprint3!D8</f>
+        <v>To do</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="29">
+        <v>3</v>
+      </c>
+      <c r="B24" s="29" t="str">
+        <f>Sprint3!A9</f>
         <v>US23</v>
       </c>
-      <c r="C21" s="17" t="str">
+      <c r="C24" s="29" t="str">
+        <f>Sprint3!B9</f>
         <v>Unique name and birth date</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="B22" s="17" t="str">
+      <c r="D24" s="29" t="str">
+        <f>Sprint3!C9</f>
+        <v>yh</v>
+      </c>
+      <c r="E24" s="29" t="str">
+        <f>Sprint3!D9</f>
+        <v>To do</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="29">
+        <v>3</v>
+      </c>
+      <c r="B25" s="29" t="str">
+        <f>Sprint3!A10</f>
         <v>US24</v>
       </c>
-      <c r="C22" s="17" t="str">
+      <c r="C25" s="29" t="str">
+        <f>Sprint3!B10</f>
         <v>Unique families by spouses</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" s="17" t="str">
-        <v>US25</v>
-      </c>
-      <c r="C23" s="17" t="str">
-        <v>Unique first names in families</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="B24" s="17" t="str">
-        <v>US26</v>
-      </c>
-      <c r="C24" s="17" t="str">
-        <v>Corresponding entries</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="B25" s="17" t="str">
-        <v>US27</v>
-      </c>
-      <c r="C25" s="17" t="str">
-        <v>Include individual ages</v>
+      <c r="D25" s="29" t="str">
+        <f>Sprint3!C10</f>
+        <v>yh</v>
+      </c>
+      <c r="E25" s="29" t="str">
+        <f>Sprint3!D10</f>
+        <v>To do</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="17" t="str">
-        <v>US28</v>
-      </c>
-      <c r="C26" s="17" t="str">
-        <v>Order siblings by age</v>
-      </c>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="B27" s="17" t="str">
-        <v>US29</v>
-      </c>
-      <c r="C27" s="17" t="str">
-        <v>List deceased</v>
-      </c>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="B28" s="17" t="str">
-        <v>US30</v>
-      </c>
-      <c r="C28" s="17" t="str">
-        <v>List living married</v>
-      </c>
+      <c r="A28" s="29"/>
+      <c r="B28" s="64"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="B29" s="17" t="str">
-        <v>US31</v>
-      </c>
-      <c r="C29" s="17" t="str">
-        <v>List living single</v>
-      </c>
+      <c r="A29" s="29"/>
+      <c r="B29" s="64"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="B30" s="17" t="str">
-        <v>US32</v>
-      </c>
-      <c r="C30" s="17" t="str">
-        <v>List multiple births</v>
-      </c>
+      <c r="A30" s="29"/>
+      <c r="B30" s="64"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="B31" s="17" t="str">
-        <v>US33</v>
-      </c>
-      <c r="C31" s="17" t="str">
-        <v>List orphans</v>
-      </c>
+      <c r="A31" s="29"/>
+      <c r="B31" s="64"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="B32" s="17" t="str">
-        <v>US34</v>
-      </c>
-      <c r="C32" s="17" t="str">
-        <v>List large age differences</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="17" t="str">
-        <v>US35</v>
-      </c>
-      <c r="C33" s="17" t="str">
-        <v>List recent births</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="17" t="str">
-        <v>US36</v>
-      </c>
-      <c r="C34" s="17" t="str">
-        <v>List recent deaths</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="17" t="str">
-        <v>US37</v>
-      </c>
-      <c r="C35" s="17" t="str">
-        <v>List recent survivors</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="17" t="str">
-        <v>US38</v>
-      </c>
-      <c r="C36" s="17" t="str">
-        <v>List upcoming birthdays</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="17" t="str">
-        <v>US39</v>
-      </c>
-      <c r="C37" s="17" t="str">
-        <v>List upcoming anniversaries</v>
-      </c>
+      <c r="A32" s="29"/>
+      <c r="B32" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3573,7 +3650,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H10"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3703,7 +3780,7 @@
         <v>241</v>
       </c>
       <c r="L3" s="54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>231</v>
@@ -3712,7 +3789,7 @@
         <v>248</v>
       </c>
       <c r="O3" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -3751,7 +3828,7 @@
         <v>242</v>
       </c>
       <c r="L4" s="52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M4" s="20" t="s">
         <v>232</v>
@@ -3760,7 +3837,7 @@
         <v>249</v>
       </c>
       <c r="O4" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3799,7 +3876,7 @@
         <v>243</v>
       </c>
       <c r="L5" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M5" s="20" t="s">
         <v>233</v>
@@ -3808,7 +3885,7 @@
         <v>250</v>
       </c>
       <c r="O5" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -3847,7 +3924,7 @@
         <v>244</v>
       </c>
       <c r="L6" s="52" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M6" s="20" t="s">
         <v>234</v>
@@ -3856,7 +3933,7 @@
         <v>251</v>
       </c>
       <c r="O6" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -3895,7 +3972,7 @@
         <v>240</v>
       </c>
       <c r="L7" s="52" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M7" s="21" t="s">
         <v>235</v>
@@ -3904,7 +3981,7 @@
         <v>248</v>
       </c>
       <c r="O7" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -3943,7 +4020,7 @@
         <v>245</v>
       </c>
       <c r="L8" s="52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M8" s="20" t="s">
         <v>236</v>
@@ -3952,7 +4029,7 @@
         <v>248</v>
       </c>
       <c r="O8" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -3991,7 +4068,7 @@
         <v>246</v>
       </c>
       <c r="L9" s="52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M9" s="20" t="s">
         <v>237</v>
@@ -4000,7 +4077,7 @@
         <v>252</v>
       </c>
       <c r="O9" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -4039,7 +4116,7 @@
         <v>247</v>
       </c>
       <c r="L10" s="52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M10" s="20" t="s">
         <v>238</v>
@@ -4048,7 +4125,7 @@
         <v>253</v>
       </c>
       <c r="O10" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="14">
@@ -4161,10 +4238,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4186,7 +4263,7 @@
     <col min="15" max="15" width="10.1640625" style="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20" customHeight="1">
+    <row r="1" spans="1:16" ht="20" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>3</v>
       </c>
@@ -4219,7 +4296,7 @@
       <c r="N1" s="74"/>
       <c r="O1" s="75"/>
     </row>
-    <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
+    <row r="2" spans="1:16" ht="20" customHeight="1" thickBot="1">
       <c r="A2" s="76"/>
       <c r="B2" s="78"/>
       <c r="C2" s="76"/>
@@ -4258,7 +4335,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14" thickTop="1">
+    <row r="3" spans="1:16" ht="14" thickTop="1">
       <c r="A3" s="13" t="s">
         <v>117</v>
       </c>
@@ -4284,28 +4361,28 @@
         <v>50</v>
       </c>
       <c r="I3" s="69" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J3" t="s">
+        <v>265</v>
+      </c>
+      <c r="K3" t="s">
         <v>266</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" s="69" t="s">
+        <v>261</v>
+      </c>
+      <c r="M3" t="s">
         <v>267</v>
       </c>
-      <c r="L3" s="69" t="s">
-        <v>262</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>268</v>
       </c>
-      <c r="N3" t="s">
-        <v>269</v>
-      </c>
       <c r="O3" s="69" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="13" t="s">
         <v>121</v>
       </c>
@@ -4315,8 +4392,8 @@
       <c r="C4" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>208</v>
+      <c r="D4" t="s">
+        <v>239</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -4331,28 +4408,28 @@
         <v>30</v>
       </c>
       <c r="I4" s="69" t="s">
+        <v>276</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>278</v>
-      </c>
       <c r="K4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L4" s="69" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O4" s="69" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="13" t="s">
         <v>123</v>
       </c>
@@ -4378,28 +4455,28 @@
         <v>120</v>
       </c>
       <c r="I5" s="69" t="s">
+        <v>269</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="K5" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="L5" s="69" t="s">
         <v>272</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="M5" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="N5" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="O5" s="69" t="s">
         <v>275</v>
       </c>
-      <c r="O5" s="69" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="13" t="s">
         <v>122</v>
       </c>
@@ -4409,8 +4486,8 @@
       <c r="C6" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>208</v>
+      <c r="D6" t="s">
+        <v>239</v>
       </c>
       <c r="E6">
         <v>60</v>
@@ -4425,28 +4502,28 @@
         <v>50</v>
       </c>
       <c r="I6" s="69" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L6" s="69" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O6" s="69" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="13" t="s">
         <v>128</v>
       </c>
@@ -4457,7 +4534,7 @@
         <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -4466,7 +4543,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" s="13" t="s">
         <v>129</v>
       </c>
@@ -4477,7 +4554,7 @@
         <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -4486,7 +4563,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" s="13" t="s">
         <v>126</v>
       </c>
@@ -4497,7 +4574,7 @@
         <v>186</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -4506,7 +4583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" s="13" t="s">
         <v>127</v>
       </c>
@@ -4517,7 +4594,7 @@
         <v>186</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="E10">
         <v>15</v>
@@ -4525,6 +4602,299 @@
       <c r="F10">
         <v>20</v>
       </c>
+    </row>
+    <row r="13" spans="1:16" ht="14">
+      <c r="A13" s="64"/>
+      <c r="B13" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="81"/>
+    </row>
+    <row r="14" spans="1:16" ht="14">
+      <c r="A14" s="64"/>
+      <c r="B14" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="81"/>
+    </row>
+    <row r="15" spans="1:16" s="43" customFormat="1">
+      <c r="A15" s="39">
+        <v>1</v>
+      </c>
+      <c r="B15" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="47"/>
+    </row>
+    <row r="16" spans="1:16" s="43" customFormat="1">
+      <c r="A16" s="39">
+        <v>2</v>
+      </c>
+      <c r="B16" s="87" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="47"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="39"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="81"/>
+    </row>
+    <row r="18" spans="1:16" ht="14">
+      <c r="A18" s="64"/>
+      <c r="B18" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="81"/>
+    </row>
+    <row r="19" spans="1:16" s="43" customFormat="1" ht="17" customHeight="1">
+      <c r="A19" s="39">
+        <v>1</v>
+      </c>
+      <c r="B19" s="89" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="47"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="39"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="81"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="85"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="85"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="85"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="85"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="85"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="85"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="85"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4545,14 +4915,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
@@ -4631,7 +5002,130 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14" thickTop="1"/>
+    <row r="3" spans="1:15" ht="14" thickTop="1">
+      <c r="A3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="91" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="J1:L1"/>
@@ -4650,10 +5144,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4738,6 +5232,11 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="14" thickTop="1"/>
+    <row r="19" spans="9:9">
+      <c r="I19" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="J1:L1"/>
@@ -4758,14 +5257,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B17"/>
+    <sheetView topLeftCell="A11" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="29"/>
-    <col min="2" max="2" width="28.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="29" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="31" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="29"/>
   </cols>
@@ -4840,7 +5339,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" s="29" t="s">
         <v>116</v>
       </c>
@@ -4910,7 +5409,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34">
+    <row r="11" spans="1:4" ht="51">
       <c r="A11" s="29" t="s">
         <v>121</v>
       </c>
@@ -4934,6 +5433,9 @@
       <c r="C12" s="30" t="s">
         <v>41</v>
       </c>
+      <c r="D12" s="29" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="51">
       <c r="A13" s="29" t="s">
@@ -4959,6 +5461,9 @@
       <c r="C14" s="30" t="s">
         <v>171</v>
       </c>
+      <c r="D14" s="29" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="34">
       <c r="A15" s="29" t="s">
@@ -4970,6 +5475,9 @@
       <c r="C15" s="30" t="s">
         <v>42</v>
       </c>
+      <c r="D15" s="29" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="17">
       <c r="A16" s="29" t="s">
@@ -4981,6 +5489,9 @@
       <c r="C16" s="30" t="s">
         <v>43</v>
       </c>
+      <c r="D16" s="29" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="34">
       <c r="A17" s="29" t="s">
@@ -4992,6 +5503,9 @@
       <c r="C17" s="30" t="s">
         <v>44</v>
       </c>
+      <c r="D17" s="29" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="17">
       <c r="A18" s="29" t="s">
@@ -5031,6 +5545,9 @@
       <c r="C20" s="30" t="s">
         <v>46</v>
       </c>
+      <c r="D20" s="29" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="34">
       <c r="A21" s="29" t="s">
@@ -5042,6 +5559,9 @@
       <c r="C21" s="30" t="s">
         <v>47</v>
       </c>
+      <c r="D21" s="29" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="34">
       <c r="A22" s="29" t="s">
@@ -5053,6 +5573,9 @@
       <c r="C22" s="30" t="s">
         <v>87</v>
       </c>
+      <c r="D22" s="29" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="34">
       <c r="A23" s="29" t="s">
@@ -5064,6 +5587,9 @@
       <c r="C23" s="30" t="s">
         <v>88</v>
       </c>
+      <c r="D23" s="29" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="34">
       <c r="A24" s="29" t="s">
@@ -5075,6 +5601,9 @@
       <c r="C24" s="30" t="s">
         <v>48</v>
       </c>
+      <c r="D24" s="29" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="51">
       <c r="A25" s="29" t="s">
@@ -5086,6 +5615,9 @@
       <c r="C25" s="30" t="s">
         <v>49</v>
       </c>
+      <c r="D25" s="29" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="34">
       <c r="A26" s="29" t="s">
@@ -5109,7 +5641,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17">
+    <row r="28" spans="1:4" ht="34">
       <c r="A28" s="29" t="s">
         <v>138</v>
       </c>

--- a/docs/TeamHogwartsReport.xlsx
+++ b/docs/TeamHogwartsReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huying/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whd/Documents/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4DBE56-557F-0A47-BD87-D10043993CE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B4C985-1D93-B745-8EAD-403D76234ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="15540" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="302">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -981,6 +981,33 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2/25</t>
+  </si>
+  <si>
+    <t>us17.py</t>
+  </si>
+  <si>
+    <t>us18.py</t>
+  </si>
+  <si>
+    <t>us17_no_marriages_to_children</t>
+  </si>
+  <si>
+    <t>us18_no_marriages_between_siblings</t>
+  </si>
+  <si>
+    <t>us17_test</t>
+  </si>
+  <si>
+    <t>us18_test</t>
+  </si>
+  <si>
+    <t>test_us17_no_marriages_to_children</t>
+  </si>
+  <si>
+    <t>test_us18_no_marriages_between_siblings</t>
   </si>
 </sst>
 </file>
@@ -1379,6 +1406,33 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1406,33 +1460,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2734,21 +2761,21 @@
       <c r="D10" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="E10" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
     </row>
     <row r="11" spans="1:7" ht="66" customHeight="1">
       <c r="D11" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="85" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
@@ -3328,7 +3355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G19" sqref="B19:G19"/>
     </sheetView>
   </sheetViews>
@@ -3523,8 +3550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3673,43 +3700,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="73" t="s">
+      <c r="F1" s="87"/>
+      <c r="G1" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="73" t="s">
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="86" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="73" t="s">
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="74"/>
-      <c r="O1" s="75"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="88"/>
     </row>
     <row r="2" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -4241,7 +4268,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4264,43 +4291,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="73" t="s">
+      <c r="F1" s="87"/>
+      <c r="G1" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="73" t="s">
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="86" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="73" t="s">
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="74"/>
-      <c r="O1" s="75"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="88"/>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -4542,6 +4569,33 @@
       <c r="F7">
         <v>30</v>
       </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="I7" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="K7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L7" s="69" t="s">
+        <v>263</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="O7" s="69" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="13" t="s">
@@ -4562,6 +4616,33 @@
       <c r="F8">
         <v>30</v>
       </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>80</v>
+      </c>
+      <c r="I8" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="K8" t="s">
+        <v>297</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>275</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="O8" s="69" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="13" t="s">
@@ -4605,7 +4686,7 @@
     </row>
     <row r="13" spans="1:16" ht="14">
       <c r="A13" s="64"/>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="77" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="64"/>
@@ -4614,17 +4695,17 @@
       <c r="F13" s="64"/>
       <c r="G13" s="64"/>
       <c r="H13" s="64"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="81"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="72"/>
     </row>
     <row r="14" spans="1:16" ht="14">
       <c r="A14" s="64"/>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="77" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="64"/>
@@ -4633,19 +4714,19 @@
       <c r="F14" s="64"/>
       <c r="G14" s="64"/>
       <c r="H14" s="64"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="81"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="72"/>
     </row>
     <row r="15" spans="1:16" s="43" customFormat="1">
       <c r="A15" s="39">
         <v>1</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="78" t="s">
         <v>290</v>
       </c>
       <c r="C15" s="39"/>
@@ -4654,20 +4735,20 @@
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="84"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="75"/>
       <c r="P15" s="47"/>
     </row>
     <row r="16" spans="1:16" s="43" customFormat="1">
       <c r="A16" s="39">
         <v>2</v>
       </c>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="78" t="s">
         <v>289</v>
       </c>
       <c r="C16" s="39"/>
@@ -4676,35 +4757,35 @@
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="84"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="75"/>
       <c r="P16" s="47"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="39"/>
-      <c r="B17" s="88"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
       <c r="E17" s="64"/>
       <c r="F17" s="64"/>
       <c r="G17" s="64"/>
       <c r="H17" s="64"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="81"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="72"/>
     </row>
     <row r="18" spans="1:16" ht="14">
       <c r="A18" s="64"/>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="77" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="64"/>
@@ -4713,19 +4794,19 @@
       <c r="F18" s="64"/>
       <c r="G18" s="64"/>
       <c r="H18" s="64"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="81"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="72"/>
     </row>
     <row r="19" spans="1:16" s="43" customFormat="1" ht="17" customHeight="1">
       <c r="A19" s="39">
         <v>1</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="80" t="s">
         <v>291</v>
       </c>
       <c r="C19" s="39"/>
@@ -4734,31 +4815,31 @@
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="84"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="75"/>
       <c r="P19" s="47"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="39"/>
-      <c r="B20" s="90"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
       <c r="F20" s="64"/>
       <c r="G20" s="64"/>
       <c r="H20" s="64"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="81"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="72"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="64"/>
@@ -4769,13 +4850,13 @@
       <c r="F21" s="64"/>
       <c r="G21" s="64"/>
       <c r="H21" s="64"/>
-      <c r="I21" s="85"/>
+      <c r="I21" s="76"/>
       <c r="J21" s="64"/>
       <c r="K21" s="64"/>
-      <c r="L21" s="85"/>
+      <c r="L21" s="76"/>
       <c r="M21" s="64"/>
       <c r="N21" s="64"/>
-      <c r="O21" s="85"/>
+      <c r="O21" s="76"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="64"/>
@@ -4786,13 +4867,13 @@
       <c r="F22" s="64"/>
       <c r="G22" s="64"/>
       <c r="H22" s="64"/>
-      <c r="I22" s="85"/>
+      <c r="I22" s="76"/>
       <c r="J22" s="64"/>
       <c r="K22" s="64"/>
-      <c r="L22" s="85"/>
+      <c r="L22" s="76"/>
       <c r="M22" s="64"/>
       <c r="N22" s="64"/>
-      <c r="O22" s="85"/>
+      <c r="O22" s="76"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="64"/>
@@ -4803,13 +4884,13 @@
       <c r="F23" s="64"/>
       <c r="G23" s="64"/>
       <c r="H23" s="64"/>
-      <c r="I23" s="85"/>
+      <c r="I23" s="76"/>
       <c r="J23" s="64"/>
       <c r="K23" s="64"/>
-      <c r="L23" s="85"/>
+      <c r="L23" s="76"/>
       <c r="M23" s="64"/>
       <c r="N23" s="64"/>
-      <c r="O23" s="85"/>
+      <c r="O23" s="76"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="64"/>
@@ -4820,13 +4901,13 @@
       <c r="F24" s="64"/>
       <c r="G24" s="64"/>
       <c r="H24" s="64"/>
-      <c r="I24" s="85"/>
+      <c r="I24" s="76"/>
       <c r="J24" s="64"/>
       <c r="K24" s="64"/>
-      <c r="L24" s="85"/>
+      <c r="L24" s="76"/>
       <c r="M24" s="64"/>
       <c r="N24" s="64"/>
-      <c r="O24" s="85"/>
+      <c r="O24" s="76"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="64"/>
@@ -4837,13 +4918,13 @@
       <c r="F25" s="64"/>
       <c r="G25" s="64"/>
       <c r="H25" s="64"/>
-      <c r="I25" s="85"/>
+      <c r="I25" s="76"/>
       <c r="J25" s="64"/>
       <c r="K25" s="64"/>
-      <c r="L25" s="85"/>
+      <c r="L25" s="76"/>
       <c r="M25" s="64"/>
       <c r="N25" s="64"/>
-      <c r="O25" s="85"/>
+      <c r="O25" s="76"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="64"/>
@@ -4854,13 +4935,13 @@
       <c r="F26" s="64"/>
       <c r="G26" s="64"/>
       <c r="H26" s="64"/>
-      <c r="I26" s="85"/>
+      <c r="I26" s="76"/>
       <c r="J26" s="64"/>
       <c r="K26" s="64"/>
-      <c r="L26" s="85"/>
+      <c r="L26" s="76"/>
       <c r="M26" s="64"/>
       <c r="N26" s="64"/>
-      <c r="O26" s="85"/>
+      <c r="O26" s="76"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="64"/>
@@ -4871,13 +4952,13 @@
       <c r="F27" s="64"/>
       <c r="G27" s="64"/>
       <c r="H27" s="64"/>
-      <c r="I27" s="85"/>
+      <c r="I27" s="76"/>
       <c r="J27" s="64"/>
       <c r="K27" s="64"/>
-      <c r="L27" s="85"/>
+      <c r="L27" s="76"/>
       <c r="M27" s="64"/>
       <c r="N27" s="64"/>
-      <c r="O27" s="85"/>
+      <c r="O27" s="76"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="64"/>
@@ -4888,13 +4969,13 @@
       <c r="F28" s="64"/>
       <c r="G28" s="64"/>
       <c r="H28" s="64"/>
-      <c r="I28" s="85"/>
+      <c r="I28" s="76"/>
       <c r="J28" s="64"/>
       <c r="K28" s="64"/>
-      <c r="L28" s="85"/>
+      <c r="L28" s="76"/>
       <c r="M28" s="64"/>
       <c r="N28" s="64"/>
-      <c r="O28" s="85"/>
+      <c r="O28" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4917,8 +4998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4931,43 +5012,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="73" t="s">
+      <c r="F1" s="87"/>
+      <c r="G1" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="73" t="s">
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="86" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="73" t="s">
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="74"/>
-      <c r="O1" s="75"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="88"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -5012,7 +5093,7 @@
       <c r="C3" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="82" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5026,7 +5107,7 @@
       <c r="C4" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="82" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5040,7 +5121,7 @@
       <c r="C5" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="82" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5054,7 +5135,7 @@
       <c r="C6" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="82" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5068,8 +5149,14 @@
       <c r="C7" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="82" t="s">
         <v>208</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -5082,8 +5169,14 @@
       <c r="C8" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="82" t="s">
         <v>208</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -5096,7 +5189,7 @@
       <c r="C9" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="82" t="s">
         <v>208</v>
       </c>
       <c r="E9">
@@ -5116,7 +5209,7 @@
       <c r="C10" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="82" t="s">
         <v>208</v>
       </c>
       <c r="E10">
@@ -5160,43 +5253,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="73" t="s">
+      <c r="F1" s="87"/>
+      <c r="G1" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="73" t="s">
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="86" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="73" t="s">
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="74"/>
-      <c r="O1" s="75"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="88"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>

--- a/docs/TeamHogwartsReport.xlsx
+++ b/docs/TeamHogwartsReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whd/Documents/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70753\Downloads\ssw555tmHogwarts2020Spring-develop\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B4C985-1D93-B745-8EAD-403D76234ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CD8D2D-9E9D-434A-BC07-EF2BA147B168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="315">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -224,12 +224,6 @@
     <t>No more than five siblings should be born at the same time</t>
   </si>
   <si>
-    <t>There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t>All male members of a family should have the same last name</t>
-  </si>
-  <si>
     <t>Siblings should not marry one another</t>
   </si>
   <si>
@@ -605,9 +599,6 @@
     <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
   </si>
   <si>
-    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
     <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
   </si>
   <si>
@@ -915,9 +906,6 @@
   </si>
   <si>
     <t>us12_test</t>
-  </si>
-  <si>
-    <t>Testparents_not_too_old</t>
   </si>
   <si>
     <t>1-26</t>
@@ -1008,6 +996,73 @@
   </si>
   <si>
     <t>test_us18_no_marriages_between_siblings</t>
+  </si>
+  <si>
+    <t>3/22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us16.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us15_more_than_15siblings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us16_same_male_surname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us15_test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us16_test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testparents_not_too_old</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_us16</t>
+  </si>
+  <si>
+    <t>test_us15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us15.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1015,10 +1070,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1269,18 +1324,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1312,7 +1367,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1354,7 +1409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1396,24 +1451,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1460,74 +1515,75 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="66">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1545,7 +1601,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1579,7 +1635,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1650,7 +1706,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1692,7 +1748,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1741,6 +1797,9 @@
                 <c:pt idx="1">
                   <c:v>42427</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>42450</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1755,6 +1814,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2285,14 +2347,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>948267</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>894080</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>160867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>397934</xdr:colOff>
+      <xdr:colOff>25401</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
     </xdr:to>
@@ -2648,15 +2710,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
@@ -2673,106 +2735,106 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14" thickTop="1">
+    <row r="2" spans="1:7" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B3" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="B4" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D4" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="B5" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D8" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D9" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="83" t="s">
         <v>212</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28" customHeight="1">
-      <c r="D10" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" s="83" t="s">
-        <v>215</v>
       </c>
       <c r="F10" s="84"/>
       <c r="G10" s="84"/>
     </row>
-    <row r="11" spans="1:7" ht="66" customHeight="1">
+    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="38" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E11" s="85" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F11" s="85"/>
       <c r="G11" s="85"/>
@@ -2805,16 +2867,16 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
     <col min="2" max="2" width="14" style="17" customWidth="1"/>
     <col min="3" max="3" width="36" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="36" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>29</v>
       </c>
@@ -2831,13 +2893,13 @@
         <v>28</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" ht="14" thickTop="1">
+    <row r="2" spans="1:9" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2858,7 +2920,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2879,7 +2941,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2900,7 +2962,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2921,7 +2983,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2942,7 +3004,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2963,7 +3025,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2984,7 +3046,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3005,7 +3067,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3023,7 +3085,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3040,7 +3102,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3057,7 +3119,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3074,7 +3136,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3091,7 +3153,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3108,7 +3170,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3125,7 +3187,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3142,7 +3204,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <v>3</v>
       </c>
@@ -3163,7 +3225,7 @@
         <v>To do</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <v>3</v>
       </c>
@@ -3184,7 +3246,7 @@
         <v>To do</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
         <v>3</v>
       </c>
@@ -3205,7 +3267,7 @@
         <v>To do</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <v>3</v>
       </c>
@@ -3226,7 +3288,7 @@
         <v>To do</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
         <v>3</v>
       </c>
@@ -3247,7 +3309,7 @@
         <v>To do</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
         <v>3</v>
       </c>
@@ -3268,7 +3330,7 @@
         <v>To do</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
         <v>3</v>
       </c>
@@ -3289,7 +3351,7 @@
         <v>To do</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
         <v>3</v>
       </c>
@@ -3310,37 +3372,37 @@
         <v>To do</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="29"/>
       <c r="B28" s="64"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="29"/>
       <c r="B29" s="64"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="29"/>
       <c r="B30" s="64"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="29"/>
       <c r="B31" s="64"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="29"/>
       <c r="B32" s="64"/>
     </row>
@@ -3356,52 +3418,52 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G19" sqref="B19:G19"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="5"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="5"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1">
-      <c r="A14" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -3422,9 +3484,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="8">
         <v>41065</v>
@@ -3438,9 +3500,9 @@
       <c r="F15" s="9"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B16" s="8">
         <v>41078</v>
@@ -3463,9 +3525,9 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17" s="8">
         <v>41092</v>
@@ -3488,9 +3550,9 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B18" s="8">
         <v>41106</v>
@@ -3513,9 +3575,9 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B19" s="8">
         <v>41120</v>
@@ -3554,19 +3616,19 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.81640625" style="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3575,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>23</v>
@@ -3587,9 +3649,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="60">
         <v>42406</v>
@@ -3605,9 +3667,9 @@
       </c>
       <c r="F2" s="63"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" s="1">
         <v>42427</v>
@@ -3628,47 +3690,63 @@
         <v>460</v>
       </c>
       <c r="G3" s="7">
-        <f>(E3-E2)/F3*60</f>
-        <v>54.130434782608695</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <f>ROUND((E3-E2)/F3*60,1)</f>
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-    </row>
-    <row r="5" spans="1:7">
+        <v>160</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42450</v>
+      </c>
+      <c r="C4" s="62">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4" s="63">
+        <v>714</v>
+      </c>
+      <c r="F4" s="63">
+        <v>398</v>
+      </c>
+      <c r="G4" s="7">
+        <f>ROUND((E4-E3)/F4*60,1)</f>
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C5" s="62"/>
       <c r="E5" s="63"/>
       <c r="F5" s="63"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6" s="62"/>
       <c r="E6" s="63"/>
       <c r="F6" s="63"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="65"/>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" s="61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3677,29 +3755,29 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.6328125" style="11" customWidth="1"/>
     <col min="12" max="12" width="13" style="51" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" style="56" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" style="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1">
+    <row r="1" spans="1:16" s="16" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="86" t="s">
         <v>9</v>
       </c>
@@ -3713,26 +3791,26 @@
         <v>12</v>
       </c>
       <c r="E1" s="86" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F1" s="87"/>
       <c r="G1" s="86" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H1" s="87"/>
       <c r="I1" s="87"/>
       <c r="J1" s="86" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K1" s="87"/>
       <c r="L1" s="87"/>
       <c r="M1" s="86" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N1" s="87"/>
       <c r="O1" s="88"/>
     </row>
-    <row r="2" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
+    <row r="2" spans="1:16" s="16" customFormat="1" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="89"/>
       <c r="B2" s="91"/>
       <c r="C2" s="89"/>
@@ -3753,36 +3831,36 @@
         <v>17</v>
       </c>
       <c r="J2" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="L2" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="M2" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="L2" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="O2" s="55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="14" thickTop="1">
+    </row>
+    <row r="3" spans="1:16" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E3" s="17">
         <v>10</v>
@@ -3801,36 +3879,36 @@
         <v>42423</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L3" s="54" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O3" s="57" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E4" s="17">
         <v>10</v>
@@ -3849,36 +3927,36 @@
         <v>42423</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L4" s="52" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O4" s="57" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E5" s="17">
         <v>15</v>
@@ -3897,36 +3975,36 @@
         <v>42425</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L5" s="52" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O5" s="57" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E6" s="17">
         <v>15</v>
@@ -3945,36 +4023,36 @@
         <v>42425</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L6" s="52" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O6" s="57" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E7" s="17">
         <v>15</v>
@@ -3993,36 +4071,36 @@
         <v>42417</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L7" s="52" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O7" s="57" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E8" s="17">
         <v>10</v>
@@ -4041,36 +4119,36 @@
         <v>42417</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K8" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="L8" s="52" t="s">
-        <v>257</v>
-      </c>
-      <c r="M8" s="20" t="s">
+      <c r="O8" s="57" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>236</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="O8" s="57" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>239</v>
       </c>
       <c r="E9" s="17">
         <v>6</v>
@@ -4089,36 +4167,36 @@
         <v>42425</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L9" s="52" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O9" s="57" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E10" s="17">
         <v>6</v>
@@ -4137,40 +4215,43 @@
         <v>42425</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L10" s="52" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O10" s="57" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="14">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G11" s="92"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="43" customFormat="1">
+    <row r="15" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="41">
         <v>1</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="41"/>
@@ -4185,12 +4266,12 @@
       <c r="O15" s="58"/>
       <c r="P15" s="47"/>
     </row>
-    <row r="16" spans="1:16" s="43" customFormat="1">
+    <row r="16" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="41">
         <v>2</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
@@ -4205,25 +4286,25 @@
       <c r="O16" s="58"/>
       <c r="P16" s="47"/>
     </row>
-    <row r="17" spans="1:16" ht="14">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="41">
         <v>3</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="14">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="43" customFormat="1" ht="14">
+    <row r="19" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="41">
         <v>1</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>
@@ -4238,12 +4319,12 @@
       <c r="O19" s="58"/>
       <c r="P19" s="47"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="41">
         <v>2</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4268,29 +4349,29 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="68" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="68" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" style="68" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" style="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20" customHeight="1">
+    <row r="1" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="86" t="s">
         <v>3</v>
       </c>
@@ -4304,26 +4385,26 @@
         <v>6</v>
       </c>
       <c r="E1" s="86" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F1" s="87"/>
       <c r="G1" s="86" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H1" s="87"/>
       <c r="I1" s="87"/>
       <c r="J1" s="86" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K1" s="87"/>
       <c r="L1" s="87"/>
       <c r="M1" s="86" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N1" s="87"/>
       <c r="O1" s="88"/>
     </row>
-    <row r="2" spans="1:16" ht="20" customHeight="1" thickBot="1">
+    <row r="2" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="89"/>
       <c r="B2" s="91"/>
       <c r="C2" s="89"/>
@@ -4344,36 +4425,36 @@
         <v>17</v>
       </c>
       <c r="J2" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="L2" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="M2" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="L2" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="O2" s="55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="14" thickTop="1">
+    </row>
+    <row r="3" spans="1:16" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -4388,39 +4469,39 @@
         <v>50</v>
       </c>
       <c r="I3" s="69" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" s="69" t="s">
+        <v>258</v>
+      </c>
+      <c r="M3" t="s">
+        <v>264</v>
+      </c>
+      <c r="N3" t="s">
         <v>265</v>
       </c>
-      <c r="K3" t="s">
-        <v>266</v>
-      </c>
-      <c r="L3" s="69" t="s">
-        <v>261</v>
-      </c>
-      <c r="M3" t="s">
-        <v>267</v>
-      </c>
-      <c r="N3" t="s">
-        <v>268</v>
-      </c>
       <c r="O3" s="69" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -4429,45 +4510,45 @@
         <v>60</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>30</v>
       </c>
       <c r="I4" s="69" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J4" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="K4" t="s">
+        <v>275</v>
+      </c>
+      <c r="L4" s="69" t="s">
         <v>277</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="L4" s="69" t="s">
+      <c r="N4" t="s">
         <v>281</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="O4" s="69" t="s">
         <v>283</v>
       </c>
-      <c r="N4" t="s">
-        <v>285</v>
-      </c>
-      <c r="O4" s="69" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E5">
         <v>60</v>
@@ -4482,39 +4563,39 @@
         <v>120</v>
       </c>
       <c r="I5" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="L5" s="69" t="s">
         <v>269</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="M5" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="N5" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="O5" s="69" t="s">
         <v>271</v>
       </c>
-      <c r="L5" s="69" t="s">
-        <v>272</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="O5" s="69" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E6">
         <v>60</v>
@@ -4523,45 +4604,45 @@
         <v>60</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>50</v>
       </c>
       <c r="I6" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="K6" t="s">
         <v>276</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="L6" s="69" t="s">
         <v>278</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="L6" s="69" t="s">
+      <c r="N6" t="s">
         <v>282</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="O6" s="69" t="s">
         <v>284</v>
       </c>
-      <c r="N6" t="s">
-        <v>286</v>
-      </c>
-      <c r="O6" s="69" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -4570,45 +4651,45 @@
         <v>30</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H7">
         <v>40</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="J7" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="K7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L7" s="69" t="s">
+        <v>260</v>
+      </c>
+      <c r="M7" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="K7" t="s">
+      <c r="N7" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="L7" s="69" t="s">
-        <v>263</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>300</v>
-      </c>
       <c r="O7" s="69" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -4617,45 +4698,45 @@
         <v>30</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>80</v>
       </c>
       <c r="I8" s="68" t="s">
+        <v>289</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="K8" t="s">
         <v>293</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="L8" s="69" t="s">
+        <v>271</v>
+      </c>
+      <c r="M8" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="K8" t="s">
+      <c r="N8" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="L8" s="69" t="s">
-        <v>275</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>301</v>
-      </c>
       <c r="O8" s="69" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -4663,19 +4744,46 @@
       <c r="F9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="G9">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" s="69" t="s">
+        <v>298</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="L9" s="69" t="s">
+        <v>305</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="O9" s="69" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E10">
         <v>15</v>
@@ -4683,8 +4791,39 @@
       <c r="F10">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="14">
+      <c r="G10">
+        <v>29</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="I10" s="69" t="s">
+        <v>298</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="L10" s="69" t="s">
+        <v>306</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="N10" t="s">
+        <v>307</v>
+      </c>
+      <c r="O10" s="69" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="64"/>
       <c r="B13" s="77" t="s">
         <v>30</v>
@@ -4703,7 +4842,7 @@
       <c r="N13" s="71"/>
       <c r="O13" s="72"/>
     </row>
-    <row r="14" spans="1:16" ht="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="64"/>
       <c r="B14" s="77" t="s">
         <v>31</v>
@@ -4722,12 +4861,12 @@
       <c r="N14" s="71"/>
       <c r="O14" s="72"/>
     </row>
-    <row r="15" spans="1:16" s="43" customFormat="1">
+    <row r="15" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39">
         <v>1</v>
       </c>
       <c r="B15" s="78" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
@@ -4744,12 +4883,12 @@
       <c r="O15" s="75"/>
       <c r="P15" s="47"/>
     </row>
-    <row r="16" spans="1:16" s="43" customFormat="1">
+    <row r="16" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39">
         <v>2</v>
       </c>
       <c r="B16" s="78" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
@@ -4766,7 +4905,7 @@
       <c r="O16" s="75"/>
       <c r="P16" s="47"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="39"/>
       <c r="B17" s="79"/>
       <c r="C17" s="64"/>
@@ -4783,7 +4922,7 @@
       <c r="N17" s="71"/>
       <c r="O17" s="72"/>
     </row>
-    <row r="18" spans="1:16" ht="14">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="64"/>
       <c r="B18" s="77" t="s">
         <v>32</v>
@@ -4802,12 +4941,12 @@
       <c r="N18" s="71"/>
       <c r="O18" s="72"/>
     </row>
-    <row r="19" spans="1:16" s="43" customFormat="1" ht="17" customHeight="1">
+    <row r="19" spans="1:16" s="43" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39">
         <v>1</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
@@ -4824,7 +4963,7 @@
       <c r="O19" s="75"/>
       <c r="P19" s="47"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="39"/>
       <c r="B20" s="81"/>
       <c r="C20" s="64"/>
@@ -4841,7 +4980,7 @@
       <c r="N20" s="71"/>
       <c r="O20" s="72"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="64"/>
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
@@ -4858,7 +4997,7 @@
       <c r="N21" s="64"/>
       <c r="O21" s="76"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="64"/>
       <c r="B22" s="64"/>
       <c r="C22" s="64"/>
@@ -4875,7 +5014,7 @@
       <c r="N22" s="64"/>
       <c r="O22" s="76"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="64"/>
@@ -4892,7 +5031,7 @@
       <c r="N23" s="64"/>
       <c r="O23" s="76"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="64"/>
       <c r="B24" s="64"/>
       <c r="C24" s="64"/>
@@ -4909,7 +5048,7 @@
       <c r="N24" s="64"/>
       <c r="O24" s="76"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="64"/>
       <c r="B25" s="64"/>
       <c r="C25" s="64"/>
@@ -4926,7 +5065,7 @@
       <c r="N25" s="64"/>
       <c r="O25" s="76"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="64"/>
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
@@ -4943,7 +5082,7 @@
       <c r="N26" s="64"/>
       <c r="O26" s="76"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="64"/>
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
@@ -4960,7 +5099,7 @@
       <c r="N27" s="64"/>
       <c r="O27" s="76"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="64"/>
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
@@ -4990,7 +5129,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4999,19 +5138,19 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20" customHeight="1">
+    <row r="1" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="86" t="s">
         <v>3</v>
       </c>
@@ -5025,26 +5164,26 @@
         <v>6</v>
       </c>
       <c r="E1" s="86" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F1" s="87"/>
       <c r="G1" s="86" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H1" s="87"/>
       <c r="I1" s="87"/>
       <c r="J1" s="86" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K1" s="87"/>
       <c r="L1" s="87"/>
       <c r="M1" s="86" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N1" s="87"/>
       <c r="O1" s="88"/>
     </row>
-    <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
+    <row r="2" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="89"/>
       <c r="B2" s="91"/>
       <c r="C2" s="89"/>
@@ -5065,92 +5204,116 @@
         <v>17</v>
       </c>
       <c r="J2" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="L2" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="M2" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="L2" s="23" t="s">
+    </row>
+    <row r="3" spans="1:15" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="M2" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="14" thickTop="1">
-      <c r="A3" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="29" t="s">
+      <c r="D3" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="82" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="82" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="82" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>185</v>
-      </c>
       <c r="D7" s="82" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E7">
         <v>15</v>
@@ -5159,18 +5322,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -5179,18 +5342,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E9">
         <v>30</v>
@@ -5199,18 +5362,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E10">
         <v>30</v>
@@ -5240,19 +5403,19 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20" customHeight="1">
+    <row r="1" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="86" t="s">
         <v>3</v>
       </c>
@@ -5266,26 +5429,26 @@
         <v>6</v>
       </c>
       <c r="E1" s="86" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F1" s="87"/>
       <c r="G1" s="86" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H1" s="87"/>
       <c r="I1" s="87"/>
       <c r="J1" s="86" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K1" s="87"/>
       <c r="L1" s="87"/>
       <c r="M1" s="86" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N1" s="87"/>
       <c r="O1" s="88"/>
     </row>
-    <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
+    <row r="2" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="89"/>
       <c r="B2" s="91"/>
       <c r="C2" s="89"/>
@@ -5306,28 +5469,28 @@
         <v>17</v>
       </c>
       <c r="J2" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="L2" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="M2" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="L2" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="14" thickTop="1"/>
-    <row r="19" spans="9:9">
+    </row>
+    <row r="3" spans="1:15" ht="13.2" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5350,564 +5513,564 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A16" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="29"/>
+    <col min="1" max="1" width="10.81640625" style="29"/>
     <col min="2" max="2" width="35" style="29" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="31" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="29"/>
+    <col min="3" max="3" width="49.453125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
+    <row r="1" spans="1:4" s="16" customFormat="1" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="35" thickTop="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30.6" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="34">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="51">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B10" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C10" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="34">
-      <c r="A9" s="29" t="s">
+      <c r="D10" s="28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="34">
-      <c r="A10" s="29" t="s">
+      <c r="B11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>75</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="51">
-      <c r="A11" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="34">
-      <c r="A12" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>77</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="51">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="68">
-      <c r="A14" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="34">
-      <c r="A15" s="29" t="s">
-        <v>125</v>
-      </c>
       <c r="B15" s="29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="28" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17">
-      <c r="A16" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="29" t="s">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C19" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="34">
-      <c r="A17" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="29" t="s">
+      <c r="D19" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C20" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17">
-      <c r="A18" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17">
-      <c r="A19" s="29" t="s">
+      <c r="D20" s="29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B21" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C21" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17">
-      <c r="A20" s="29" t="s">
+      <c r="D21" s="29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B22" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C22" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="34">
-      <c r="A21" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="30" t="s">
+      <c r="D24" s="29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="34">
-      <c r="A22" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="34">
-      <c r="A23" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="34">
-      <c r="A24" s="29" t="s">
+      <c r="D25" s="29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B26" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C26" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="51">
-      <c r="A25" s="29" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B27" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C27" s="30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="34">
-      <c r="A26" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="30" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="136">
-      <c r="A27" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="34">
-      <c r="A28" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="30" t="s">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="34">
-      <c r="A29" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17">
-      <c r="A30" s="29" t="s">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B32" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C32" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17">
-      <c r="A31" s="29" t="s">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B33" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C33" s="30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="34">
-      <c r="A32" s="29" t="s">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B34" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C34" s="30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17">
-      <c r="A33" s="29" t="s">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B35" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="34">
-      <c r="A34" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="29" t="s">
+      <c r="C36" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="51">
-      <c r="A35" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="30" t="s">
+      <c r="C37" s="30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34">
-      <c r="A36" s="29" t="s">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B38" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C38" s="30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34">
-      <c r="A37" s="29" t="s">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B39" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C39" s="30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34">
-      <c r="A38" s="29" t="s">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B40" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C40" s="30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34">
-      <c r="A39" s="29" t="s">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B41" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C41" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A42" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="34">
-      <c r="A40" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="30" t="s">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="30" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="34">
-      <c r="A41" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="34">
-      <c r="A42" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="34">
-      <c r="A43" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/docs/TeamHogwartsReport.xlsx
+++ b/docs/TeamHogwartsReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70753\Downloads\ssw555tmHogwarts2020Spring-develop\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huying/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CD8D2D-9E9D-434A-BC07-EF2BA147B168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8BE332-73CE-614C-B6E4-E9FD2EC64CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="315">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1070,10 +1070,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="m/d"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1326,16 +1326,16 @@
   </cellStyleXfs>
   <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1367,7 +1367,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1409,7 +1409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1451,24 +1451,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1488,6 +1488,7 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1515,75 +1516,74 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="66">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1601,7 +1601,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1635,7 +1635,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1706,7 +1706,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1748,7 +1748,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1776,7 +1776,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
             <c:extLst>
@@ -1787,10 +1787,10 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Burndown!$B$2:$B$7</c:f>
+              <c:f>Burndown!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>m/d</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>42406</c:v>
                 </c:pt>
@@ -1805,10 +1805,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$C$2:$C$7</c:f>
+              <c:f>Burndown!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -2710,15 +2710,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="14" thickTop="1">
       <c r="A2" s="13" t="s">
         <v>179</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="13" t="s">
         <v>182</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="13" t="s">
         <v>183</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>188</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="D8" s="37" t="s">
         <v>34</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="D9" s="37" t="s">
         <v>209</v>
       </c>
@@ -2819,25 +2819,25 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="28" customHeight="1">
       <c r="D10" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="84" t="s">
         <v>212</v>
       </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-    </row>
-    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+    </row>
+    <row r="11" spans="1:7" ht="66" customHeight="1">
       <c r="D11" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
@@ -2867,16 +2867,16 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
     <col min="2" max="2" width="14" style="17" customWidth="1"/>
     <col min="3" max="3" width="36" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>29</v>
       </c>
@@ -2899,7 +2899,7 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="14" thickTop="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="29">
         <v>3</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>To do</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="29">
         <v>3</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>To do</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="29">
         <v>3</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>To do</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="29">
         <v>3</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>To do</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="29">
         <v>3</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>To do</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="29">
         <v>3</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>To do</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="29">
         <v>3</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>To do</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="29">
         <v>3</v>
       </c>
@@ -3372,37 +3372,37 @@
         <v>To do</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="29"/>
       <c r="B28" s="64"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="29"/>
       <c r="B29" s="64"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="29"/>
       <c r="B30" s="64"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="29"/>
       <c r="B31" s="64"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="29"/>
       <c r="B32" s="64"/>
     </row>
@@ -3421,47 +3421,47 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="5"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
         <v>157</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>158</v>
       </c>
@@ -3500,7 +3500,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
         <v>160</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
         <v>161</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
         <v>162</v>
       </c>
@@ -3612,21 +3612,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="10.81640625" style="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>157</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="13" t="s">
         <v>158</v>
       </c>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="F2" s="63"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="13" t="s">
         <v>159</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="13" t="s">
         <v>160</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>161</v>
       </c>
@@ -3726,7 +3726,7 @@
       <c r="E5" s="63"/>
       <c r="F5" s="63"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="13" t="s">
         <v>162</v>
       </c>
@@ -3734,12 +3734,12 @@
       <c r="E6" s="63"/>
       <c r="F6" s="63"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="65"/>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="C8" s="61"/>
     </row>
   </sheetData>
@@ -3755,66 +3755,66 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D3" sqref="D3:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.6328125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" style="11" customWidth="1"/>
     <col min="12" max="12" width="13" style="51" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.6328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" style="56" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" style="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="16" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1">
+      <c r="A1" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="86" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="86" t="s">
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="87" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="86" t="s">
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="87" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="87"/>
-      <c r="O1" s="88"/>
-    </row>
-    <row r="2" spans="1:16" s="16" customFormat="1" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="89"/>
+    </row>
+    <row r="2" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
+      <c r="A2" s="90"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="14" thickTop="1">
       <c r="A3" s="33" t="s">
         <v>111</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="33" t="s">
         <v>112</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="29" t="s">
         <v>113</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="29" t="s">
         <v>114</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="29" t="s">
         <v>110</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="29" t="s">
         <v>116</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="29" t="s">
         <v>117</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" s="29" t="s">
         <v>118</v>
       </c>
@@ -4233,20 +4233,20 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G11" s="92"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
+      <c r="G11" s="83"/>
+    </row>
+    <row r="13" spans="1:16" ht="14">
       <c r="B13" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="14">
       <c r="B14" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="43" customFormat="1">
       <c r="A15" s="41">
         <v>1</v>
       </c>
@@ -4266,7 +4266,7 @@
       <c r="O15" s="58"/>
       <c r="P15" s="47"/>
     </row>
-    <row r="16" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="43" customFormat="1">
       <c r="A16" s="41">
         <v>2</v>
       </c>
@@ -4286,7 +4286,7 @@
       <c r="O16" s="58"/>
       <c r="P16" s="47"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="14">
       <c r="A17" s="41">
         <v>3</v>
       </c>
@@ -4294,12 +4294,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="14">
       <c r="B18" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" s="43" customFormat="1" ht="14">
       <c r="A19" s="41">
         <v>1</v>
       </c>
@@ -4319,7 +4319,7 @@
       <c r="O19" s="58"/>
       <c r="P19" s="47"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20" s="41">
         <v>2</v>
       </c>
@@ -4349,66 +4349,66 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="68" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="68" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" style="68" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" style="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:16" ht="20" customHeight="1">
+      <c r="A1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="86" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="86" t="s">
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="87" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="86" t="s">
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="87" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="87"/>
-      <c r="O1" s="88"/>
-    </row>
-    <row r="2" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="89"/>
+    </row>
+    <row r="2" spans="1:16" ht="20" customHeight="1" thickBot="1">
+      <c r="A2" s="90"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="14" thickTop="1">
       <c r="A3" s="13" t="s">
         <v>115</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="13" t="s">
         <v>119</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="13" t="s">
         <v>121</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="13" t="s">
         <v>120</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="13" t="s">
         <v>126</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="13" t="s">
         <v>127</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="13" t="s">
         <v>124</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" s="13" t="s">
         <v>125</v>
       </c>
@@ -4819,11 +4819,11 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="14">
       <c r="A13" s="64"/>
       <c r="B13" s="77" t="s">
         <v>30</v>
@@ -4842,7 +4842,7 @@
       <c r="N13" s="71"/>
       <c r="O13" s="72"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="14">
       <c r="A14" s="64"/>
       <c r="B14" s="77" t="s">
         <v>31</v>
@@ -4861,7 +4861,7 @@
       <c r="N14" s="71"/>
       <c r="O14" s="72"/>
     </row>
-    <row r="15" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="43" customFormat="1">
       <c r="A15" s="39">
         <v>1</v>
       </c>
@@ -4883,7 +4883,7 @@
       <c r="O15" s="75"/>
       <c r="P15" s="47"/>
     </row>
-    <row r="16" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="43" customFormat="1">
       <c r="A16" s="39">
         <v>2</v>
       </c>
@@ -4905,7 +4905,7 @@
       <c r="O16" s="75"/>
       <c r="P16" s="47"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" s="39"/>
       <c r="B17" s="79"/>
       <c r="C17" s="64"/>
@@ -4922,7 +4922,7 @@
       <c r="N17" s="71"/>
       <c r="O17" s="72"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="14">
       <c r="A18" s="64"/>
       <c r="B18" s="77" t="s">
         <v>32</v>
@@ -4941,7 +4941,7 @@
       <c r="N18" s="71"/>
       <c r="O18" s="72"/>
     </row>
-    <row r="19" spans="1:16" s="43" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" s="43" customFormat="1" ht="17" customHeight="1">
       <c r="A19" s="39">
         <v>1</v>
       </c>
@@ -4963,7 +4963,7 @@
       <c r="O19" s="75"/>
       <c r="P19" s="47"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20" s="39"/>
       <c r="B20" s="81"/>
       <c r="C20" s="64"/>
@@ -4980,7 +4980,7 @@
       <c r="N20" s="71"/>
       <c r="O20" s="72"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21" s="64"/>
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
@@ -4997,7 +4997,7 @@
       <c r="N21" s="64"/>
       <c r="O21" s="76"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="A22" s="64"/>
       <c r="B22" s="64"/>
       <c r="C22" s="64"/>
@@ -5014,7 +5014,7 @@
       <c r="N22" s="64"/>
       <c r="O22" s="76"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="64"/>
@@ -5031,7 +5031,7 @@
       <c r="N23" s="64"/>
       <c r="O23" s="76"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="A24" s="64"/>
       <c r="B24" s="64"/>
       <c r="C24" s="64"/>
@@ -5048,7 +5048,7 @@
       <c r="N24" s="64"/>
       <c r="O24" s="76"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25" s="64"/>
       <c r="B25" s="64"/>
       <c r="C25" s="64"/>
@@ -5065,7 +5065,7 @@
       <c r="N25" s="64"/>
       <c r="O25" s="76"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26" s="64"/>
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
@@ -5082,7 +5082,7 @@
       <c r="N26" s="64"/>
       <c r="O26" s="76"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27" s="64"/>
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
@@ -5099,7 +5099,7 @@
       <c r="N27" s="64"/>
       <c r="O27" s="76"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28" s="64"/>
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
@@ -5137,57 +5137,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="27.6328125" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:15" ht="20" customHeight="1">
+      <c r="A1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="86" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="86" t="s">
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="87" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="86" t="s">
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="87" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="87"/>
-      <c r="O1" s="88"/>
-    </row>
-    <row r="2" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="89"/>
+    </row>
+    <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
+      <c r="A2" s="90"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="14" thickTop="1">
       <c r="A3" s="29" t="s">
         <v>122</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="29" t="s">
         <v>123</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="29" t="s">
         <v>128</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="29" t="s">
         <v>129</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="29" t="s">
         <v>130</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="29" t="s">
         <v>131</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="29" t="s">
         <v>132</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="29" t="s">
         <v>133</v>
       </c>
@@ -5406,53 +5406,53 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:15" ht="20" customHeight="1">
+      <c r="A1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="86" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="86" t="s">
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="87" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="86" t="s">
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="87" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="87"/>
-      <c r="O1" s="88"/>
-    </row>
-    <row r="2" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="89"/>
+    </row>
+    <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
+      <c r="A2" s="90"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -5487,8 +5487,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="13.2" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="14" thickTop="1"/>
+    <row r="19" spans="9:9">
       <c r="I19" t="s">
         <v>288</v>
       </c>
@@ -5517,15 +5517,15 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="29"/>
+    <col min="1" max="1" width="10.83203125" style="29"/>
     <col min="2" max="2" width="35" style="29" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" style="29"/>
+    <col min="3" max="3" width="49.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="16" customFormat="1" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>109</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30.6" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="35" thickTop="1">
       <c r="A2" s="29" t="s">
         <v>110</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="17">
       <c r="A3" s="28" t="s">
         <v>111</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="17">
       <c r="A4" s="29" t="s">
         <v>112</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="34">
       <c r="A5" s="29" t="s">
         <v>113</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" s="29" t="s">
         <v>114</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="17">
       <c r="A7" s="29" t="s">
         <v>115</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="51">
       <c r="A8" s="29" t="s">
         <v>116</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="34">
       <c r="A9" s="29" t="s">
         <v>117</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="34">
       <c r="A10" s="29" t="s">
         <v>118</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="51">
       <c r="A11" s="29" t="s">
         <v>119</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="34">
       <c r="A12" s="29" t="s">
         <v>120</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="51">
       <c r="A13" s="29" t="s">
         <v>121</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="68">
       <c r="A14" s="29" t="s">
         <v>122</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="34">
       <c r="A15" s="29" t="s">
         <v>123</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="17">
       <c r="A16" s="29" t="s">
         <v>124</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="34">
       <c r="A17" s="29" t="s">
         <v>125</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17">
       <c r="A18" s="29" t="s">
         <v>126</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17">
       <c r="A19" s="29" t="s">
         <v>127</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="17">
       <c r="A20" s="29" t="s">
         <v>128</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="34">
       <c r="A21" s="29" t="s">
         <v>129</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="34">
       <c r="A22" s="29" t="s">
         <v>130</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="34">
       <c r="A23" s="29" t="s">
         <v>131</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="34">
       <c r="A24" s="29" t="s">
         <v>132</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="51">
       <c r="A25" s="29" t="s">
         <v>133</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="34">
       <c r="A26" s="29" t="s">
         <v>134</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="136">
       <c r="A27" s="29" t="s">
         <v>135</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="34">
       <c r="A28" s="29" t="s">
         <v>136</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="34">
       <c r="A29" s="29" t="s">
         <v>137</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="17">
       <c r="A30" s="29" t="s">
         <v>138</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="17">
       <c r="A31" s="29" t="s">
         <v>139</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="34">
       <c r="A32" s="29" t="s">
         <v>140</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="17">
       <c r="A33" s="29" t="s">
         <v>141</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="34">
       <c r="A34" s="29" t="s">
         <v>142</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="51">
       <c r="A35" s="29" t="s">
         <v>143</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="34">
       <c r="A36" s="29" t="s">
         <v>144</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="34">
       <c r="A37" s="29" t="s">
         <v>145</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="34">
       <c r="A38" s="29" t="s">
         <v>146</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="34">
       <c r="A39" s="29" t="s">
         <v>147</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="34">
       <c r="A40" s="29" t="s">
         <v>148</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="34">
       <c r="A41" s="29" t="s">
         <v>149</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="34">
       <c r="A42" s="29" t="s">
         <v>150</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="34">
       <c r="A43" s="29" t="s">
         <v>151</v>
       </c>

--- a/docs/TeamHogwartsReport.xlsx
+++ b/docs/TeamHogwartsReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huying/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeyiszy/PycharmProjects/ssw555tmHogwarts2020Spring/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8BE332-73CE-614C-B6E4-E9FD2EC64CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45C23CC-E7EB-AC48-86EB-A78604628D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="326">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1062,6 +1062,46 @@
   </si>
   <si>
     <t>us15.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us13.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us14.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us13_sibling_spacing</t>
+  </si>
+  <si>
+    <t>us14_multiple_births</t>
+  </si>
+  <si>
+    <t>6-30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us13_test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us14_test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_sibling_spacing</t>
+  </si>
+  <si>
+    <t>test_multiple_births</t>
+  </si>
+  <si>
+    <t>10-17</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1070,8 +1110,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1324,18 +1364,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1367,7 +1407,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1409,7 +1449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1451,24 +1491,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1516,74 +1556,81 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="30" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="66">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1601,7 +1648,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1748,7 +1795,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5137,8 +5184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -5241,6 +5288,33 @@
       <c r="F3" s="13">
         <v>50</v>
       </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3" s="93">
+        <v>180</v>
+      </c>
+      <c r="I3" s="94">
+        <v>42463</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="K3" t="s">
+        <v>317</v>
+      </c>
+      <c r="L3" s="95" t="s">
+        <v>320</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="N3" t="s">
+        <v>323</v>
+      </c>
+      <c r="O3" s="95" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="29" t="s">
@@ -5260,6 +5334,33 @@
       </c>
       <c r="F4" s="13">
         <v>60</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4" s="94">
+        <v>42463</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="K4" t="s">
+        <v>318</v>
+      </c>
+      <c r="L4" s="95" t="s">
+        <v>319</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="N4" t="s">
+        <v>324</v>
+      </c>
+      <c r="O4" s="95" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -5595,7 +5696,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34">
+    <row r="6" spans="1:4" ht="17">
       <c r="A6" s="29" t="s">
         <v>114</v>
       </c>
@@ -5665,7 +5766,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="51">
+    <row r="11" spans="1:4" ht="34">
       <c r="A11" s="29" t="s">
         <v>119</v>
       </c>
@@ -5897,7 +5998,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="34">
+    <row r="28" spans="1:4" ht="17">
       <c r="A28" s="29" t="s">
         <v>136</v>
       </c>

--- a/docs/TeamHogwartsReport.xlsx
+++ b/docs/TeamHogwartsReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeyiszy/PycharmProjects/ssw555tmHogwarts2020Spring/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huying/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45C23CC-E7EB-AC48-86EB-A78604628D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD76255A-A26A-F742-A9DA-6A1C1C4831F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="335">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -713,9 +713,6 @@
     <t>To do</t>
   </si>
   <si>
-    <t>*Status: To do, coding, testing, done</t>
-  </si>
-  <si>
     <t>wuhuwuhuhu</t>
   </si>
   <si>
@@ -1103,6 +1100,36 @@
   <si>
     <t>10-17</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>us23.py</t>
+  </si>
+  <si>
+    <t>us23_unique_name_birth_date</t>
+  </si>
+  <si>
+    <t>us24.py</t>
+  </si>
+  <si>
+    <t>us24_unique_families_by_spouses</t>
+  </si>
+  <si>
+    <t>us23_test</t>
+  </si>
+  <si>
+    <t>us24_test</t>
+  </si>
+  <si>
+    <t>test_us23_unique_name_birth_date</t>
+  </si>
+  <si>
+    <t>test_us24_unique_families_by_spouses</t>
+  </si>
+  <si>
+    <t>*Status: To do, doing, done</t>
   </si>
 </sst>
 </file>
@@ -1110,8 +1137,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="m/d"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1364,18 +1391,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1407,7 +1434,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1449,7 +1476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1491,24 +1518,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1529,6 +1556,13 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1556,81 +1590,80 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="30" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1648,7 +1681,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1795,7 +1828,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2813,7 +2846,7 @@
         <v>194</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2830,7 +2863,7 @@
         <v>195</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2860,31 +2893,31 @@
     </row>
     <row r="9" spans="1:7">
       <c r="D9" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>209</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28" customHeight="1">
       <c r="D10" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="E10" s="84" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
     </row>
     <row r="11" spans="1:7" ht="66" customHeight="1">
       <c r="D11" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="89" t="s">
         <v>213</v>
       </c>
-      <c r="E11" s="86" t="s">
-        <v>214</v>
-      </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
@@ -2911,7 +2944,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -2940,7 +2973,7 @@
         <v>28</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>206</v>
+        <v>334</v>
       </c>
       <c r="G1"/>
       <c r="H1"/>
@@ -3269,7 +3302,7 @@
       </c>
       <c r="E18" s="29" t="str">
         <f>Sprint3!D3</f>
-        <v>To do</v>
+        <v>done</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3290,7 +3323,7 @@
       </c>
       <c r="E19" s="29" t="str">
         <f>Sprint3!D4</f>
-        <v>To do</v>
+        <v>done</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3395,7 +3428,7 @@
       </c>
       <c r="E24" s="29" t="str">
         <f>Sprint3!D9</f>
-        <v>To do</v>
+        <v>done</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3416,7 +3449,7 @@
       </c>
       <c r="E25" s="29" t="str">
         <f>Sprint3!D10</f>
-        <v>To do</v>
+        <v>done</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3659,7 +3692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -3684,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>23</v>
@@ -3802,7 +3835,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:H4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -3825,43 +3858,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="87" t="s">
+      <c r="F1" s="91"/>
+      <c r="G1" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="87" t="s">
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="87" t="s">
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="89"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="92"/>
     </row>
     <row r="2" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
-      <c r="A2" s="90"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -3907,7 +3940,7 @@
         <v>198</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E3" s="17">
         <v>10</v>
@@ -3926,22 +3959,22 @@
         <v>42423</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L3" s="54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O3" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -3955,7 +3988,7 @@
         <v>198</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E4" s="17">
         <v>10</v>
@@ -3974,22 +4007,22 @@
         <v>42423</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L4" s="52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O4" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -4003,7 +4036,7 @@
         <v>200</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E5" s="17">
         <v>15</v>
@@ -4022,22 +4055,22 @@
         <v>42425</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L5" s="52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O5" s="57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4051,7 +4084,7 @@
         <v>200</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E6" s="17">
         <v>15</v>
@@ -4070,22 +4103,22 @@
         <v>42425</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L6" s="52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O6" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4099,7 +4132,7 @@
         <v>182</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E7" s="17">
         <v>15</v>
@@ -4118,22 +4151,22 @@
         <v>42417</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L7" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O7" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -4147,7 +4180,7 @@
         <v>182</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E8" s="17">
         <v>10</v>
@@ -4166,22 +4199,22 @@
         <v>42417</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L8" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="O8" s="57" t="s">
         <v>254</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="O8" s="57" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -4195,7 +4228,7 @@
         <v>183</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E9" s="17">
         <v>6</v>
@@ -4214,22 +4247,22 @@
         <v>42425</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L9" s="52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O9" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -4243,7 +4276,7 @@
         <v>183</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E10" s="17">
         <v>6</v>
@@ -4262,22 +4295,22 @@
         <v>42425</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L10" s="52" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O10" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4298,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="41"/>
@@ -4318,7 +4351,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
@@ -4338,7 +4371,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="14">
@@ -4351,7 +4384,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>
@@ -4371,7 +4404,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4419,43 +4452,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="87" t="s">
+      <c r="F1" s="91"/>
+      <c r="G1" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="87" t="s">
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="87" t="s">
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="89"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="92"/>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="90"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -4501,7 +4534,7 @@
         <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -4516,25 +4549,25 @@
         <v>50</v>
       </c>
       <c r="I3" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K3" t="s">
         <v>262</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" s="69" t="s">
+        <v>257</v>
+      </c>
+      <c r="M3" t="s">
         <v>263</v>
       </c>
-      <c r="L3" s="69" t="s">
-        <v>258</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>264</v>
       </c>
-      <c r="N3" t="s">
-        <v>265</v>
-      </c>
       <c r="O3" s="69" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4548,7 +4581,7 @@
         <v>179</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -4563,25 +4596,25 @@
         <v>30</v>
       </c>
       <c r="I4" s="69" t="s">
+        <v>271</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>273</v>
-      </c>
       <c r="K4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L4" s="69" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O4" s="69" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -4595,7 +4628,7 @@
         <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E5">
         <v>60</v>
@@ -4610,25 +4643,25 @@
         <v>120</v>
       </c>
       <c r="I5" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="K5" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="L5" s="69" t="s">
         <v>268</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="M5" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="N5" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="O5" s="69" t="s">
         <v>270</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="O5" s="69" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4642,7 +4675,7 @@
         <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E6">
         <v>60</v>
@@ -4657,25 +4690,25 @@
         <v>50</v>
       </c>
       <c r="I6" s="69" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L6" s="69" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O6" s="69" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4689,7 +4722,7 @@
         <v>182</v>
       </c>
       <c r="D7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -4704,25 +4737,25 @@
         <v>40</v>
       </c>
       <c r="I7" s="68" t="s">
+        <v>288</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="J7" s="13" t="s">
-        <v>290</v>
-      </c>
       <c r="K7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L7" s="69" t="s">
+        <v>259</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="O7" s="69" t="s">
         <v>260</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="O7" s="69" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -4736,7 +4769,7 @@
         <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -4751,25 +4784,25 @@
         <v>80</v>
       </c>
       <c r="I8" s="68" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L8" s="69" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O8" s="69" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -4783,7 +4816,7 @@
         <v>183</v>
       </c>
       <c r="D9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -4798,25 +4831,25 @@
         <v>8</v>
       </c>
       <c r="I9" s="69" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L9" s="69" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O9" s="69" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -4830,7 +4863,7 @@
         <v>183</v>
       </c>
       <c r="D10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E10">
         <v>15</v>
@@ -4845,25 +4878,25 @@
         <v>20</v>
       </c>
       <c r="I10" s="69" t="s">
+        <v>297</v>
+      </c>
+      <c r="J10" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>299</v>
-      </c>
       <c r="K10" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L10" s="69" t="s">
+        <v>305</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="N10" t="s">
         <v>306</v>
       </c>
-      <c r="M10" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="N10" t="s">
-        <v>307</v>
-      </c>
       <c r="O10" s="69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4913,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="78" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
@@ -4935,7 +4968,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="78" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
@@ -4993,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
@@ -5185,7 +5218,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -5193,48 +5226,48 @@
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="68" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="87" t="s">
+      <c r="F1" s="91"/>
+      <c r="G1" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="87" t="s">
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="87" t="s">
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="89"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="92"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="90"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -5256,7 +5289,7 @@
       <c r="K2" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="50" t="s">
         <v>176</v>
       </c>
       <c r="M2" s="22" t="s">
@@ -5280,7 +5313,7 @@
         <v>179</v>
       </c>
       <c r="D3" s="82" t="s">
-        <v>205</v>
+        <v>325</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -5291,29 +5324,29 @@
       <c r="G3">
         <v>13</v>
       </c>
-      <c r="H3" s="93">
+      <c r="H3" s="84">
         <v>180</v>
       </c>
-      <c r="I3" s="94">
+      <c r="I3" s="85">
         <v>42463</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K3" t="s">
-        <v>317</v>
-      </c>
-      <c r="L3" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="L3" s="86" t="s">
+        <v>319</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="M3" s="13" t="s">
-        <v>321</v>
-      </c>
       <c r="N3" t="s">
-        <v>323</v>
-      </c>
-      <c r="O3" s="95" t="s">
-        <v>325</v>
+        <v>322</v>
+      </c>
+      <c r="O3" s="86" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5327,7 +5360,7 @@
         <v>179</v>
       </c>
       <c r="D4" s="82" t="s">
-        <v>205</v>
+        <v>325</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -5341,26 +5374,26 @@
       <c r="H4">
         <v>40</v>
       </c>
-      <c r="I4" s="94">
+      <c r="I4" s="85">
         <v>42463</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K4" t="s">
+        <v>317</v>
+      </c>
+      <c r="L4" s="86" t="s">
         <v>318</v>
       </c>
-      <c r="L4" s="95" t="s">
-        <v>319</v>
-      </c>
       <c r="M4" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N4" t="s">
+        <v>323</v>
+      </c>
+      <c r="O4" s="86" t="s">
         <v>324</v>
-      </c>
-      <c r="O4" s="95" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -5454,13 +5487,40 @@
         <v>188</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>205</v>
+        <v>325</v>
       </c>
       <c r="E9">
         <v>30</v>
       </c>
       <c r="F9">
         <v>50</v>
+      </c>
+      <c r="G9">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>120</v>
+      </c>
+      <c r="I9" s="85">
+        <v>42463</v>
+      </c>
+      <c r="J9" t="s">
+        <v>326</v>
+      </c>
+      <c r="K9" t="s">
+        <v>327</v>
+      </c>
+      <c r="L9" s="86" t="s">
+        <v>255</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="O9" s="96" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -5474,13 +5534,40 @@
         <v>188</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>205</v>
+        <v>325</v>
       </c>
       <c r="E10">
         <v>30</v>
       </c>
       <c r="F10">
         <v>50</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10" s="85">
+        <v>42463</v>
+      </c>
+      <c r="J10" t="s">
+        <v>328</v>
+      </c>
+      <c r="K10" t="s">
+        <v>329</v>
+      </c>
+      <c r="L10" s="86" t="s">
+        <v>253</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="O10" s="97" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -5517,43 +5604,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="87" t="s">
+      <c r="F1" s="91"/>
+      <c r="G1" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="87" t="s">
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="87" t="s">
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="89"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="92"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="90"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -5591,7 +5678,7 @@
     <row r="3" spans="1:15" ht="14" thickTop="1"/>
     <row r="19" spans="9:9">
       <c r="I19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -5696,7 +5783,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" s="29" t="s">
         <v>114</v>
       </c>
@@ -5766,7 +5853,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34">
+    <row r="11" spans="1:4" ht="51">
       <c r="A11" s="29" t="s">
         <v>119</v>
       </c>
@@ -5774,7 +5861,7 @@
         <v>74</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>179</v>
@@ -5844,7 +5931,7 @@
         <v>79</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>183</v>
@@ -5858,7 +5945,7 @@
         <v>80</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>183</v>
@@ -5998,7 +6085,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17">
+    <row r="28" spans="1:4" ht="34">
       <c r="A28" s="29" t="s">
         <v>136</v>
       </c>

--- a/docs/TeamHogwartsReport.xlsx
+++ b/docs/TeamHogwartsReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huying/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whd/Documents/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD76255A-A26A-F742-A9DA-6A1C1C4831F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579FA1E8-B0EA-4542-9CA1-B6229137D054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="346">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1130,6 +1130,39 @@
   </si>
   <si>
     <t>*Status: To do, doing, done</t>
+  </si>
+  <si>
+    <t>us21.py</t>
+  </si>
+  <si>
+    <t>us25.py</t>
+  </si>
+  <si>
+    <t>us25_unique_first_names_in_families</t>
+  </si>
+  <si>
+    <t>us21_correct_gender_for_role</t>
+  </si>
+  <si>
+    <t>5-20</t>
+  </si>
+  <si>
+    <t>5-31</t>
+  </si>
+  <si>
+    <t>us21_test</t>
+  </si>
+  <si>
+    <t>us25_test</t>
+  </si>
+  <si>
+    <t>test_unique_first_names_in_families</t>
+  </si>
+  <si>
+    <t>test_correct_gender_for_role</t>
+  </si>
+  <si>
+    <t>10-21</t>
   </si>
 </sst>
 </file>
@@ -1563,6 +1596,12 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1589,12 +1628,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -2903,21 +2936,21 @@
       <c r="D10" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:7" ht="66" customHeight="1">
       <c r="D11" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="89" t="s">
+      <c r="E11" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
@@ -3386,7 +3419,7 @@
       </c>
       <c r="E22" s="29" t="str">
         <f>Sprint3!D7</f>
-        <v>To do</v>
+        <v>done</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3395,11 +3428,11 @@
       </c>
       <c r="B23" s="29" t="str">
         <f>Sprint3!A8</f>
-        <v>US22</v>
+        <v>US25</v>
       </c>
       <c r="C23" s="29" t="str">
         <f>Sprint3!B8</f>
-        <v>Unique IDs</v>
+        <v>Unique first names in families</v>
       </c>
       <c r="D23" s="29" t="str">
         <f>Sprint3!C8</f>
@@ -3407,7 +3440,7 @@
       </c>
       <c r="E23" s="29" t="str">
         <f>Sprint3!D8</f>
-        <v>To do</v>
+        <v>done</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3692,7 +3725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -3858,43 +3891,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="90" t="s">
+      <c r="F1" s="93"/>
+      <c r="G1" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="90" t="s">
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="90" t="s">
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="92" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="91"/>
-      <c r="O1" s="92"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="94"/>
     </row>
     <row r="2" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -4452,43 +4485,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="90" t="s">
+      <c r="F1" s="93"/>
+      <c r="G1" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="90" t="s">
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="90" t="s">
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="92" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="91"/>
-      <c r="O1" s="92"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="94"/>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -5217,8 +5250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView topLeftCell="C1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -5231,43 +5264,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="90" t="s">
+      <c r="F1" s="93"/>
+      <c r="G1" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="90" t="s">
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="90" t="s">
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="92" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="91"/>
-      <c r="O1" s="92"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="94"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -5447,7 +5480,7 @@
         <v>182</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>205</v>
+        <v>325</v>
       </c>
       <c r="E7">
         <v>15</v>
@@ -5455,25 +5488,79 @@
       <c r="F7">
         <v>30</v>
       </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7" s="85">
+        <v>42464</v>
+      </c>
+      <c r="J7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L7" s="86" t="s">
+        <v>339</v>
+      </c>
+      <c r="M7" t="s">
+        <v>341</v>
+      </c>
+      <c r="N7" t="s">
+        <v>344</v>
+      </c>
+      <c r="O7" s="86" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="29" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>205</v>
+        <v>325</v>
       </c>
       <c r="E8">
         <v>15</v>
       </c>
       <c r="F8">
         <v>30</v>
+      </c>
+      <c r="G8">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>90</v>
+      </c>
+      <c r="I8" s="85">
+        <v>42464</v>
+      </c>
+      <c r="J8" t="s">
+        <v>336</v>
+      </c>
+      <c r="K8" t="s">
+        <v>337</v>
+      </c>
+      <c r="L8" s="86" t="s">
+        <v>340</v>
+      </c>
+      <c r="M8" t="s">
+        <v>342</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="O8" s="86" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -5519,7 +5606,7 @@
       <c r="N9" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="O9" s="96" t="s">
+      <c r="O9" s="87" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5566,7 +5653,7 @@
       <c r="N10" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="O10" s="97" t="s">
+      <c r="O10" s="88" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5583,6 +5670,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5604,43 +5692,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="90" t="s">
+      <c r="F1" s="93"/>
+      <c r="G1" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="90" t="s">
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="90" t="s">
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="92" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="91"/>
-      <c r="O1" s="92"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="94"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -5701,8 +5789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -6031,9 +6119,6 @@
       <c r="C23" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="24" spans="1:4" ht="34">
       <c r="A24" s="29" t="s">
@@ -6072,6 +6157,9 @@
       </c>
       <c r="C26" s="30" t="s">
         <v>48</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="136">

--- a/docs/TeamHogwartsReport.xlsx
+++ b/docs/TeamHogwartsReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whd/Documents/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huying/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579FA1E8-B0EA-4542-9CA1-B6229137D054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96CCEAF-1576-3F49-9AB8-736B2B41FE0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="351">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1163,6 +1163,21 @@
   </si>
   <si>
     <t>10-21</t>
+  </si>
+  <si>
+    <t>Keep continuous communication</t>
+  </si>
+  <si>
+    <t>to do</t>
+  </si>
+  <si>
+    <t>We had a meeting regarding to use Mock in the GED project, out discussion result is that Mock doesn't work in this project.</t>
+  </si>
+  <si>
+    <t>Have meetings according to special issues to find out solutions together.</t>
+  </si>
+  <si>
+    <t>*Public gathering</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1439,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1589,18 +1604,8 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1628,6 +1633,42 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -2936,21 +2977,21 @@
       <c r="D10" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="85" t="s">
         <v>211</v>
       </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
     </row>
     <row r="11" spans="1:7" ht="66" customHeight="1">
       <c r="D11" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
@@ -2974,10 +3015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -3486,38 +3527,147 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="A26" s="29">
+        <v>4</v>
+      </c>
+      <c r="B26" s="29" t="str">
+        <f>Sprint4!A3</f>
+        <v>US29</v>
+      </c>
+      <c r="C26" s="29" t="str">
+        <f>Sprint4!B3</f>
+        <v>List deceased</v>
+      </c>
+      <c r="D26" s="29" t="str">
+        <f>Sprint4!C3</f>
+        <v>yh</v>
+      </c>
+      <c r="E26" s="29" t="str">
+        <f>Sprint4!D3</f>
+        <v>to do</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="A27" s="29">
+        <v>4</v>
+      </c>
+      <c r="B27" s="29" t="str">
+        <f>Sprint4!A4</f>
+        <v>US30</v>
+      </c>
+      <c r="C27" s="29" t="str">
+        <f>Sprint4!B4</f>
+        <v>List living married</v>
+      </c>
+      <c r="D27" s="29" t="str">
+        <f>Sprint4!C4</f>
+        <v>yh</v>
+      </c>
+      <c r="E27" s="29" t="str">
+        <f>Sprint4!D4</f>
+        <v>to do</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="29"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="29">
+        <v>4</v>
+      </c>
+      <c r="B28" s="29" t="str">
+        <f>Sprint4!A5</f>
+        <v>US31</v>
+      </c>
+      <c r="C28" s="29" t="str">
+        <f>Sprint4!B5</f>
+        <v>List living single</v>
+      </c>
+      <c r="D28" s="29" t="str">
+        <f>Sprint4!C5</f>
+        <v>yz</v>
+      </c>
+      <c r="E28" s="29" t="str">
+        <f>Sprint4!D5</f>
+        <v>to do</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="29"/>
-      <c r="B29" s="64"/>
+      <c r="A29" s="29">
+        <v>4</v>
+      </c>
+      <c r="B29" s="29" t="str">
+        <f>Sprint4!A6</f>
+        <v>US32</v>
+      </c>
+      <c r="C29" s="29" t="str">
+        <f>Sprint4!B6</f>
+        <v>List multiple births</v>
+      </c>
+      <c r="D29" s="29" t="str">
+        <f>Sprint4!C6</f>
+        <v>yz</v>
+      </c>
+      <c r="E29" s="29" t="str">
+        <f>Sprint4!D6</f>
+        <v>to do</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="29"/>
-      <c r="B30" s="64"/>
+      <c r="A30" s="29">
+        <v>4</v>
+      </c>
+      <c r="B30" s="29" t="str">
+        <f>Sprint4!A7</f>
+        <v>US35</v>
+      </c>
+      <c r="C30" s="29" t="str">
+        <f>Sprint4!B7</f>
+        <v>List recent births</v>
+      </c>
+      <c r="D30" s="29" t="str">
+        <f>Sprint4!C7</f>
+        <v>hw</v>
+      </c>
+      <c r="E30" s="29" t="str">
+        <f>Sprint4!D7</f>
+        <v>to do</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="29"/>
-      <c r="B31" s="64"/>
+      <c r="A31" s="29">
+        <v>4</v>
+      </c>
+      <c r="B31" s="29" t="str">
+        <f>Sprint4!A8</f>
+        <v>US36</v>
+      </c>
+      <c r="C31" s="29" t="str">
+        <f>Sprint4!B8</f>
+        <v>List recent deaths</v>
+      </c>
+      <c r="D31" s="29" t="str">
+        <f>Sprint4!C8</f>
+        <v>hw</v>
+      </c>
+      <c r="E31" s="29" t="str">
+        <f>Sprint4!D8</f>
+        <v>to do</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="29"/>
-      <c r="B32" s="64"/>
+      <c r="A32" s="29">
+        <v>4</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3725,7 +3875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -3868,7 +4018,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -3891,43 +4041,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="88" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="92" t="s">
+      <c r="F1" s="89"/>
+      <c r="G1" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="92" t="s">
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="88" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="92" t="s">
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="88" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="93"/>
-      <c r="O1" s="94"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="90"/>
     </row>
     <row r="2" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -4462,7 +4612,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A13" sqref="A13:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -4485,43 +4635,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="88" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="92" t="s">
+      <c r="F1" s="89"/>
+      <c r="G1" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="92" t="s">
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="88" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="92" t="s">
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="88" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="93"/>
-      <c r="O1" s="94"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="90"/>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -5248,10 +5398,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -5264,59 +5414,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="88" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="92" t="s">
+      <c r="F1" s="89"/>
+      <c r="G1" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="92" t="s">
+      <c r="H1" s="89"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="88" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="92" t="s">
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="88" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="93"/>
-      <c r="O1" s="94"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="90"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="84" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="84" t="s">
         <v>173</v>
       </c>
       <c r="K2" s="23" t="s">
@@ -5325,7 +5475,7 @@
       <c r="L2" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="84" t="s">
         <v>174</v>
       </c>
       <c r="N2" s="23" t="s">
@@ -5354,31 +5504,31 @@
       <c r="F3" s="13">
         <v>50</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="17">
         <v>13</v>
       </c>
-      <c r="H3" s="84">
+      <c r="H3" s="102">
         <v>180</v>
       </c>
-      <c r="I3" s="85">
+      <c r="I3" s="103">
         <v>42463</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="64" t="s">
         <v>316</v>
       </c>
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="104" t="s">
         <v>319</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="O3" s="86" t="s">
+      <c r="O3" s="105" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5401,31 +5551,31 @@
       <c r="F4" s="13">
         <v>60</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="17">
         <v>20</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="64">
         <v>40</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="103">
         <v>42463</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="64" t="s">
         <v>317</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="104" t="s">
         <v>318</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="64" t="s">
         <v>323</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="105" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5448,6 +5598,15 @@
       <c r="F5">
         <v>50</v>
       </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="29"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="29" t="s">
@@ -5468,6 +5627,15 @@
       <c r="F6">
         <v>60</v>
       </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="29"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="29" t="s">
@@ -5488,31 +5656,31 @@
       <c r="F7">
         <v>30</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="17">
         <v>12</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="64">
         <v>30</v>
       </c>
-      <c r="I7" s="85">
+      <c r="I7" s="103">
         <v>42464</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="64" t="s">
         <v>338</v>
       </c>
-      <c r="L7" s="86" t="s">
+      <c r="L7" s="104" t="s">
         <v>339</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="64" t="s">
         <v>344</v>
       </c>
-      <c r="O7" s="86" t="s">
+      <c r="O7" s="105" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5535,31 +5703,31 @@
       <c r="F8">
         <v>30</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="17">
         <v>24</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="64">
         <v>90</v>
       </c>
-      <c r="I8" s="85">
+      <c r="I8" s="103">
         <v>42464</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="64" t="s">
         <v>337</v>
       </c>
-      <c r="L8" s="86" t="s">
+      <c r="L8" s="104" t="s">
         <v>340</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="95" t="s">
         <v>343</v>
       </c>
-      <c r="O8" s="86" t="s">
+      <c r="O8" s="105" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5582,31 +5750,31 @@
       <c r="F9">
         <v>50</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="17">
         <v>24</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="64">
         <v>120</v>
       </c>
-      <c r="I9" s="85">
+      <c r="I9" s="103">
         <v>42463</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="64" t="s">
         <v>327</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="104" t="s">
         <v>255</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="95" t="s">
         <v>332</v>
       </c>
-      <c r="O9" s="87" t="s">
+      <c r="O9" s="106" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5629,36 +5797,99 @@
       <c r="F10">
         <v>50</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="17">
         <v>25</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="64">
         <v>50</v>
       </c>
-      <c r="I10" s="85">
+      <c r="I10" s="103">
         <v>42463</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="L10" s="86" t="s">
+      <c r="L10" s="104" t="s">
         <v>253</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="95" t="s">
         <v>333</v>
       </c>
-      <c r="O10" s="88" t="s">
+      <c r="O10" s="107" t="s">
         <v>270</v>
       </c>
     </row>
+    <row r="13" spans="1:15" ht="14">
+      <c r="A13" s="64"/>
+      <c r="B13" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+    </row>
+    <row r="14" spans="1:15" ht="14">
+      <c r="A14" s="64"/>
+      <c r="B14" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="39">
+        <v>1</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>346</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="39">
+        <v>2</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+    </row>
+    <row r="17" spans="1:4" ht="41" customHeight="1">
+      <c r="A17" s="39"/>
+      <c r="B17" s="94" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+    </row>
+    <row r="18" spans="1:4" ht="14">
+      <c r="A18" s="64"/>
+      <c r="B18" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+    </row>
+    <row r="19" spans="1:4" ht="14">
+      <c r="A19" s="39">
+        <v>1</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="A1:A2"/>
@@ -5679,11 +5910,12 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
@@ -5692,68 +5924,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="89" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="92" t="s">
+      <c r="F1" s="90"/>
+      <c r="G1" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="92" t="s">
+      <c r="H1" s="89"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="88" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="92" t="s">
+      <c r="K1" s="89"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="88" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="93"/>
-      <c r="O1" s="94"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="90"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="22" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="84" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="84" t="s">
         <v>173</v>
       </c>
       <c r="K2" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="84" t="s">
         <v>174</v>
       </c>
       <c r="N2" s="23" t="s">
@@ -5763,7 +5995,210 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14" thickTop="1"/>
+    <row r="3" spans="1:15" ht="14" thickTop="1">
+      <c r="A3" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" s="64">
+        <v>30</v>
+      </c>
+      <c r="F3" s="29">
+        <v>60</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="29"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>347</v>
+      </c>
+      <c r="E4" s="64">
+        <v>30</v>
+      </c>
+      <c r="F4" s="29">
+        <v>60</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="29"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="101" t="s">
+        <v>347</v>
+      </c>
+      <c r="E5" s="64">
+        <v>40</v>
+      </c>
+      <c r="F5" s="29">
+        <v>120</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="29"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="101" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" s="64">
+        <v>35</v>
+      </c>
+      <c r="F6" s="29">
+        <v>50</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="29"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="101" t="s">
+        <v>347</v>
+      </c>
+      <c r="E7" s="64">
+        <v>20</v>
+      </c>
+      <c r="F7" s="29">
+        <v>30</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="29"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="101" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" s="64">
+        <v>20</v>
+      </c>
+      <c r="F8" s="29">
+        <v>30</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="29"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="29"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="29"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="29"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="29"/>
+    </row>
     <row r="19" spans="9:9">
       <c r="I19" t="s">
         <v>287</v>
@@ -5782,15 +6217,16 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A27" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D36" activeCellId="1" sqref="A36:B37 D36:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -5799,6 +6235,7 @@
     <col min="2" max="2" width="35" style="29" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="31" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="29"/>
+    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
@@ -6205,6 +6642,9 @@
       <c r="C30" s="30" t="s">
         <v>50</v>
       </c>
+      <c r="D30" s="28" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="17">
       <c r="A31" s="29" t="s">
@@ -6216,6 +6656,9 @@
       <c r="C31" s="30" t="s">
         <v>51</v>
       </c>
+      <c r="D31" s="28" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="34">
       <c r="A32" s="29" t="s">
@@ -6227,8 +6670,11 @@
       <c r="C32" s="30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="17">
+      <c r="D32" s="28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17">
       <c r="A33" s="29" t="s">
         <v>141</v>
       </c>
@@ -6238,19 +6684,28 @@
       <c r="C33" s="30" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="34">
+      <c r="D33" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+    </row>
+    <row r="34" spans="1:8" ht="34">
       <c r="A34" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="28" t="s">
         <v>98</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="51">
+      <c r="F34" s="64"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+    </row>
+    <row r="35" spans="1:8" ht="51">
       <c r="A35" s="29" t="s">
         <v>143</v>
       </c>
@@ -6260,8 +6715,11 @@
       <c r="C35" s="30" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="34">
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+    </row>
+    <row r="36" spans="1:8" ht="34">
       <c r="A36" s="29" t="s">
         <v>144</v>
       </c>
@@ -6271,8 +6729,14 @@
       <c r="C36" s="30" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="34">
+      <c r="D36" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+    </row>
+    <row r="37" spans="1:8" ht="34">
       <c r="A37" s="29" t="s">
         <v>145</v>
       </c>
@@ -6282,8 +6746,14 @@
       <c r="C37" s="30" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="34">
+      <c r="D37" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+    </row>
+    <row r="38" spans="1:8" ht="34">
       <c r="A38" s="29" t="s">
         <v>146</v>
       </c>
@@ -6294,7 +6764,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34">
+    <row r="39" spans="1:8" ht="34">
       <c r="A39" s="29" t="s">
         <v>147</v>
       </c>
@@ -6305,7 +6775,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="34">
+    <row r="40" spans="1:8" ht="34">
       <c r="A40" s="29" t="s">
         <v>148</v>
       </c>
@@ -6316,7 +6786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34">
+    <row r="41" spans="1:8" ht="34">
       <c r="A41" s="29" t="s">
         <v>149</v>
       </c>
@@ -6327,7 +6797,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34">
+    <row r="42" spans="1:8" ht="34">
       <c r="A42" s="29" t="s">
         <v>150</v>
       </c>
@@ -6338,7 +6808,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="34">
+    <row r="43" spans="1:8" ht="34">
       <c r="A43" s="29" t="s">
         <v>151</v>
       </c>

--- a/docs/TeamHogwartsReport.xlsx
+++ b/docs/TeamHogwartsReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huying/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70753\Downloads\ssw555tmHogwarts2020Spring-develop\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96CCEAF-1576-3F49-9AB8-736B2B41FE0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE98B7ED-E206-449B-BEFB-20AD7F7FB739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="363">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -227,12 +227,6 @@
     <t>Siblings should not marry one another</t>
   </si>
   <si>
-    <t>First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t>Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
     <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
   </si>
   <si>
@@ -245,33 +239,9 @@
     <t>Include person's current age when listing individuals</t>
   </si>
   <si>
-    <t>List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
     <t>List all people in a GEDCOM file who were born in the last 30 days</t>
   </si>
   <si>
-    <t>List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
     <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
   </si>
   <si>
@@ -356,9 +326,6 @@
     <t>All individual IDs should be unique and all family IDs should be unique</t>
   </si>
   <si>
-    <t>Unique IDs</t>
-  </si>
-  <si>
     <t>Unique name and birth date</t>
   </si>
   <si>
@@ -371,57 +338,15 @@
     <t>Corresponding entries</t>
   </si>
   <si>
-    <t>Include individual ages</t>
-  </si>
-  <si>
     <t>Order siblings by age</t>
   </si>
   <si>
-    <t>List deceased</t>
-  </si>
-  <si>
-    <t>List living married</t>
-  </si>
-  <si>
-    <t>List living single</t>
-  </si>
-  <si>
-    <t>List multiple births</t>
-  </si>
-  <si>
-    <t>List orphans</t>
-  </si>
-  <si>
-    <t>List recent births</t>
-  </si>
-  <si>
-    <t>List recent deaths</t>
-  </si>
-  <si>
     <t>List recent survivors</t>
   </si>
   <si>
-    <t>List upcoming birthdays</t>
-  </si>
-  <si>
-    <t>List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t>Include input line numbers</t>
-  </si>
-  <si>
     <t>List line numbers from GEDCOM source file when reporting errors</t>
   </si>
   <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>List large age differences</t>
-  </si>
-  <si>
     <t>Story ID</t>
   </si>
   <si>
@@ -708,9 +633,6 @@
   </si>
   <si>
     <t>Test</t>
-  </si>
-  <si>
-    <t>To do</t>
   </si>
   <si>
     <t>wuhuwuhuhu</t>
@@ -1165,19 +1087,176 @@
     <t>10-21</t>
   </si>
   <si>
-    <t>Keep continuous communication</t>
-  </si>
-  <si>
-    <t>to do</t>
-  </si>
-  <si>
-    <t>We had a meeting regarding to use Mock in the GED project, out discussion result is that Mock doesn't work in this project.</t>
-  </si>
-  <si>
-    <t>Have meetings according to special issues to find out solutions together.</t>
-  </si>
-  <si>
-    <t>*Public gathering</t>
+    <t>First cousins should not marry one another</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique first names in families</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List orphans</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List recent births</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List large age differences</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List multiple births</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List deceased</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List living married</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List living single</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>us19.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us20.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us19_first_cousin_not_marry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us20_a_u_marry_n_n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us19_test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us20_test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_us19_first_cousin_not_marry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_us20_a_u_marry_n_n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1185,10 +1264,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1248,7 +1327,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1270,6 +1349,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1439,18 +1524,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1482,7 +1567,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1524,7 +1609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1566,24 +1651,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1604,8 +1689,18 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1634,110 +1729,76 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="66">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1755,7 +1816,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1789,7 +1850,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1860,7 +1921,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1902,7 +1963,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2864,15 +2925,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
@@ -2889,109 +2950,109 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14" thickTop="1">
+    <row r="2" spans="1:7" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="13" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D8" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D9" s="37" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28" customHeight="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="85" t="s">
-        <v>211</v>
-      </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-    </row>
-    <row r="11" spans="1:7" ht="66" customHeight="1">
+        <v>184</v>
+      </c>
+      <c r="E10" s="89" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+    </row>
+    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="E11" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
+        <v>186</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
@@ -3015,22 +3076,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
     <col min="2" max="2" width="14" style="17" customWidth="1"/>
     <col min="3" max="3" width="36" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="36" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>29</v>
       </c>
@@ -3047,13 +3108,13 @@
         <v>28</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" ht="14" thickTop="1">
+    <row r="2" spans="1:9" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3074,7 +3135,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3095,7 +3156,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3116,7 +3177,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3137,7 +3198,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3158,7 +3219,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3179,7 +3240,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3200,7 +3261,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3221,7 +3282,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3239,7 +3300,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3256,7 +3317,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3273,7 +3334,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3290,7 +3351,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3307,7 +3368,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3324,7 +3385,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3341,7 +3402,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3358,7 +3419,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <v>3</v>
       </c>
@@ -3379,7 +3440,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <v>3</v>
       </c>
@@ -3400,7 +3461,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
         <v>3</v>
       </c>
@@ -3418,10 +3479,10 @@
       </c>
       <c r="E20" s="29" t="str">
         <f>Sprint3!D5</f>
-        <v>To do</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <v>3</v>
       </c>
@@ -3439,10 +3500,10 @@
       </c>
       <c r="E21" s="29" t="str">
         <f>Sprint3!D6</f>
-        <v>To do</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
         <v>3</v>
       </c>
@@ -3463,7 +3524,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
         <v>3</v>
       </c>
@@ -3484,7 +3545,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
         <v>3</v>
       </c>
@@ -3505,7 +3566,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
         <v>3</v>
       </c>
@@ -3526,148 +3587,39 @@
         <v>done</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="29">
-        <v>4</v>
-      </c>
-      <c r="B26" s="29" t="str">
-        <f>Sprint4!A3</f>
-        <v>US29</v>
-      </c>
-      <c r="C26" s="29" t="str">
-        <f>Sprint4!B3</f>
-        <v>List deceased</v>
-      </c>
-      <c r="D26" s="29" t="str">
-        <f>Sprint4!C3</f>
-        <v>yh</v>
-      </c>
-      <c r="E26" s="29" t="str">
-        <f>Sprint4!D3</f>
-        <v>to do</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="29">
-        <v>4</v>
-      </c>
-      <c r="B27" s="29" t="str">
-        <f>Sprint4!A4</f>
-        <v>US30</v>
-      </c>
-      <c r="C27" s="29" t="str">
-        <f>Sprint4!B4</f>
-        <v>List living married</v>
-      </c>
-      <c r="D27" s="29" t="str">
-        <f>Sprint4!C4</f>
-        <v>yh</v>
-      </c>
-      <c r="E27" s="29" t="str">
-        <f>Sprint4!D4</f>
-        <v>to do</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="29">
-        <v>4</v>
-      </c>
-      <c r="B28" s="29" t="str">
-        <f>Sprint4!A5</f>
-        <v>US31</v>
-      </c>
-      <c r="C28" s="29" t="str">
-        <f>Sprint4!B5</f>
-        <v>List living single</v>
-      </c>
-      <c r="D28" s="29" t="str">
-        <f>Sprint4!C5</f>
-        <v>yz</v>
-      </c>
-      <c r="E28" s="29" t="str">
-        <f>Sprint4!D5</f>
-        <v>to do</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="29">
-        <v>4</v>
-      </c>
-      <c r="B29" s="29" t="str">
-        <f>Sprint4!A6</f>
-        <v>US32</v>
-      </c>
-      <c r="C29" s="29" t="str">
-        <f>Sprint4!B6</f>
-        <v>List multiple births</v>
-      </c>
-      <c r="D29" s="29" t="str">
-        <f>Sprint4!C6</f>
-        <v>yz</v>
-      </c>
-      <c r="E29" s="29" t="str">
-        <f>Sprint4!D6</f>
-        <v>to do</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="29">
-        <v>4</v>
-      </c>
-      <c r="B30" s="29" t="str">
-        <f>Sprint4!A7</f>
-        <v>US35</v>
-      </c>
-      <c r="C30" s="29" t="str">
-        <f>Sprint4!B7</f>
-        <v>List recent births</v>
-      </c>
-      <c r="D30" s="29" t="str">
-        <f>Sprint4!C7</f>
-        <v>hw</v>
-      </c>
-      <c r="E30" s="29" t="str">
-        <f>Sprint4!D7</f>
-        <v>to do</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="29">
-        <v>4</v>
-      </c>
-      <c r="B31" s="29" t="str">
-        <f>Sprint4!A8</f>
-        <v>US36</v>
-      </c>
-      <c r="C31" s="29" t="str">
-        <f>Sprint4!B8</f>
-        <v>List recent deaths</v>
-      </c>
-      <c r="D31" s="29" t="str">
-        <f>Sprint4!C8</f>
-        <v>hw</v>
-      </c>
-      <c r="E31" s="29" t="str">
-        <f>Sprint4!D8</f>
-        <v>to do</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="29">
-        <v>4</v>
-      </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="29"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="29"/>
+      <c r="B28" s="64"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="29"/>
+      <c r="B29" s="64"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="29"/>
+      <c r="B30" s="64"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="29"/>
+      <c r="B31" s="64"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="29"/>
+      <c r="B32" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3680,53 +3632,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="5"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="5"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -3747,9 +3699,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B15" s="8">
         <v>41065</v>
@@ -3763,9 +3715,9 @@
       <c r="F15" s="9"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B16" s="8">
         <v>41078</v>
@@ -3788,9 +3740,9 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B17" s="8">
         <v>41092</v>
@@ -3813,9 +3765,9 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B18" s="8">
         <v>41106</v>
@@ -3838,9 +3790,9 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B19" s="8">
         <v>41120</v>
@@ -3879,19 +3831,19 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.81640625" style="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3900,7 +3852,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>23</v>
@@ -3912,9 +3864,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B2" s="60">
         <v>42406</v>
@@ -3930,9 +3882,9 @@
       </c>
       <c r="F2" s="63"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B3" s="1">
         <v>42427</v>
@@ -3957,9 +3909,9 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B4" s="1">
         <v>42450</v>
@@ -3981,28 +3933,28 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C5" s="62"/>
       <c r="E5" s="63"/>
       <c r="F5" s="63"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C6" s="62"/>
       <c r="E6" s="63"/>
       <c r="F6" s="63"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="65"/>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" s="61"/>
     </row>
   </sheetData>
@@ -4018,66 +3970,66 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.6328125" style="11" customWidth="1"/>
     <col min="12" max="12" width="13" style="51" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" style="56" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" style="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:16" s="16" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="88" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" s="89"/>
-      <c r="G1" s="88" t="s">
-        <v>202</v>
-      </c>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="88" t="s">
-        <v>203</v>
-      </c>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90"/>
-    </row>
-    <row r="2" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
+      <c r="E1" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="93"/>
+      <c r="G1" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="93"/>
+      <c r="O1" s="94"/>
+    </row>
+    <row r="2" spans="1:16" s="16" customFormat="1" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="95"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -4094,36 +4046,36 @@
         <v>17</v>
       </c>
       <c r="J2" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="O2" s="55" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="K2" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="O2" s="55" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="14" thickTop="1">
-      <c r="A3" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>198</v>
-      </c>
       <c r="D3" s="26" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E3" s="17">
         <v>10</v>
@@ -4142,36 +4094,36 @@
         <v>42423</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="L3" s="54" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="O3" s="57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E4" s="17">
         <v>10</v>
@@ -4190,36 +4142,36 @@
         <v>42423</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="L4" s="52" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="O4" s="57" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E5" s="17">
         <v>15</v>
@@ -4238,36 +4190,36 @@
         <v>42425</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="L5" s="52" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="O5" s="57" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E6" s="17">
         <v>15</v>
@@ -4286,36 +4238,36 @@
         <v>42425</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="L6" s="52" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="O6" s="57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E7" s="17">
         <v>15</v>
@@ -4334,36 +4286,36 @@
         <v>42417</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="L7" s="52" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="O7" s="57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E8" s="17">
         <v>10</v>
@@ -4382,36 +4334,36 @@
         <v>42417</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="L8" s="52" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="O8" s="57" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E9" s="17">
         <v>6</v>
@@ -4430,36 +4382,36 @@
         <v>42425</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="L9" s="52" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="O9" s="57" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E10" s="17">
         <v>6</v>
@@ -4478,43 +4430,43 @@
         <v>42425</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="L10" s="52" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="O10" s="57" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G11" s="83"/>
     </row>
-    <row r="13" spans="1:16" ht="14">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="43" customFormat="1">
+    <row r="15" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="41">
         <v>1</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="41"/>
@@ -4529,12 +4481,12 @@
       <c r="O15" s="58"/>
       <c r="P15" s="47"/>
     </row>
-    <row r="16" spans="1:16" s="43" customFormat="1">
+    <row r="16" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="41">
         <v>2</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
@@ -4549,25 +4501,25 @@
       <c r="O16" s="58"/>
       <c r="P16" s="47"/>
     </row>
-    <row r="17" spans="1:16" ht="14">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="41">
         <v>3</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="14">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="43" customFormat="1" ht="14">
+    <row r="19" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="41">
         <v>1</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>
@@ -4582,12 +4534,12 @@
       <c r="O19" s="58"/>
       <c r="P19" s="47"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="41">
         <v>2</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4612,66 +4564,66 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D19"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="68" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="68" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" style="68" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" style="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20" customHeight="1">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="88" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" s="89"/>
-      <c r="G1" s="88" t="s">
-        <v>202</v>
-      </c>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="88" t="s">
-        <v>203</v>
-      </c>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90"/>
-    </row>
-    <row r="2" spans="1:16" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
+      <c r="E1" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="93"/>
+      <c r="G1" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="93"/>
+      <c r="O1" s="94"/>
+    </row>
+    <row r="2" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="95"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -4688,36 +4640,36 @@
         <v>17</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="L2" s="50" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="O2" s="55" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="14" thickTop="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -4732,39 +4684,39 @@
         <v>50</v>
       </c>
       <c r="I3" s="69" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="J3" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="K3" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="L3" s="69" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="M3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="N3" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="O3" s="69" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -4779,39 +4731,39 @@
         <v>30</v>
       </c>
       <c r="I4" s="69" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="K4" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="L4" s="69" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="N4" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="O4" s="69" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E5">
         <v>60</v>
@@ -4826,39 +4778,39 @@
         <v>120</v>
       </c>
       <c r="I5" s="69" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="L5" s="69" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="O5" s="69" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="D6" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E6">
         <v>60</v>
@@ -4873,39 +4825,39 @@
         <v>50</v>
       </c>
       <c r="I6" s="69" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="K6" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="L6" s="69" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="N6" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="O6" s="69" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -4920,39 +4872,39 @@
         <v>40</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="K7" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="L7" s="69" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="O7" s="69" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -4967,39 +4919,39 @@
         <v>80</v>
       </c>
       <c r="I8" s="68" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="K8" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="L8" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="N8" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="M8" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>296</v>
-      </c>
       <c r="O8" s="69" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -5014,39 +4966,39 @@
         <v>8</v>
       </c>
       <c r="I9" s="69" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="L9" s="69" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="O9" s="69" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E10">
         <v>15</v>
@@ -5061,32 +5013,32 @@
         <v>20</v>
       </c>
       <c r="I10" s="69" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="L10" s="69" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="N10" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="O10" s="69" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="13" spans="1:16" ht="14">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="64"/>
       <c r="B13" s="77" t="s">
         <v>30</v>
@@ -5105,7 +5057,7 @@
       <c r="N13" s="71"/>
       <c r="O13" s="72"/>
     </row>
-    <row r="14" spans="1:16" ht="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="64"/>
       <c r="B14" s="77" t="s">
         <v>31</v>
@@ -5124,12 +5076,12 @@
       <c r="N14" s="71"/>
       <c r="O14" s="72"/>
     </row>
-    <row r="15" spans="1:16" s="43" customFormat="1">
+    <row r="15" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39">
         <v>1</v>
       </c>
       <c r="B15" s="78" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
@@ -5146,12 +5098,12 @@
       <c r="O15" s="75"/>
       <c r="P15" s="47"/>
     </row>
-    <row r="16" spans="1:16" s="43" customFormat="1">
+    <row r="16" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39">
         <v>2</v>
       </c>
       <c r="B16" s="78" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
@@ -5168,7 +5120,7 @@
       <c r="O16" s="75"/>
       <c r="P16" s="47"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="39"/>
       <c r="B17" s="79"/>
       <c r="C17" s="64"/>
@@ -5185,7 +5137,7 @@
       <c r="N17" s="71"/>
       <c r="O17" s="72"/>
     </row>
-    <row r="18" spans="1:16" ht="14">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="64"/>
       <c r="B18" s="77" t="s">
         <v>32</v>
@@ -5204,12 +5156,12 @@
       <c r="N18" s="71"/>
       <c r="O18" s="72"/>
     </row>
-    <row r="19" spans="1:16" s="43" customFormat="1" ht="17" customHeight="1">
+    <row r="19" spans="1:16" s="43" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39">
         <v>1</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
@@ -5226,7 +5178,7 @@
       <c r="O19" s="75"/>
       <c r="P19" s="47"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="39"/>
       <c r="B20" s="81"/>
       <c r="C20" s="64"/>
@@ -5243,7 +5195,7 @@
       <c r="N20" s="71"/>
       <c r="O20" s="72"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="64"/>
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
@@ -5260,7 +5212,7 @@
       <c r="N21" s="64"/>
       <c r="O21" s="76"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="64"/>
       <c r="B22" s="64"/>
       <c r="C22" s="64"/>
@@ -5277,7 +5229,7 @@
       <c r="N22" s="64"/>
       <c r="O22" s="76"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="64"/>
@@ -5294,7 +5246,7 @@
       <c r="N23" s="64"/>
       <c r="O23" s="76"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="64"/>
       <c r="B24" s="64"/>
       <c r="C24" s="64"/>
@@ -5311,7 +5263,7 @@
       <c r="N24" s="64"/>
       <c r="O24" s="76"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="64"/>
       <c r="B25" s="64"/>
       <c r="C25" s="64"/>
@@ -5328,7 +5280,7 @@
       <c r="N25" s="64"/>
       <c r="O25" s="76"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="64"/>
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
@@ -5345,7 +5297,7 @@
       <c r="N26" s="64"/>
       <c r="O26" s="76"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="64"/>
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
@@ -5362,7 +5314,7 @@
       <c r="N27" s="64"/>
       <c r="O27" s="76"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="64"/>
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
@@ -5398,105 +5350,105 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="F1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="68" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20" customHeight="1">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="88" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" s="89"/>
-      <c r="G1" s="88" t="s">
-        <v>202</v>
-      </c>
-      <c r="H1" s="89"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="88" t="s">
-        <v>203</v>
-      </c>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90"/>
-    </row>
-    <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
+      <c r="E1" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="93"/>
+      <c r="G1" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="93"/>
+      <c r="O1" s="94"/>
+    </row>
+    <row r="2" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="95"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="22" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="84" t="s">
-        <v>173</v>
+      <c r="J2" s="22" t="s">
+        <v>148</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="L2" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="M2" s="84" t="s">
-        <v>174</v>
+        <v>151</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>149</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="14" thickTop="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="D3" s="82" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -5504,46 +5456,46 @@
       <c r="F3" s="13">
         <v>50</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3">
         <v>13</v>
       </c>
-      <c r="H3" s="102">
+      <c r="H3" s="84">
         <v>180</v>
       </c>
-      <c r="I3" s="103">
+      <c r="I3" s="85">
         <v>42463</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="K3" s="64" t="s">
-        <v>316</v>
-      </c>
-      <c r="L3" s="104" t="s">
-        <v>319</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="N3" s="64" t="s">
-        <v>322</v>
-      </c>
-      <c r="O3" s="105" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="J3" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="K3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L3" s="86" t="s">
+        <v>293</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="N3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O3" s="86" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="D4" s="82" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -5551,46 +5503,46 @@
       <c r="F4" s="13">
         <v>60</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4">
         <v>20</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4">
         <v>40</v>
       </c>
-      <c r="I4" s="103">
+      <c r="I4" s="85">
         <v>42463</v>
       </c>
-      <c r="J4" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="K4" s="64" t="s">
-        <v>317</v>
-      </c>
-      <c r="L4" s="104" t="s">
-        <v>318</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="N4" s="64" t="s">
-        <v>323</v>
-      </c>
-      <c r="O4" s="105" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="J4" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="K4" t="s">
+        <v>291</v>
+      </c>
+      <c r="L4" s="86" t="s">
+        <v>292</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="N4" t="s">
+        <v>297</v>
+      </c>
+      <c r="O4" s="86" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="82" t="s">
-        <v>205</v>
+        <v>158</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>353</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -5598,28 +5550,46 @@
       <c r="F5">
         <v>50</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="29"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="G5">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5" s="85">
+        <v>42465</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="L5" s="86" t="s">
+        <v>357</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="O5" s="86" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>205</v>
+        <v>158</v>
+      </c>
+      <c r="D6" s="99" t="s">
+        <v>353</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -5627,28 +5597,46 @@
       <c r="F6">
         <v>60</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="29"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6" s="85">
+        <v>42465</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="L6" s="86" t="s">
+        <v>356</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="O6" s="86" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="E7">
         <v>15</v>
@@ -5656,46 +5644,46 @@
       <c r="F7">
         <v>30</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7">
         <v>12</v>
       </c>
-      <c r="H7" s="64">
+      <c r="H7">
         <v>30</v>
       </c>
-      <c r="I7" s="103">
+      <c r="I7" s="85">
         <v>42464</v>
       </c>
-      <c r="J7" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="K7" s="64" t="s">
-        <v>338</v>
-      </c>
-      <c r="L7" s="104" t="s">
-        <v>339</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="N7" s="64" t="s">
-        <v>344</v>
-      </c>
-      <c r="O7" s="105" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="J7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L7" s="86" t="s">
+        <v>313</v>
+      </c>
+      <c r="M7" t="s">
+        <v>315</v>
+      </c>
+      <c r="N7" t="s">
+        <v>318</v>
+      </c>
+      <c r="O7" s="86" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -5703,46 +5691,46 @@
       <c r="F8">
         <v>30</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8">
         <v>24</v>
       </c>
-      <c r="H8" s="64">
+      <c r="H8">
         <v>90</v>
       </c>
-      <c r="I8" s="103">
+      <c r="I8" s="85">
         <v>42464</v>
       </c>
-      <c r="J8" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="K8" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="L8" s="104" t="s">
-        <v>340</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="N8" s="95" t="s">
-        <v>343</v>
-      </c>
-      <c r="O8" s="105" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="J8" t="s">
+        <v>310</v>
+      </c>
+      <c r="K8" t="s">
+        <v>311</v>
+      </c>
+      <c r="L8" s="86" t="s">
+        <v>314</v>
+      </c>
+      <c r="M8" t="s">
+        <v>316</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="O8" s="86" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="E9">
         <v>30</v>
@@ -5750,46 +5738,46 @@
       <c r="F9">
         <v>50</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9">
         <v>24</v>
       </c>
-      <c r="H9" s="64">
+      <c r="H9">
         <v>120</v>
       </c>
-      <c r="I9" s="103">
+      <c r="I9" s="85">
         <v>42463</v>
       </c>
-      <c r="J9" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="K9" s="64" t="s">
-        <v>327</v>
-      </c>
-      <c r="L9" s="104" t="s">
-        <v>255</v>
-      </c>
-      <c r="M9" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="N9" s="95" t="s">
-        <v>332</v>
-      </c>
-      <c r="O9" s="106" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="J9" t="s">
+        <v>300</v>
+      </c>
+      <c r="K9" t="s">
+        <v>301</v>
+      </c>
+      <c r="L9" s="86" t="s">
+        <v>229</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="O9" s="87" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="E10">
         <v>30</v>
@@ -5797,99 +5785,36 @@
       <c r="F10">
         <v>50</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10">
         <v>25</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10">
         <v>50</v>
       </c>
-      <c r="I10" s="103">
+      <c r="I10" s="85">
         <v>42463</v>
       </c>
-      <c r="J10" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="K10" s="64" t="s">
-        <v>329</v>
-      </c>
-      <c r="L10" s="104" t="s">
-        <v>253</v>
-      </c>
-      <c r="M10" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="N10" s="95" t="s">
-        <v>333</v>
-      </c>
-      <c r="O10" s="107" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="14">
-      <c r="A13" s="64"/>
-      <c r="B13" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-    </row>
-    <row r="14" spans="1:15" ht="14">
-      <c r="A14" s="64"/>
-      <c r="B14" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="39">
-        <v>1</v>
-      </c>
-      <c r="B15" s="78" t="s">
-        <v>346</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="39">
-        <v>2</v>
-      </c>
-      <c r="B16" s="78" t="s">
-        <v>349</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-    </row>
-    <row r="17" spans="1:4" ht="41" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="94" t="s">
-        <v>348</v>
-      </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-    </row>
-    <row r="18" spans="1:4" ht="14">
-      <c r="A18" s="64"/>
-      <c r="B18" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-    </row>
-    <row r="19" spans="1:4" ht="14">
-      <c r="A19" s="39">
-        <v>1</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>350</v>
-      </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
+      <c r="J10" t="s">
+        <v>302</v>
+      </c>
+      <c r="K10" t="s">
+        <v>303</v>
+      </c>
+      <c r="L10" s="86" t="s">
+        <v>227</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="O10" s="88" t="s">
+        <v>244</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B17:D17"/>
+  <mergeCells count="8">
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="A1:A2"/>
@@ -5910,298 +5835,94 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20" customHeight="1">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="88" t="s">
-        <v>202</v>
-      </c>
-      <c r="H1" s="89"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="88" t="s">
-        <v>203</v>
-      </c>
-      <c r="K1" s="89"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90"/>
-    </row>
-    <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="23" t="s">
+      <c r="E1" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="93"/>
+      <c r="G1" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="93"/>
+      <c r="O1" s="94"/>
+    </row>
+    <row r="2" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="95"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="22" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="84" t="s">
-        <v>173</v>
+      <c r="J2" s="22" t="s">
+        <v>148</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="M2" s="84" t="s">
-        <v>174</v>
+        <v>150</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>149</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="14" thickTop="1">
-      <c r="A3" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="101" t="s">
-        <v>347</v>
-      </c>
-      <c r="E3" s="64">
-        <v>30</v>
-      </c>
-      <c r="F3" s="29">
-        <v>60</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="29"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" s="101" t="s">
-        <v>347</v>
-      </c>
-      <c r="E4" s="64">
-        <v>30</v>
-      </c>
-      <c r="F4" s="29">
-        <v>60</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="29"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="101" t="s">
-        <v>347</v>
-      </c>
-      <c r="E5" s="64">
-        <v>40</v>
-      </c>
-      <c r="F5" s="29">
-        <v>120</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="29"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" s="101" t="s">
-        <v>347</v>
-      </c>
-      <c r="E6" s="64">
-        <v>35</v>
-      </c>
-      <c r="F6" s="29">
-        <v>50</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="29"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="101" t="s">
-        <v>347</v>
-      </c>
-      <c r="E7" s="64">
-        <v>20</v>
-      </c>
-      <c r="F7" s="29">
-        <v>30</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="29"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="101" t="s">
-        <v>347</v>
-      </c>
-      <c r="E8" s="64">
-        <v>20</v>
-      </c>
-      <c r="F8" s="29">
-        <v>30</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="29"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="29"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="29"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="29"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="29"/>
-    </row>
-    <row r="19" spans="9:9">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="13.2" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -6217,611 +5938,576 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D36" activeCellId="1" sqref="A36:B37 D36:D37"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="29"/>
+    <col min="1" max="1" width="10.81640625" style="29"/>
     <col min="2" max="2" width="35" style="29" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="31" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="29"/>
-    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
+    <row r="1" spans="1:4" s="16" customFormat="1" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="35" thickTop="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30.6" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="34">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="51">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="34">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="34">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="51">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="34">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="51">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="68">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="34">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="34">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>81</v>
+        <v>102</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>349</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="98" t="s">
+        <v>350</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="98" t="s">
+        <v>330</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="34">
-      <c r="A21" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="29" t="s">
+      <c r="C38" s="30" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C41" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="34">
-      <c r="A22" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="34">
-      <c r="A23" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="34">
-      <c r="A24" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="51">
-      <c r="A25" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="34">
-      <c r="A26" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="136">
-      <c r="A27" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="34">
-      <c r="A28" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="34">
-      <c r="A29" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17">
-      <c r="A30" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17">
-      <c r="A31" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="30" t="s">
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A42" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="C42" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="34">
-      <c r="A32" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="30" t="s">
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="C43" s="30" t="s">
         <v>52</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="17">
-      <c r="A33" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-    </row>
-    <row r="34" spans="1:8" ht="34">
-      <c r="A34" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="64"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-    </row>
-    <row r="35" spans="1:8" ht="51">
-      <c r="A35" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-    </row>
-    <row r="36" spans="1:8" ht="34">
-      <c r="A36" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-    </row>
-    <row r="37" spans="1:8" ht="34">
-      <c r="A37" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-    </row>
-    <row r="38" spans="1:8" ht="34">
-      <c r="A38" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="34">
-      <c r="A39" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="34">
-      <c r="A40" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="34">
-      <c r="A41" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="34">
-      <c r="A42" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="34">
-      <c r="A43" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/TeamHogwartsReport.xlsx
+++ b/docs/TeamHogwartsReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70753\Downloads\ssw555tmHogwarts2020Spring-develop\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huying/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE98B7ED-E206-449B-BEFB-20AD7F7FB739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C75AA8-F702-3142-AC2E-0C3D24D72A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="368">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1257,6 +1257,21 @@
   <si>
     <t>5-21</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keep continuous communication</t>
+  </si>
+  <si>
+    <t>Have meetings according to special issues.</t>
+  </si>
+  <si>
+    <t>We had a meeting regarding to use Mock in the GEDCOM project. Our discussion led the result that Mock doesn't work for this project.</t>
+  </si>
+  <si>
+    <t>*Public gathering</t>
+  </si>
+  <si>
+    <t>to do</t>
   </si>
 </sst>
 </file>
@@ -1264,10 +1279,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="m/d"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1325,6 +1340,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1524,18 +1545,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1567,7 +1588,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1609,7 +1630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1651,24 +1672,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1702,6 +1723,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1729,76 +1755,81 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="66">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1816,7 +1847,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1848,10 +1879,10 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Burndown README'!$B$15:$B$20</c:f>
+              <c:f>'Burndown README'!$B$15:$B$19</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
                 </c:pt>
@@ -1872,10 +1903,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown README'!$C$15:$C$20</c:f>
+              <c:f>'Burndown README'!$C$15:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>24</c:v>
                 </c:pt>
@@ -1921,7 +1952,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1963,7 +1994,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2015,6 +2046,12 @@
                 <c:pt idx="2">
                   <c:v>42450</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42465</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42481</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2032,6 +2069,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2072,6 +2112,8 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="7"/>
+        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="1158126064"/>
@@ -2925,15 +2967,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
@@ -2950,7 +2992,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="14" thickTop="1">
       <c r="A2" s="13" t="s">
         <v>154</v>
       </c>
@@ -2967,7 +3009,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="13" t="s">
         <v>157</v>
       </c>
@@ -2984,7 +3026,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="13" t="s">
         <v>158</v>
       </c>
@@ -3001,7 +3043,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>163</v>
       </c>
@@ -3018,7 +3060,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="D8" s="37" t="s">
         <v>34</v>
       </c>
@@ -3026,7 +3068,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="D9" s="37" t="s">
         <v>182</v>
       </c>
@@ -3034,25 +3076,25 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="28" customHeight="1">
       <c r="D10" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-    </row>
-    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+    </row>
+    <row r="11" spans="1:7" ht="66" customHeight="1">
       <c r="D11" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="94" t="s">
         <v>187</v>
       </c>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
@@ -3076,22 +3118,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
     <col min="2" max="2" width="14" style="17" customWidth="1"/>
     <col min="3" max="3" width="36" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>29</v>
       </c>
@@ -3114,7 +3156,7 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="14" thickTop="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3135,7 +3177,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3156,7 +3198,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3177,7 +3219,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3198,7 +3240,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3219,7 +3261,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3240,7 +3282,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3261,7 +3303,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3282,7 +3324,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3300,7 +3342,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3317,7 +3359,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3334,7 +3376,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3351,7 +3393,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3368,7 +3410,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3385,7 +3427,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3402,7 +3444,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3419,7 +3461,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="29">
         <v>3</v>
       </c>
@@ -3440,7 +3482,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="29">
         <v>3</v>
       </c>
@@ -3461,7 +3503,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="29">
         <v>3</v>
       </c>
@@ -3482,7 +3524,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="29">
         <v>3</v>
       </c>
@@ -3503,7 +3545,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="29">
         <v>3</v>
       </c>
@@ -3524,7 +3566,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="29">
         <v>3</v>
       </c>
@@ -3545,7 +3587,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="29">
         <v>3</v>
       </c>
@@ -3566,7 +3608,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="29">
         <v>3</v>
       </c>
@@ -3587,39 +3629,191 @@
         <v>done</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
-      <c r="B28" s="64"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
-      <c r="B29" s="64"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
-      <c r="B30" s="64"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
-      <c r="B31" s="64"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
-      <c r="B32" s="64"/>
+    <row r="26" spans="1:5">
+      <c r="A26" s="29">
+        <v>4</v>
+      </c>
+      <c r="B26" s="29" t="str">
+        <f>Sprint4!A3</f>
+        <v>US29</v>
+      </c>
+      <c r="C26" s="29" t="str">
+        <f>Sprint4!B3</f>
+        <v>List deceased</v>
+      </c>
+      <c r="D26" s="29" t="str">
+        <f>Sprint4!C3</f>
+        <v>yh</v>
+      </c>
+      <c r="E26" s="29" t="str">
+        <f>Sprint4!D3</f>
+        <v>to do</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="29">
+        <v>4</v>
+      </c>
+      <c r="B27" s="29" t="str">
+        <f>Sprint4!A4</f>
+        <v>US30</v>
+      </c>
+      <c r="C27" s="29" t="str">
+        <f>Sprint4!B4</f>
+        <v>List living married</v>
+      </c>
+      <c r="D27" s="29" t="str">
+        <f>Sprint4!C4</f>
+        <v>yh</v>
+      </c>
+      <c r="E27" s="29" t="str">
+        <f>Sprint4!D4</f>
+        <v>to do</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="29">
+        <v>4</v>
+      </c>
+      <c r="B28" s="29" t="str">
+        <f>Sprint4!A5</f>
+        <v>US31</v>
+      </c>
+      <c r="C28" s="29" t="str">
+        <f>Sprint4!B5</f>
+        <v>List living single</v>
+      </c>
+      <c r="D28" s="29" t="str">
+        <f>Sprint4!C5</f>
+        <v>yz</v>
+      </c>
+      <c r="E28" s="29" t="str">
+        <f>Sprint4!D5</f>
+        <v>to do</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="29">
+        <v>4</v>
+      </c>
+      <c r="B29" s="29" t="str">
+        <f>Sprint4!A6</f>
+        <v>US32</v>
+      </c>
+      <c r="C29" s="29" t="str">
+        <f>Sprint4!B6</f>
+        <v>List multiple births</v>
+      </c>
+      <c r="D29" s="29" t="str">
+        <f>Sprint4!C6</f>
+        <v>yz</v>
+      </c>
+      <c r="E29" s="29" t="str">
+        <f>Sprint4!D6</f>
+        <v>to do</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="29">
+        <v>4</v>
+      </c>
+      <c r="B30" s="29" t="str">
+        <f>Sprint4!A7</f>
+        <v>US35</v>
+      </c>
+      <c r="C30" s="29" t="str">
+        <f>Sprint4!B7</f>
+        <v>List recent births</v>
+      </c>
+      <c r="D30" s="29" t="str">
+        <f>Sprint4!C7</f>
+        <v>hw</v>
+      </c>
+      <c r="E30" s="29" t="str">
+        <f>Sprint4!D7</f>
+        <v>to do</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="29">
+        <v>4</v>
+      </c>
+      <c r="B31" s="29" t="str">
+        <f>Sprint4!A8</f>
+        <v>US36</v>
+      </c>
+      <c r="C31" s="29" t="str">
+        <f>Sprint4!B8</f>
+        <v>List recent deaths</v>
+      </c>
+      <c r="D31" s="29" t="str">
+        <f>Sprint4!C8</f>
+        <v>hw</v>
+      </c>
+      <c r="E31" s="29" t="str">
+        <f>Sprint4!D8</f>
+        <v>to do</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="29">
+        <v>4</v>
+      </c>
+      <c r="B32" s="29" t="str">
+        <f>Sprint4!A9</f>
+        <v>US33</v>
+      </c>
+      <c r="C32" s="29" t="str">
+        <f>Sprint4!B9</f>
+        <v>List orphans</v>
+      </c>
+      <c r="D32" s="29" t="str">
+        <f>Sprint4!C9</f>
+        <v>fl</v>
+      </c>
+      <c r="E32" s="29" t="str">
+        <f>Sprint4!D9</f>
+        <v>to do</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="29">
+        <v>4</v>
+      </c>
+      <c r="B33" s="29" t="str">
+        <f>Sprint4!A10</f>
+        <v>US34</v>
+      </c>
+      <c r="C33" s="29" t="str">
+        <f>Sprint4!B10</f>
+        <v>List large age differences</v>
+      </c>
+      <c r="D33" s="29" t="str">
+        <f>Sprint4!C10</f>
+        <v>fl</v>
+      </c>
+      <c r="E33" s="29" t="str">
+        <f>Sprint4!D10</f>
+        <v>to do</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="B34" s="36"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="B35" s="36"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" s="36"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3632,51 +3826,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="5"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
         <v>132</v>
       </c>
@@ -3699,7 +3893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -3715,7 +3909,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>134</v>
       </c>
@@ -3740,7 +3934,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
         <v>135</v>
       </c>
@@ -3765,7 +3959,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
         <v>136</v>
       </c>
@@ -3790,7 +3984,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
         <v>137</v>
       </c>
@@ -3828,20 +4022,20 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="10.81640625" style="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>132</v>
       </c>
@@ -3864,7 +4058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="13" t="s">
         <v>133</v>
       </c>
@@ -3882,7 +4076,7 @@
       </c>
       <c r="F2" s="63"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="13" t="s">
         <v>134</v>
       </c>
@@ -3909,7 +4103,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="13" t="s">
         <v>135</v>
       </c>
@@ -3933,28 +4127,48 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <v>42465</v>
+      </c>
+      <c r="C5" s="62">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="63">
+        <f>E4+196</f>
+        <v>910</v>
+      </c>
+      <c r="F5" s="63">
+        <v>590</v>
+      </c>
+      <c r="G5" s="7">
+        <f>ROUND((E5-E4)/F5*60,1)</f>
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="13" t="s">
         <v>137</v>
+      </c>
+      <c r="B6" s="103">
+        <v>42481</v>
       </c>
       <c r="C6" s="62"/>
       <c r="E6" s="63"/>
       <c r="F6" s="63"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="65"/>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="C8" s="61"/>
     </row>
   </sheetData>
@@ -3973,63 +4187,63 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.6328125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" style="11" customWidth="1"/>
     <col min="12" max="12" width="13" style="51" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.6328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" style="56" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" style="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="16" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1">
+      <c r="A1" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="92" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="92" t="s">
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="95" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="92" t="s">
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="93"/>
-      <c r="O1" s="94"/>
-    </row>
-    <row r="2" spans="1:16" s="16" customFormat="1" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="97"/>
+    </row>
+    <row r="2" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
+      <c r="A2" s="98"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -4064,7 +4278,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="14" thickTop="1">
       <c r="A3" s="33" t="s">
         <v>86</v>
       </c>
@@ -4112,7 +4326,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="33" t="s">
         <v>87</v>
       </c>
@@ -4160,7 +4374,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="29" t="s">
         <v>88</v>
       </c>
@@ -4208,7 +4422,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="29" t="s">
         <v>89</v>
       </c>
@@ -4256,7 +4470,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="29" t="s">
         <v>85</v>
       </c>
@@ -4304,7 +4518,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="29" t="s">
         <v>91</v>
       </c>
@@ -4352,7 +4566,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="29" t="s">
         <v>92</v>
       </c>
@@ -4400,7 +4614,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" s="29" t="s">
         <v>93</v>
       </c>
@@ -4448,20 +4662,20 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="G11" s="83"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="14">
       <c r="B13" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="14">
       <c r="B14" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="43" customFormat="1">
       <c r="A15" s="41">
         <v>1</v>
       </c>
@@ -4481,7 +4695,7 @@
       <c r="O15" s="58"/>
       <c r="P15" s="47"/>
     </row>
-    <row r="16" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="43" customFormat="1">
       <c r="A16" s="41">
         <v>2</v>
       </c>
@@ -4501,7 +4715,7 @@
       <c r="O16" s="58"/>
       <c r="P16" s="47"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="14">
       <c r="A17" s="41">
         <v>3</v>
       </c>
@@ -4509,12 +4723,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="14">
       <c r="B18" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" s="43" customFormat="1" ht="14">
       <c r="A19" s="41">
         <v>1</v>
       </c>
@@ -4534,7 +4748,7 @@
       <c r="O19" s="58"/>
       <c r="P19" s="47"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20" s="41">
         <v>2</v>
       </c>
@@ -4564,66 +4778,66 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="A13" sqref="A13:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="68" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="68" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" style="68" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" style="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:16" ht="20" customHeight="1">
+      <c r="A1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="92" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="92" t="s">
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="95" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="92" t="s">
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="93"/>
-      <c r="O1" s="94"/>
-    </row>
-    <row r="2" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="97"/>
+    </row>
+    <row r="2" spans="1:16" ht="20" customHeight="1" thickBot="1">
+      <c r="A2" s="98"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -4658,7 +4872,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="14" thickTop="1">
       <c r="A3" s="13" t="s">
         <v>90</v>
       </c>
@@ -4705,7 +4919,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="13" t="s">
         <v>94</v>
       </c>
@@ -4752,7 +4966,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="13" t="s">
         <v>96</v>
       </c>
@@ -4799,7 +5013,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="13" t="s">
         <v>95</v>
       </c>
@@ -4846,7 +5060,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="13" t="s">
         <v>101</v>
       </c>
@@ -4893,7 +5107,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="13" t="s">
         <v>102</v>
       </c>
@@ -4940,7 +5154,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="13" t="s">
         <v>99</v>
       </c>
@@ -4987,7 +5201,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" s="13" t="s">
         <v>100</v>
       </c>
@@ -5034,11 +5248,11 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="14">
       <c r="A13" s="64"/>
       <c r="B13" s="77" t="s">
         <v>30</v>
@@ -5057,7 +5271,7 @@
       <c r="N13" s="71"/>
       <c r="O13" s="72"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="14">
       <c r="A14" s="64"/>
       <c r="B14" s="77" t="s">
         <v>31</v>
@@ -5076,7 +5290,7 @@
       <c r="N14" s="71"/>
       <c r="O14" s="72"/>
     </row>
-    <row r="15" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="43" customFormat="1">
       <c r="A15" s="39">
         <v>1</v>
       </c>
@@ -5098,7 +5312,7 @@
       <c r="O15" s="75"/>
       <c r="P15" s="47"/>
     </row>
-    <row r="16" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="43" customFormat="1">
       <c r="A16" s="39">
         <v>2</v>
       </c>
@@ -5120,7 +5334,7 @@
       <c r="O16" s="75"/>
       <c r="P16" s="47"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" s="39"/>
       <c r="B17" s="79"/>
       <c r="C17" s="64"/>
@@ -5137,7 +5351,7 @@
       <c r="N17" s="71"/>
       <c r="O17" s="72"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="14">
       <c r="A18" s="64"/>
       <c r="B18" s="77" t="s">
         <v>32</v>
@@ -5156,7 +5370,7 @@
       <c r="N18" s="71"/>
       <c r="O18" s="72"/>
     </row>
-    <row r="19" spans="1:16" s="43" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" s="43" customFormat="1" ht="17" customHeight="1">
       <c r="A19" s="39">
         <v>1</v>
       </c>
@@ -5178,7 +5392,7 @@
       <c r="O19" s="75"/>
       <c r="P19" s="47"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20" s="39"/>
       <c r="B20" s="81"/>
       <c r="C20" s="64"/>
@@ -5195,7 +5409,7 @@
       <c r="N20" s="71"/>
       <c r="O20" s="72"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21" s="64"/>
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
@@ -5212,7 +5426,7 @@
       <c r="N21" s="64"/>
       <c r="O21" s="76"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="A22" s="64"/>
       <c r="B22" s="64"/>
       <c r="C22" s="64"/>
@@ -5229,7 +5443,7 @@
       <c r="N22" s="64"/>
       <c r="O22" s="76"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="64"/>
@@ -5246,7 +5460,7 @@
       <c r="N23" s="64"/>
       <c r="O23" s="76"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="A24" s="64"/>
       <c r="B24" s="64"/>
       <c r="C24" s="64"/>
@@ -5263,7 +5477,7 @@
       <c r="N24" s="64"/>
       <c r="O24" s="76"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25" s="64"/>
       <c r="B25" s="64"/>
       <c r="C25" s="64"/>
@@ -5280,7 +5494,7 @@
       <c r="N25" s="64"/>
       <c r="O25" s="76"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26" s="64"/>
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
@@ -5297,7 +5511,7 @@
       <c r="N26" s="64"/>
       <c r="O26" s="76"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27" s="64"/>
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
@@ -5314,7 +5528,7 @@
       <c r="N27" s="64"/>
       <c r="O27" s="76"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28" s="64"/>
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
@@ -5350,59 +5564,59 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="27.6328125" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="68" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:15" ht="20" customHeight="1">
+      <c r="A1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="92" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="92" t="s">
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="95" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="92" t="s">
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="93"/>
-      <c r="O1" s="94"/>
-    </row>
-    <row r="2" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="97"/>
+    </row>
+    <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
+      <c r="A2" s="98"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -5437,7 +5651,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="14" thickTop="1">
       <c r="A3" s="29" t="s">
         <v>97</v>
       </c>
@@ -5484,7 +5698,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="29" t="s">
         <v>98</v>
       </c>
@@ -5531,7 +5745,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="29" t="s">
         <v>103</v>
       </c>
@@ -5541,7 +5755,7 @@
       <c r="C5" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="91" t="s">
         <v>353</v>
       </c>
       <c r="E5">
@@ -5578,7 +5792,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="29" t="s">
         <v>104</v>
       </c>
@@ -5588,7 +5802,7 @@
       <c r="C6" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="91" t="s">
         <v>353</v>
       </c>
       <c r="E6">
@@ -5625,7 +5839,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="29" t="s">
         <v>105</v>
       </c>
@@ -5672,7 +5886,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="29" t="s">
         <v>109</v>
       </c>
@@ -5719,7 +5933,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
@@ -5766,7 +5980,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="29" t="s">
         <v>108</v>
       </c>
@@ -5813,8 +6027,61 @@
         <v>244</v>
       </c>
     </row>
+    <row r="13" spans="1:15" ht="14">
+      <c r="A13" s="64"/>
+      <c r="B13" s="77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14">
+      <c r="A14" s="64"/>
+      <c r="B14" s="77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="39">
+        <v>1</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="39">
+        <v>2</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="26" customHeight="1">
+      <c r="A17" s="39"/>
+      <c r="B17" s="101" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+    </row>
+    <row r="18" spans="1:6" ht="14">
+      <c r="A18" s="64"/>
+      <c r="B18" s="77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14">
+      <c r="A19" s="39">
+        <v>1</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>366</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B17:F17"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="A1:A2"/>
@@ -5835,81 +6102,81 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:15" ht="20" customHeight="1">
+      <c r="A1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="92" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="92" t="s">
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="95" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="92" t="s">
+      <c r="K1" s="96"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="93"/>
-      <c r="O1" s="94"/>
-    </row>
-    <row r="2" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="22" t="s">
+      <c r="N1" s="96"/>
+      <c r="O1" s="97"/>
+    </row>
+    <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
+      <c r="A2" s="98"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="89" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="89" t="s">
         <v>148</v>
       </c>
       <c r="K2" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="89" t="s">
         <v>149</v>
       </c>
       <c r="N2" s="23" t="s">
@@ -5919,8 +6186,239 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="13.2" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="14" thickTop="1">
+      <c r="A3" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="91" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" s="17">
+        <v>30</v>
+      </c>
+      <c r="F3" s="29">
+        <v>60</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="29"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" s="17">
+        <v>30</v>
+      </c>
+      <c r="F4" s="29">
+        <v>60</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="29"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="17">
+        <v>40</v>
+      </c>
+      <c r="F5" s="29">
+        <v>120</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="29"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" s="17">
+        <v>35</v>
+      </c>
+      <c r="F6" s="29">
+        <v>50</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="29"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" s="17">
+        <v>20</v>
+      </c>
+      <c r="F7" s="29">
+        <v>30</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="29"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" s="17">
+        <v>29</v>
+      </c>
+      <c r="F8" s="29">
+        <v>30</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="29"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>367</v>
+      </c>
+      <c r="E9" s="17">
+        <v>30</v>
+      </c>
+      <c r="F9" s="29">
+        <v>30</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="29"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" s="17">
+        <v>30</v>
+      </c>
+      <c r="F10" s="29">
+        <v>30</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="29"/>
+    </row>
+    <row r="19" spans="9:9">
       <c r="I19" t="s">
         <v>261</v>
       </c>
@@ -5945,19 +6443,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="29"/>
+    <col min="1" max="1" width="10.83203125" style="29"/>
     <col min="2" max="2" width="35" style="29" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" style="29"/>
+    <col min="3" max="3" width="49.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="16" customFormat="1" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>84</v>
       </c>
@@ -5971,7 +6469,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30.6" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="35" thickTop="1">
       <c r="A2" s="29" t="s">
         <v>85</v>
       </c>
@@ -5985,7 +6483,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="17">
       <c r="A3" s="28" t="s">
         <v>86</v>
       </c>
@@ -5999,7 +6497,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="17">
       <c r="A4" s="29" t="s">
         <v>87</v>
       </c>
@@ -6013,7 +6511,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="34">
       <c r="A5" s="29" t="s">
         <v>88</v>
       </c>
@@ -6027,7 +6525,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" s="29" t="s">
         <v>89</v>
       </c>
@@ -6041,7 +6539,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="17">
       <c r="A7" s="29" t="s">
         <v>90</v>
       </c>
@@ -6055,7 +6553,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="51">
       <c r="A8" s="29" t="s">
         <v>91</v>
       </c>
@@ -6069,7 +6567,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="34">
       <c r="A9" s="29" t="s">
         <v>92</v>
       </c>
@@ -6083,7 +6581,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="34">
       <c r="A10" s="29" t="s">
         <v>93</v>
       </c>
@@ -6097,7 +6595,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="51">
       <c r="A11" s="29" t="s">
         <v>94</v>
       </c>
@@ -6111,7 +6609,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="34">
       <c r="A12" s="29" t="s">
         <v>95</v>
       </c>
@@ -6125,7 +6623,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="51">
       <c r="A13" s="29" t="s">
         <v>96</v>
       </c>
@@ -6139,7 +6637,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="68">
       <c r="A14" s="29" t="s">
         <v>97</v>
       </c>
@@ -6153,7 +6651,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="34">
       <c r="A15" s="29" t="s">
         <v>98</v>
       </c>
@@ -6167,7 +6665,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="17">
       <c r="A16" s="29" t="s">
         <v>99</v>
       </c>
@@ -6181,7 +6679,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="34">
       <c r="A17" s="29" t="s">
         <v>100</v>
       </c>
@@ -6195,7 +6693,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17">
       <c r="A18" s="29" t="s">
         <v>101</v>
       </c>
@@ -6209,7 +6707,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17">
       <c r="A19" s="29" t="s">
         <v>102</v>
       </c>
@@ -6223,11 +6721,11 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="17">
       <c r="A20" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="90" t="s">
         <v>350</v>
       </c>
       <c r="C20" s="30" t="s">
@@ -6237,11 +6735,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="34">
       <c r="A21" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="90" t="s">
         <v>330</v>
       </c>
       <c r="C21" s="30" t="s">
@@ -6251,7 +6749,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="34">
       <c r="A22" s="29" t="s">
         <v>105</v>
       </c>
@@ -6265,7 +6763,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="34">
       <c r="A23" s="29" t="s">
         <v>106</v>
       </c>
@@ -6276,7 +6774,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="34">
       <c r="A24" s="29" t="s">
         <v>107</v>
       </c>
@@ -6290,7 +6788,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="51">
       <c r="A25" s="29" t="s">
         <v>108</v>
       </c>
@@ -6304,7 +6802,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="34">
       <c r="A26" s="29" t="s">
         <v>109</v>
       </c>
@@ -6318,7 +6816,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="136">
       <c r="A27" s="29" t="s">
         <v>110</v>
       </c>
@@ -6329,7 +6827,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="34">
       <c r="A28" s="29" t="s">
         <v>111</v>
       </c>
@@ -6340,7 +6838,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="34">
       <c r="A29" s="29" t="s">
         <v>112</v>
       </c>
@@ -6351,7 +6849,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="17">
       <c r="A30" s="29" t="s">
         <v>113</v>
       </c>
@@ -6361,8 +6859,11 @@
       <c r="C30" s="30" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="D30" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17">
       <c r="A31" s="29" t="s">
         <v>114</v>
       </c>
@@ -6372,8 +6873,11 @@
       <c r="C31" s="30" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="D31" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="34">
       <c r="A32" s="29" t="s">
         <v>115</v>
       </c>
@@ -6383,8 +6887,11 @@
       <c r="C32" s="30" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="D32" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17">
       <c r="A33" s="29" t="s">
         <v>116</v>
       </c>
@@ -6394,8 +6901,11 @@
       <c r="C33" s="30" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D33" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="34">
       <c r="A34" s="29" t="s">
         <v>117</v>
       </c>
@@ -6405,8 +6915,11 @@
       <c r="C34" s="30" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D34" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="51">
       <c r="A35" s="29" t="s">
         <v>118</v>
       </c>
@@ -6416,8 +6929,11 @@
       <c r="C35" s="30" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D35" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="34">
       <c r="A36" s="29" t="s">
         <v>119</v>
       </c>
@@ -6427,8 +6943,11 @@
       <c r="C36" s="30" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="D36" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="34">
       <c r="A37" s="29" t="s">
         <v>120</v>
       </c>
@@ -6438,8 +6957,11 @@
       <c r="C37" s="30" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D37" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="34">
       <c r="A38" s="29" t="s">
         <v>121</v>
       </c>
@@ -6450,7 +6972,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="34">
       <c r="A39" s="29" t="s">
         <v>122</v>
       </c>
@@ -6461,7 +6983,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="34">
       <c r="A40" s="29" t="s">
         <v>123</v>
       </c>
@@ -6472,7 +6994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="34">
       <c r="A41" s="29" t="s">
         <v>124</v>
       </c>
@@ -6483,7 +7005,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="34">
       <c r="A42" s="29" t="s">
         <v>125</v>
       </c>
@@ -6494,7 +7016,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="34">
       <c r="A43" s="29" t="s">
         <v>126</v>
       </c>

--- a/docs/TeamHogwartsReport.xlsx
+++ b/docs/TeamHogwartsReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huying/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whd/Documents/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C75AA8-F702-3142-AC2E-0C3D24D72A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D9F0A5-B87C-704B-977E-A3CD480DBC54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="379">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1143,10 +1143,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>List all people in a GEDCOM file who died in the last 30 days</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1272,6 +1268,42 @@
   </si>
   <si>
     <t>to do</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>us35.py</t>
+  </si>
+  <si>
+    <t>us36.py</t>
+  </si>
+  <si>
+    <t>us35_list_recent_births</t>
+  </si>
+  <si>
+    <t>us36_list_recent_deaths</t>
+  </si>
+  <si>
+    <t>6-15</t>
+  </si>
+  <si>
+    <t>us35_test.py</t>
+  </si>
+  <si>
+    <t>us36_test.py</t>
+  </si>
+  <si>
+    <t>list_recent_births</t>
+  </si>
+  <si>
+    <t>list_recent_deaths</t>
+  </si>
+  <si>
+    <t>10-17</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1577,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1728,6 +1760,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1758,10 +1794,13 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3080,21 +3119,21 @@
       <c r="D10" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
     </row>
     <row r="11" spans="1:7" ht="66" customHeight="1">
       <c r="D11" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="96" t="s">
         <v>187</v>
       </c>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
@@ -3120,7 +3159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -3731,7 +3770,7 @@
       </c>
       <c r="E30" s="29" t="str">
         <f>Sprint4!D7</f>
-        <v>to do</v>
+        <v>done</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3752,7 +3791,7 @@
       </c>
       <c r="E31" s="29" t="str">
         <f>Sprint4!D8</f>
-        <v>to do</v>
+        <v>done</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4156,7 +4195,7 @@
       <c r="A6" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="103">
+      <c r="B6" s="93">
         <v>42481</v>
       </c>
       <c r="C6" s="62"/>
@@ -4207,43 +4246,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="95" t="s">
+      <c r="F1" s="98"/>
+      <c r="G1" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="95" t="s">
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="95" t="s">
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="96"/>
-      <c r="O1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="99"/>
     </row>
     <row r="2" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -4801,43 +4840,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="95" t="s">
+      <c r="F1" s="98"/>
+      <c r="G1" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="95" t="s">
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="95" t="s">
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="96"/>
-      <c r="O1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="99"/>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -5566,7 +5605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -5580,43 +5619,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="95" t="s">
+      <c r="F1" s="98"/>
+      <c r="G1" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="95" t="s">
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="95" t="s">
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="96"/>
-      <c r="O1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="99"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -5756,7 +5795,7 @@
         <v>158</v>
       </c>
       <c r="D5" s="91" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -5774,22 +5813,22 @@
         <v>42465</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L5" s="86" t="s">
+        <v>356</v>
+      </c>
+      <c r="M5" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="M5" s="13" t="s">
-        <v>358</v>
-      </c>
       <c r="N5" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O5" s="86" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -5803,7 +5842,7 @@
         <v>158</v>
       </c>
       <c r="D6" s="91" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -5821,22 +5860,22 @@
         <v>42465</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K6" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="L6" s="86" t="s">
         <v>355</v>
       </c>
-      <c r="L6" s="86" t="s">
-        <v>356</v>
-      </c>
       <c r="M6" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N6" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="O6" s="86" t="s">
         <v>361</v>
-      </c>
-      <c r="O6" s="86" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -6044,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="78" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -6052,18 +6091,18 @@
         <v>2</v>
       </c>
       <c r="B16" s="78" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="26" customHeight="1">
       <c r="A17" s="39"/>
-      <c r="B17" s="101" t="s">
-        <v>365</v>
-      </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
+      <c r="B17" s="103" t="s">
+        <v>364</v>
+      </c>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
     </row>
     <row r="18" spans="1:6" ht="14">
       <c r="A18" s="64"/>
@@ -6076,7 +6115,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -6101,57 +6140,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="12" max="12" width="13" style="68" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.1640625" customWidth="1"/>
     <col min="14" max="14" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="95" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="95" t="s">
+      <c r="H1" s="98"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="96"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="95" t="s">
+      <c r="K1" s="98"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="96"/>
-      <c r="O1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="99"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="89" t="s">
         <v>13</v>
       </c>
@@ -6164,7 +6204,7 @@
       <c r="H2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="102" t="s">
+      <c r="I2" s="92" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="89" t="s">
@@ -6173,7 +6213,7 @@
       <c r="K2" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="55" t="s">
         <v>151</v>
       </c>
       <c r="M2" s="89" t="s">
@@ -6191,13 +6231,13 @@
         <v>113</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>163</v>
       </c>
       <c r="D3" s="91" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E3" s="17">
         <v>30</v>
@@ -6210,7 +6250,7 @@
       <c r="I3" s="29"/>
       <c r="J3" s="17"/>
       <c r="K3" s="64"/>
-      <c r="L3" s="29"/>
+      <c r="L3" s="104"/>
       <c r="M3" s="17"/>
       <c r="N3" s="64"/>
       <c r="O3" s="29"/>
@@ -6220,13 +6260,13 @@
         <v>114</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>163</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E4" s="17">
         <v>30</v>
@@ -6239,7 +6279,7 @@
       <c r="I4" s="29"/>
       <c r="J4" s="17"/>
       <c r="K4" s="64"/>
-      <c r="L4" s="29"/>
+      <c r="L4" s="104"/>
       <c r="M4" s="17"/>
       <c r="N4" s="64"/>
       <c r="O4" s="29"/>
@@ -6249,13 +6289,13 @@
         <v>115</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>154</v>
       </c>
       <c r="D5" s="91" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E5" s="17">
         <v>40</v>
@@ -6263,28 +6303,28 @@
       <c r="F5" s="29">
         <v>120</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="29"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="29" t="s">
         <v>116</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>154</v>
       </c>
       <c r="D6" s="91" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E6" s="17">
         <v>35</v>
@@ -6292,28 +6332,28 @@
       <c r="F6" s="29">
         <v>50</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="29"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="29" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>157</v>
       </c>
       <c r="D7" s="91" t="s">
-        <v>367</v>
+        <v>299</v>
       </c>
       <c r="E7" s="17">
         <v>20</v>
@@ -6321,28 +6361,46 @@
       <c r="F7" s="29">
         <v>30</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="29"/>
+      <c r="G7" s="105">
+        <v>9</v>
+      </c>
+      <c r="H7" s="105">
+        <v>40</v>
+      </c>
+      <c r="I7" s="105">
+        <v>42470</v>
+      </c>
+      <c r="J7" s="105" t="s">
+        <v>369</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="L7" s="105" t="s">
+        <v>373</v>
+      </c>
+      <c r="M7" s="106" t="s">
+        <v>374</v>
+      </c>
+      <c r="N7" s="105" t="s">
+        <v>376</v>
+      </c>
+      <c r="O7" s="105" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="29" t="s">
         <v>120</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>157</v>
       </c>
       <c r="D8" s="91" t="s">
-        <v>367</v>
+        <v>299</v>
       </c>
       <c r="E8" s="17">
         <v>29</v>
@@ -6350,15 +6408,33 @@
       <c r="F8" s="29">
         <v>30</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="29"/>
+      <c r="G8" s="105">
+        <v>9</v>
+      </c>
+      <c r="H8" s="105">
+        <v>20</v>
+      </c>
+      <c r="I8" s="105">
+        <v>42470</v>
+      </c>
+      <c r="J8" s="105" t="s">
+        <v>370</v>
+      </c>
+      <c r="K8" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="L8" s="105" t="s">
+        <v>373</v>
+      </c>
+      <c r="M8" s="106" t="s">
+        <v>375</v>
+      </c>
+      <c r="N8" s="105" t="s">
+        <v>377</v>
+      </c>
+      <c r="O8" s="105" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="29" t="s">
@@ -6371,7 +6447,7 @@
         <v>158</v>
       </c>
       <c r="D9" s="91" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E9" s="17">
         <v>30</v>
@@ -6379,28 +6455,28 @@
       <c r="F9" s="29">
         <v>30</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="29"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="29" t="s">
         <v>118</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>158</v>
       </c>
       <c r="D10" s="91" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E10" s="17">
         <v>30</v>
@@ -6413,7 +6489,7 @@
       <c r="I10" s="29"/>
       <c r="J10" s="17"/>
       <c r="K10" s="64"/>
-      <c r="L10" s="29"/>
+      <c r="L10" s="104"/>
       <c r="M10" s="17"/>
       <c r="N10" s="64"/>
       <c r="O10" s="29"/>
@@ -6436,6 +6512,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6443,7 +6520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -6712,7 +6789,7 @@
         <v>102</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>43</v>
@@ -6726,7 +6803,7 @@
         <v>103</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>320</v>
@@ -6854,10 +6931,10 @@
         <v>113</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>163</v>
@@ -6868,10 +6945,10 @@
         <v>114</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D31" s="28" t="s">
         <v>163</v>
@@ -6882,10 +6959,10 @@
         <v>115</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>154</v>
@@ -6896,10 +6973,10 @@
         <v>116</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>154</v>
@@ -6924,7 +7001,7 @@
         <v>118</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>333</v>
@@ -6938,7 +7015,7 @@
         <v>119</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>48</v>
@@ -6952,10 +7029,10 @@
         <v>120</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="D37" s="28" t="s">
         <v>157</v>
@@ -6969,7 +7046,7 @@
         <v>82</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="34">
@@ -6977,7 +7054,7 @@
         <v>122</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C39" s="30" t="s">
         <v>49</v>
@@ -6988,7 +7065,7 @@
         <v>123</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>50</v>

--- a/docs/TeamHogwartsReport.xlsx
+++ b/docs/TeamHogwartsReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whd/Documents/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huying/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D9F0A5-B87C-704B-977E-A3CD480DBC54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E91214E-0A05-C248-ACA2-B21B78ADDD7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="560" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="390">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1304,6 +1304,39 @@
   </si>
   <si>
     <t>10-17</t>
+  </si>
+  <si>
+    <t>us29.py</t>
+  </si>
+  <si>
+    <t>us30.py</t>
+  </si>
+  <si>
+    <t>us29_list_deceased</t>
+  </si>
+  <si>
+    <t>us30_list_living_married</t>
+  </si>
+  <si>
+    <t>1-15</t>
+  </si>
+  <si>
+    <t>1-14</t>
+  </si>
+  <si>
+    <t>us29_test.py</t>
+  </si>
+  <si>
+    <t>us30_test.py</t>
+  </si>
+  <si>
+    <t>test_list_deceased</t>
+  </si>
+  <si>
+    <t>test_list_living_married</t>
+  </si>
+  <si>
+    <t>1-28</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1610,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1764,6 +1797,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1794,12 +1831,25 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -3119,21 +3169,21 @@
       <c r="D10" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E10" s="96" t="s">
         <v>185</v>
       </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
     </row>
     <row r="11" spans="1:7" ht="66" customHeight="1">
       <c r="D11" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="E11" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
@@ -3160,7 +3210,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -3686,7 +3736,7 @@
       </c>
       <c r="E26" s="29" t="str">
         <f>Sprint4!D3</f>
-        <v>to do</v>
+        <v>done</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3707,7 +3757,7 @@
       </c>
       <c r="E27" s="29" t="str">
         <f>Sprint4!D4</f>
-        <v>to do</v>
+        <v>done</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4246,43 +4296,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="97" t="s">
+      <c r="F1" s="100"/>
+      <c r="G1" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="97" t="s">
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="97" t="s">
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="98"/>
-      <c r="O1" s="99"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="101"/>
     </row>
     <row r="2" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
-      <c r="A2" s="100"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -4840,43 +4890,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="97" t="s">
+      <c r="F1" s="100"/>
+      <c r="G1" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="97" t="s">
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="97" t="s">
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="98"/>
-      <c r="O1" s="99"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="101"/>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="100"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -5619,43 +5669,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="97" t="s">
+      <c r="F1" s="100"/>
+      <c r="G1" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="97" t="s">
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="97" t="s">
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="98"/>
-      <c r="O1" s="99"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="101"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="100"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -6096,13 +6146,13 @@
     </row>
     <row r="17" spans="1:6" ht="26" customHeight="1">
       <c r="A17" s="39"/>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
     </row>
     <row r="18" spans="1:6" ht="14">
       <c r="A18" s="64"/>
@@ -6141,7 +6191,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -6150,48 +6200,48 @@
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.1640625" customWidth="1"/>
     <col min="12" max="12" width="13" style="68" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.1640625" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="97" t="s">
+      <c r="F1" s="101"/>
+      <c r="G1" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="97" t="s">
+      <c r="H1" s="100"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="98"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="97" t="s">
+      <c r="K1" s="100"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="98"/>
-      <c r="O1" s="99"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="101"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="100"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
       <c r="E2" s="89" t="s">
         <v>13</v>
       </c>
@@ -6237,7 +6287,7 @@
         <v>163</v>
       </c>
       <c r="D3" s="91" t="s">
-        <v>366</v>
+        <v>299</v>
       </c>
       <c r="E3" s="17">
         <v>30</v>
@@ -6245,15 +6295,33 @@
       <c r="F3" s="29">
         <v>60</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="29"/>
+      <c r="G3" s="17">
+        <v>15</v>
+      </c>
+      <c r="H3" s="39">
+        <v>15</v>
+      </c>
+      <c r="I3" s="106">
+        <v>42470</v>
+      </c>
+      <c r="J3" s="112" t="s">
+        <v>379</v>
+      </c>
+      <c r="K3" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="L3" s="95" t="s">
+        <v>383</v>
+      </c>
+      <c r="M3" s="111" t="s">
+        <v>385</v>
+      </c>
+      <c r="N3" s="113" t="s">
+        <v>387</v>
+      </c>
+      <c r="O3" s="95" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="29" t="s">
@@ -6266,7 +6334,7 @@
         <v>163</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>366</v>
+        <v>299</v>
       </c>
       <c r="E4" s="17">
         <v>30</v>
@@ -6274,15 +6342,33 @@
       <c r="F4" s="29">
         <v>60</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="29"/>
+      <c r="G4" s="17">
+        <v>14</v>
+      </c>
+      <c r="H4" s="39">
+        <v>15</v>
+      </c>
+      <c r="I4" s="106">
+        <v>42470</v>
+      </c>
+      <c r="J4" s="112" t="s">
+        <v>380</v>
+      </c>
+      <c r="K4" s="108" t="s">
+        <v>382</v>
+      </c>
+      <c r="L4" s="95" t="s">
+        <v>384</v>
+      </c>
+      <c r="M4" s="111" t="s">
+        <v>386</v>
+      </c>
+      <c r="N4" s="113" t="s">
+        <v>388</v>
+      </c>
+      <c r="O4" s="95" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="29" t="s">
@@ -6303,15 +6389,15 @@
       <c r="F5" s="29">
         <v>120</v>
       </c>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="95"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="29" t="s">
@@ -6332,15 +6418,15 @@
       <c r="F6" s="29">
         <v>50</v>
       </c>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="95"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="29" t="s">
@@ -6361,31 +6447,31 @@
       <c r="F7" s="29">
         <v>30</v>
       </c>
-      <c r="G7" s="105">
+      <c r="G7" s="109">
         <v>9</v>
       </c>
-      <c r="H7" s="105">
+      <c r="H7" s="109">
         <v>40</v>
       </c>
-      <c r="I7" s="105">
+      <c r="I7" s="107">
         <v>42470</v>
       </c>
-      <c r="J7" s="105" t="s">
+      <c r="J7" s="109" t="s">
         <v>369</v>
       </c>
-      <c r="K7" s="57" t="s">
+      <c r="K7" s="110" t="s">
         <v>371</v>
       </c>
-      <c r="L7" s="105" t="s">
+      <c r="L7" s="95" t="s">
         <v>373</v>
       </c>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="111" t="s">
         <v>374</v>
       </c>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="109" t="s">
         <v>376</v>
       </c>
-      <c r="O7" s="105" t="s">
+      <c r="O7" s="95" t="s">
         <v>378</v>
       </c>
     </row>
@@ -6408,31 +6494,31 @@
       <c r="F8" s="29">
         <v>30</v>
       </c>
-      <c r="G8" s="105">
+      <c r="G8" s="109">
         <v>9</v>
       </c>
-      <c r="H8" s="105">
+      <c r="H8" s="109">
         <v>20</v>
       </c>
-      <c r="I8" s="105">
+      <c r="I8" s="107">
         <v>42470</v>
       </c>
-      <c r="J8" s="105" t="s">
+      <c r="J8" s="109" t="s">
         <v>370</v>
       </c>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="110" t="s">
         <v>372</v>
       </c>
-      <c r="L8" s="105" t="s">
+      <c r="L8" s="95" t="s">
         <v>373</v>
       </c>
-      <c r="M8" s="106" t="s">
+      <c r="M8" s="111" t="s">
         <v>375</v>
       </c>
-      <c r="N8" s="105" t="s">
+      <c r="N8" s="109" t="s">
         <v>377</v>
       </c>
-      <c r="O8" s="105" t="s">
+      <c r="O8" s="95" t="s">
         <v>378</v>
       </c>
     </row>
@@ -6455,15 +6541,15 @@
       <c r="F9" s="29">
         <v>30</v>
       </c>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="95"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="29" t="s">
@@ -6486,10 +6572,10 @@
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="64"/>
-      <c r="I10" s="29"/>
+      <c r="I10" s="106"/>
       <c r="J10" s="17"/>
       <c r="K10" s="64"/>
-      <c r="L10" s="104"/>
+      <c r="L10" s="94"/>
       <c r="M10" s="17"/>
       <c r="N10" s="64"/>
       <c r="O10" s="29"/>

--- a/docs/TeamHogwartsReport.xlsx
+++ b/docs/TeamHogwartsReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huying/GitHub/ssw555tmHogwarts2020Spring/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeyiszy/PycharmProjects/ssw555tmHogwarts2020Spring/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E91214E-0A05-C248-ACA2-B21B78ADDD7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732BFD71-54E7-4941-A853-450C31AA76EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="560" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="540" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="402">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1337,6 +1337,52 @@
   </si>
   <si>
     <t>1-28</t>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us31.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us32.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us31_list_living_single</t>
+  </si>
+  <si>
+    <t>us32_list_mutiple_births</t>
+  </si>
+  <si>
+    <t>6-13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us31_test.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us32_test.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_list_living_single</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_list_mutiple_births</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1344,8 +1390,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1612,16 +1658,16 @@
   </cellStyleXfs>
   <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1653,7 +1699,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1695,7 +1741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1737,24 +1783,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1793,12 +1839,32 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1831,94 +1897,74 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="66">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1936,7 +1982,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2083,7 +2129,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3169,21 +3215,21 @@
       <c r="D10" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="E10" s="96" t="s">
+      <c r="E10" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
     </row>
     <row r="11" spans="1:7" ht="66" customHeight="1">
       <c r="D11" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="98" t="s">
+      <c r="E11" s="106" t="s">
         <v>187</v>
       </c>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
@@ -4296,43 +4342,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="100"/>
-      <c r="G1" s="99" t="s">
+      <c r="F1" s="108"/>
+      <c r="G1" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="99" t="s">
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="99" t="s">
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="101"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="109"/>
     </row>
     <row r="2" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
-      <c r="A2" s="102"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -4890,43 +4936,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="100"/>
-      <c r="G1" s="99" t="s">
+      <c r="F1" s="108"/>
+      <c r="G1" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="99" t="s">
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="99" t="s">
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="101"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="109"/>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="102"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -5655,7 +5701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -5669,43 +5715,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="100"/>
-      <c r="G1" s="99" t="s">
+      <c r="F1" s="108"/>
+      <c r="G1" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="99" t="s">
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="99" t="s">
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="101"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="109"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="102"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -6146,13 +6192,13 @@
     </row>
     <row r="17" spans="1:6" ht="26" customHeight="1">
       <c r="A17" s="39"/>
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="113" t="s">
         <v>364</v>
       </c>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
     </row>
     <row r="18" spans="1:6" ht="14">
       <c r="A18" s="64"/>
@@ -6191,7 +6237,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -6205,43 +6251,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="101"/>
-      <c r="G1" s="99" t="s">
+      <c r="F1" s="109"/>
+      <c r="G1" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="100"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="99" t="s">
+      <c r="H1" s="108"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="100"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="99" t="s">
+      <c r="K1" s="108"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="101"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="109"/>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="102"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
       <c r="E2" s="89" t="s">
         <v>13</v>
       </c>
@@ -6301,22 +6347,22 @@
       <c r="H3" s="39">
         <v>15</v>
       </c>
-      <c r="I3" s="106">
+      <c r="I3" s="96">
         <v>42470</v>
       </c>
-      <c r="J3" s="112" t="s">
+      <c r="J3" s="102" t="s">
         <v>379</v>
       </c>
-      <c r="K3" s="108" t="s">
+      <c r="K3" s="98" t="s">
         <v>381</v>
       </c>
       <c r="L3" s="95" t="s">
         <v>383</v>
       </c>
-      <c r="M3" s="111" t="s">
+      <c r="M3" s="101" t="s">
         <v>385</v>
       </c>
-      <c r="N3" s="113" t="s">
+      <c r="N3" s="103" t="s">
         <v>387</v>
       </c>
       <c r="O3" s="95" t="s">
@@ -6348,22 +6394,22 @@
       <c r="H4" s="39">
         <v>15</v>
       </c>
-      <c r="I4" s="106">
+      <c r="I4" s="96">
         <v>42470</v>
       </c>
-      <c r="J4" s="112" t="s">
+      <c r="J4" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="98" t="s">
         <v>382</v>
       </c>
       <c r="L4" s="95" t="s">
         <v>384</v>
       </c>
-      <c r="M4" s="111" t="s">
+      <c r="M4" s="101" t="s">
         <v>386</v>
       </c>
-      <c r="N4" s="113" t="s">
+      <c r="N4" s="103" t="s">
         <v>388</v>
       </c>
       <c r="O4" s="95" t="s">
@@ -6389,15 +6435,33 @@
       <c r="F5" s="29">
         <v>120</v>
       </c>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="95"/>
+      <c r="G5" s="99" t="s">
+        <v>390</v>
+      </c>
+      <c r="H5" s="99" t="s">
+        <v>392</v>
+      </c>
+      <c r="I5" s="97">
+        <v>42477</v>
+      </c>
+      <c r="J5" s="99" t="s">
+        <v>393</v>
+      </c>
+      <c r="K5" s="100" t="s">
+        <v>395</v>
+      </c>
+      <c r="L5" s="95" t="s">
+        <v>397</v>
+      </c>
+      <c r="M5" s="100" t="s">
+        <v>398</v>
+      </c>
+      <c r="N5" s="99" t="s">
+        <v>400</v>
+      </c>
+      <c r="O5" s="95" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="29" t="s">
@@ -6418,15 +6482,33 @@
       <c r="F6" s="29">
         <v>50</v>
       </c>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="95"/>
+      <c r="G6" s="99" t="s">
+        <v>390</v>
+      </c>
+      <c r="H6" s="99" t="s">
+        <v>391</v>
+      </c>
+      <c r="I6" s="97">
+        <v>42477</v>
+      </c>
+      <c r="J6" s="99" t="s">
+        <v>394</v>
+      </c>
+      <c r="K6" s="100" t="s">
+        <v>396</v>
+      </c>
+      <c r="L6" s="95" t="s">
+        <v>397</v>
+      </c>
+      <c r="M6" s="100" t="s">
+        <v>399</v>
+      </c>
+      <c r="N6" s="99" t="s">
+        <v>401</v>
+      </c>
+      <c r="O6" s="95" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="29" t="s">
@@ -6447,28 +6529,28 @@
       <c r="F7" s="29">
         <v>30</v>
       </c>
-      <c r="G7" s="109">
+      <c r="G7" s="99">
         <v>9</v>
       </c>
-      <c r="H7" s="109">
+      <c r="H7" s="99">
         <v>40</v>
       </c>
-      <c r="I7" s="107">
+      <c r="I7" s="97">
         <v>42470</v>
       </c>
-      <c r="J7" s="109" t="s">
+      <c r="J7" s="99" t="s">
         <v>369</v>
       </c>
-      <c r="K7" s="110" t="s">
+      <c r="K7" s="100" t="s">
         <v>371</v>
       </c>
       <c r="L7" s="95" t="s">
         <v>373</v>
       </c>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="101" t="s">
         <v>374</v>
       </c>
-      <c r="N7" s="109" t="s">
+      <c r="N7" s="99" t="s">
         <v>376</v>
       </c>
       <c r="O7" s="95" t="s">
@@ -6494,28 +6576,28 @@
       <c r="F8" s="29">
         <v>30</v>
       </c>
-      <c r="G8" s="109">
+      <c r="G8" s="99">
         <v>9</v>
       </c>
-      <c r="H8" s="109">
+      <c r="H8" s="99">
         <v>20</v>
       </c>
-      <c r="I8" s="107">
+      <c r="I8" s="97">
         <v>42470</v>
       </c>
-      <c r="J8" s="109" t="s">
+      <c r="J8" s="99" t="s">
         <v>370</v>
       </c>
-      <c r="K8" s="110" t="s">
+      <c r="K8" s="100" t="s">
         <v>372</v>
       </c>
       <c r="L8" s="95" t="s">
         <v>373</v>
       </c>
-      <c r="M8" s="111" t="s">
+      <c r="M8" s="101" t="s">
         <v>375</v>
       </c>
-      <c r="N8" s="109" t="s">
+      <c r="N8" s="99" t="s">
         <v>377</v>
       </c>
       <c r="O8" s="95" t="s">
@@ -6541,14 +6623,14 @@
       <c r="F9" s="29">
         <v>30</v>
       </c>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
       <c r="L9" s="95"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
       <c r="O9" s="95"/>
     </row>
     <row r="10" spans="1:15">
@@ -6572,7 +6654,7 @@
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="64"/>
-      <c r="I10" s="106"/>
+      <c r="I10" s="96"/>
       <c r="J10" s="17"/>
       <c r="K10" s="64"/>
       <c r="L10" s="94"/>
@@ -6606,8 +6688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -6688,7 +6770,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34">
+    <row r="6" spans="1:4" ht="17">
       <c r="A6" s="29" t="s">
         <v>89</v>
       </c>
@@ -6758,7 +6840,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="51">
+    <row r="11" spans="1:4" ht="34">
       <c r="A11" s="29" t="s">
         <v>94</v>
       </c>
@@ -6990,7 +7072,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="34">
+    <row r="28" spans="1:4" ht="17">
       <c r="A28" s="29" t="s">
         <v>111</v>
       </c>

--- a/docs/TeamHogwartsReport.xlsx
+++ b/docs/TeamHogwartsReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeyiszy/PycharmProjects/ssw555tmHogwarts2020Spring/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70753\Downloads\ssw555tmHogwarts2020Spring-develop\ssw555tmHogwarts2020Spring-develop\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732BFD71-54E7-4941-A853-450C31AA76EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80E1F6E-DD98-4E39-B5BC-024AE28F0B25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="540" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="416">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -200,9 +200,6 @@
     <t>GitHub Repository:</t>
   </si>
   <si>
-    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
     <t>Birth should occur before marriage of an individual</t>
   </si>
   <si>
@@ -248,9 +245,6 @@
     <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
   </si>
   <si>
-    <t>Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
     <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
   </si>
   <si>
@@ -323,9 +317,6 @@
     <t>Husband in family should be male and wife in family should be female</t>
   </si>
   <si>
-    <t>All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
     <t>Unique name and birth date</t>
   </si>
   <si>
@@ -528,9 +519,6 @@
   </si>
   <si>
     <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
   </si>
   <si>
     <t>Parents should not marry any of their children</t>
@@ -1267,12 +1255,6 @@
     <t>*Public gathering</t>
   </si>
   <si>
-    <t>to do</t>
-  </si>
-  <si>
-    <t>List recent births</t>
-  </si>
-  <si>
     <t>List all people in a GEDCOM file who died in the last 30 days</t>
   </si>
   <si>
@@ -1294,95 +1276,176 @@
     <t>us35_test.py</t>
   </si>
   <si>
+    <t>list_recent_births</t>
+  </si>
+  <si>
+    <t>list_recent_deaths</t>
+  </si>
+  <si>
+    <t>10-17</t>
+  </si>
+  <si>
+    <t>us29.py</t>
+  </si>
+  <si>
+    <t>us30.py</t>
+  </si>
+  <si>
+    <t>us29_list_deceased</t>
+  </si>
+  <si>
+    <t>us30_list_living_married</t>
+  </si>
+  <si>
+    <t>1-15</t>
+  </si>
+  <si>
+    <t>1-14</t>
+  </si>
+  <si>
+    <t>us29_test.py</t>
+  </si>
+  <si>
+    <t>us30_test.py</t>
+  </si>
+  <si>
+    <t>test_list_deceased</t>
+  </si>
+  <si>
+    <t>test_list_living_married</t>
+  </si>
+  <si>
+    <t>1-28</t>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us31.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us32.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us31_list_living_single</t>
+  </si>
+  <si>
+    <t>us32_list_mutiple_births</t>
+  </si>
+  <si>
+    <t>6-13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us31_test.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us32_test.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_list_living_single</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_list_mutiple_births</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birth before marriage</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us33.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us34.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us33_list_orphans</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us34_large_age_couple</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>us36_test.py</t>
-  </si>
-  <si>
-    <t>list_recent_births</t>
-  </si>
-  <si>
-    <t>list_recent_deaths</t>
-  </si>
-  <si>
-    <t>10-17</t>
-  </si>
-  <si>
-    <t>us29.py</t>
-  </si>
-  <si>
-    <t>us30.py</t>
-  </si>
-  <si>
-    <t>us29_list_deceased</t>
-  </si>
-  <si>
-    <t>us30_list_living_married</t>
-  </si>
-  <si>
-    <t>1-15</t>
-  </si>
-  <si>
-    <t>1-14</t>
-  </si>
-  <si>
-    <t>us29_test.py</t>
-  </si>
-  <si>
-    <t>us30_test.py</t>
-  </si>
-  <si>
-    <t>test_list_deceased</t>
-  </si>
-  <si>
-    <t>test_list_living_married</t>
-  </si>
-  <si>
-    <t>1-28</t>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>us31.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>us32.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>us31_list_living_single</t>
-  </si>
-  <si>
-    <t>us32_list_mutiple_births</t>
-  </si>
-  <si>
-    <t>6-13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>us31_test.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>us32_test.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_list_living_single</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_list_mutiple_births</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us33_test.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us34_test.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_us33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_us34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1393,7 +1456,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1656,7 +1719,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1843,7 +1906,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1896,6 +1958,12 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -2016,7 +2084,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$19</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -2087,7 +2155,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3102,15 +3170,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
@@ -3127,109 +3195,109 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14" thickTop="1">
+    <row r="2" spans="1:7" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="B4" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D8" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D9" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="103" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+    </row>
+    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E11" s="105" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="28" customHeight="1">
-      <c r="D10" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="E10" s="104" t="s">
-        <v>185</v>
-      </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-    </row>
-    <row r="11" spans="1:7" ht="66" customHeight="1">
-      <c r="D11" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="E11" s="106" t="s">
-        <v>187</v>
-      </c>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
@@ -3255,20 +3323,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
     <col min="2" max="2" width="14" style="17" customWidth="1"/>
     <col min="3" max="3" width="36" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="36" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>29</v>
       </c>
@@ -3285,13 +3353,13 @@
         <v>28</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" ht="14" thickTop="1">
+    <row r="2" spans="1:9" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3312,7 +3380,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3333,7 +3401,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3354,7 +3422,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3375,7 +3443,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3396,7 +3464,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3417,7 +3485,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3438,7 +3506,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3459,7 +3527,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3477,7 +3545,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3494,7 +3562,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3511,7 +3579,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3528,7 +3596,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3545,7 +3613,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3562,7 +3630,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3579,7 +3647,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3596,7 +3664,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <v>3</v>
       </c>
@@ -3617,7 +3685,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <v>3</v>
       </c>
@@ -3638,7 +3706,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
         <v>3</v>
       </c>
@@ -3659,7 +3727,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <v>3</v>
       </c>
@@ -3680,7 +3748,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
         <v>3</v>
       </c>
@@ -3701,7 +3769,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
         <v>3</v>
       </c>
@@ -3722,7 +3790,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
         <v>3</v>
       </c>
@@ -3743,7 +3811,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
         <v>3</v>
       </c>
@@ -3764,7 +3832,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
         <v>4</v>
       </c>
@@ -3785,7 +3853,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="29">
         <v>4</v>
       </c>
@@ -3806,7 +3874,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="29">
         <v>4</v>
       </c>
@@ -3824,10 +3892,10 @@
       </c>
       <c r="E28" s="29" t="str">
         <f>Sprint4!D5</f>
-        <v>to do</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="29">
         <v>4</v>
       </c>
@@ -3845,10 +3913,10 @@
       </c>
       <c r="E29" s="29" t="str">
         <f>Sprint4!D6</f>
-        <v>to do</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="29">
         <v>4</v>
       </c>
@@ -3869,7 +3937,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="29">
         <v>4</v>
       </c>
@@ -3890,7 +3958,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="29">
         <v>4</v>
       </c>
@@ -3908,10 +3976,10 @@
       </c>
       <c r="E32" s="29" t="str">
         <f>Sprint4!D9</f>
-        <v>to do</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="29">
         <v>4</v>
       </c>
@@ -3929,22 +3997,22 @@
       </c>
       <c r="E33" s="29" t="str">
         <f>Sprint4!D10</f>
-        <v>to do</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" s="36"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
       <c r="E34" s="29"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="36"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="36"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
@@ -3965,49 +4033,49 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="5"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="5"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1">
-      <c r="A14" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -4028,9 +4096,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B15" s="8">
         <v>41065</v>
@@ -4044,9 +4112,9 @@
       <c r="F15" s="9"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B16" s="8">
         <v>41078</v>
@@ -4069,9 +4137,9 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B17" s="8">
         <v>41092</v>
@@ -4094,9 +4162,9 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B18" s="8">
         <v>41106</v>
@@ -4119,9 +4187,9 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B19" s="8">
         <v>41120</v>
@@ -4157,22 +4225,22 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.81640625" style="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4181,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>23</v>
@@ -4193,9 +4261,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B2" s="60">
         <v>42406</v>
@@ -4211,9 +4279,9 @@
       </c>
       <c r="F2" s="63"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1">
         <v>42427</v>
@@ -4238,9 +4306,9 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1">
         <v>42450</v>
@@ -4262,9 +4330,9 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B5" s="5">
         <v>42465</v>
@@ -4287,9 +4355,9 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B6" s="93">
         <v>42481</v>
@@ -4298,12 +4366,12 @@
       <c r="E6" s="63"/>
       <c r="F6" s="63"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="65"/>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" s="61"/>
     </row>
   </sheetData>
@@ -4322,63 +4390,63 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.6328125" style="11" customWidth="1"/>
     <col min="12" max="12" width="13" style="51" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" style="56" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" style="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:16" s="16" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="107" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="107" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="107" t="s">
-        <v>178</v>
-      </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="107" t="s">
-        <v>179</v>
-      </c>
-      <c r="N1" s="108"/>
-      <c r="O1" s="109"/>
-    </row>
-    <row r="2" spans="1:16" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
-      <c r="A2" s="110"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
+      <c r="E1" s="106" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="107"/>
+      <c r="G1" s="106" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="106" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="107"/>
+      <c r="O1" s="108"/>
+    </row>
+    <row r="2" spans="1:16" s="16" customFormat="1" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="109"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -4395,36 +4463,36 @@
         <v>17</v>
       </c>
       <c r="J2" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="M2" s="22" t="s">
+      <c r="O2" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="N2" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="O2" s="55" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="14" thickTop="1">
+    </row>
+    <row r="3" spans="1:16" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E3" s="17">
         <v>10</v>
@@ -4443,36 +4511,36 @@
         <v>42423</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L3" s="54" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O3" s="57" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E4" s="17">
         <v>10</v>
@@ -4491,36 +4559,36 @@
         <v>42423</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L4" s="52" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O4" s="57" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E5" s="17">
         <v>15</v>
@@ -4539,36 +4607,36 @@
         <v>42425</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L5" s="52" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="O5" s="57" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E6" s="17">
         <v>15</v>
@@ -4587,36 +4655,36 @@
         <v>42425</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L6" s="52" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N6" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="O6" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="O6" s="57" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E7" s="17">
         <v>15</v>
@@ -4635,36 +4703,36 @@
         <v>42417</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L7" s="52" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M7" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="O7" s="57" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>205</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="O7" s="57" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>209</v>
       </c>
       <c r="E8" s="17">
         <v>10</v>
@@ -4683,36 +4751,36 @@
         <v>42417</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L8" s="52" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O8" s="57" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E9" s="17">
         <v>6</v>
@@ -4731,36 +4799,36 @@
         <v>42425</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L9" s="52" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O9" s="57" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E10" s="17">
         <v>6</v>
@@ -4779,43 +4847,43 @@
         <v>42425</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L10" s="52" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O10" s="57" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G11" s="83"/>
     </row>
-    <row r="13" spans="1:16" ht="14">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="43" customFormat="1">
+    <row r="15" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="41">
         <v>1</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="41"/>
@@ -4830,12 +4898,12 @@
       <c r="O15" s="58"/>
       <c r="P15" s="47"/>
     </row>
-    <row r="16" spans="1:16" s="43" customFormat="1">
+    <row r="16" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="41">
         <v>2</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
@@ -4850,25 +4918,25 @@
       <c r="O16" s="58"/>
       <c r="P16" s="47"/>
     </row>
-    <row r="17" spans="1:16" ht="14">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="41">
         <v>3</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="14">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="43" customFormat="1" ht="14">
+    <row r="19" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="41">
         <v>1</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>
@@ -4883,12 +4951,12 @@
       <c r="O19" s="58"/>
       <c r="P19" s="47"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="41">
         <v>2</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -4913,66 +4981,66 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B19"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="68" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="68" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" style="68" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" style="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20" customHeight="1">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="107" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="107" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="107" t="s">
-        <v>178</v>
-      </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="107" t="s">
-        <v>179</v>
-      </c>
-      <c r="N1" s="108"/>
-      <c r="O1" s="109"/>
-    </row>
-    <row r="2" spans="1:16" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="110"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
+      <c r="E1" s="106" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="107"/>
+      <c r="G1" s="106" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="106" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="107"/>
+      <c r="O1" s="108"/>
+    </row>
+    <row r="2" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="109"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -4989,36 +5057,36 @@
         <v>17</v>
       </c>
       <c r="J2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="M2" s="22" t="s">
+      <c r="O2" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="N2" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="O2" s="55" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="14" thickTop="1">
+    </row>
+    <row r="3" spans="1:16" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -5033,39 +5101,39 @@
         <v>50</v>
       </c>
       <c r="I3" s="69" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L3" s="69" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="N3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O3" s="69" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -5080,39 +5148,39 @@
         <v>30</v>
       </c>
       <c r="I4" s="69" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J4" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="K4" t="s">
+        <v>244</v>
+      </c>
+      <c r="L4" s="69" t="s">
         <v>246</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="L4" s="69" t="s">
+      <c r="N4" t="s">
         <v>250</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="O4" s="69" t="s">
         <v>252</v>
       </c>
-      <c r="N4" t="s">
-        <v>254</v>
-      </c>
-      <c r="O4" s="69" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E5">
         <v>60</v>
@@ -5127,39 +5195,39 @@
         <v>120</v>
       </c>
       <c r="I5" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="L5" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="M5" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="N5" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="O5" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="L5" s="69" t="s">
-        <v>242</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="O5" s="69" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E6">
         <v>60</v>
@@ -5174,39 +5242,39 @@
         <v>50</v>
       </c>
       <c r="I6" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="K6" t="s">
         <v>245</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="L6" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="L6" s="69" t="s">
+      <c r="N6" t="s">
         <v>251</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="O6" s="69" t="s">
         <v>253</v>
       </c>
-      <c r="N6" t="s">
-        <v>255</v>
-      </c>
-      <c r="O6" s="69" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -5221,39 +5289,39 @@
         <v>40</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J7" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="K7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L7" s="69" t="s">
+        <v>229</v>
+      </c>
+      <c r="M7" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="K7" t="s">
+      <c r="N7" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="L7" s="69" t="s">
-        <v>233</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>269</v>
-      </c>
       <c r="O7" s="69" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -5268,39 +5336,39 @@
         <v>80</v>
       </c>
       <c r="I8" s="68" t="s">
+        <v>258</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="K8" t="s">
         <v>262</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="L8" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="M8" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="K8" t="s">
+      <c r="N8" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="L8" s="69" t="s">
-        <v>244</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>270</v>
-      </c>
       <c r="O8" s="69" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -5315,39 +5383,39 @@
         <v>8</v>
       </c>
       <c r="I9" s="69" t="s">
+        <v>267</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="L9" s="69" t="s">
+        <v>274</v>
+      </c>
+      <c r="M9" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="L9" s="69" t="s">
-        <v>278</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>275</v>
-      </c>
       <c r="N9" s="13" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O9" s="69" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E10">
         <v>15</v>
@@ -5362,32 +5430,32 @@
         <v>20</v>
       </c>
       <c r="I10" s="69" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J10" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="L10" s="69" t="s">
+        <v>275</v>
+      </c>
+      <c r="M10" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="K10" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="L10" s="69" t="s">
-        <v>279</v>
-      </c>
-      <c r="M10" s="15" t="s">
+      <c r="N10" t="s">
         <v>276</v>
       </c>
-      <c r="N10" t="s">
-        <v>280</v>
-      </c>
       <c r="O10" s="69" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="13" spans="1:16" ht="14">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="64"/>
       <c r="B13" s="77" t="s">
         <v>30</v>
@@ -5406,7 +5474,7 @@
       <c r="N13" s="71"/>
       <c r="O13" s="72"/>
     </row>
-    <row r="14" spans="1:16" ht="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="64"/>
       <c r="B14" s="77" t="s">
         <v>31</v>
@@ -5425,12 +5493,12 @@
       <c r="N14" s="71"/>
       <c r="O14" s="72"/>
     </row>
-    <row r="15" spans="1:16" s="43" customFormat="1">
+    <row r="15" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39">
         <v>1</v>
       </c>
       <c r="B15" s="78" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
@@ -5447,12 +5515,12 @@
       <c r="O15" s="75"/>
       <c r="P15" s="47"/>
     </row>
-    <row r="16" spans="1:16" s="43" customFormat="1">
+    <row r="16" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39">
         <v>2</v>
       </c>
       <c r="B16" s="78" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
@@ -5469,7 +5537,7 @@
       <c r="O16" s="75"/>
       <c r="P16" s="47"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="39"/>
       <c r="B17" s="79"/>
       <c r="C17" s="64"/>
@@ -5486,7 +5554,7 @@
       <c r="N17" s="71"/>
       <c r="O17" s="72"/>
     </row>
-    <row r="18" spans="1:16" ht="14">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="64"/>
       <c r="B18" s="77" t="s">
         <v>32</v>
@@ -5505,12 +5573,12 @@
       <c r="N18" s="71"/>
       <c r="O18" s="72"/>
     </row>
-    <row r="19" spans="1:16" s="43" customFormat="1" ht="17" customHeight="1">
+    <row r="19" spans="1:16" s="43" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39">
         <v>1</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
@@ -5527,7 +5595,7 @@
       <c r="O19" s="75"/>
       <c r="P19" s="47"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="39"/>
       <c r="B20" s="81"/>
       <c r="C20" s="64"/>
@@ -5544,7 +5612,7 @@
       <c r="N20" s="71"/>
       <c r="O20" s="72"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="64"/>
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
@@ -5561,7 +5629,7 @@
       <c r="N21" s="64"/>
       <c r="O21" s="76"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="64"/>
       <c r="B22" s="64"/>
       <c r="C22" s="64"/>
@@ -5578,7 +5646,7 @@
       <c r="N22" s="64"/>
       <c r="O22" s="76"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="64"/>
@@ -5595,7 +5663,7 @@
       <c r="N23" s="64"/>
       <c r="O23" s="76"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="64"/>
       <c r="B24" s="64"/>
       <c r="C24" s="64"/>
@@ -5612,7 +5680,7 @@
       <c r="N24" s="64"/>
       <c r="O24" s="76"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="64"/>
       <c r="B25" s="64"/>
       <c r="C25" s="64"/>
@@ -5629,7 +5697,7 @@
       <c r="N25" s="64"/>
       <c r="O25" s="76"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="64"/>
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
@@ -5646,7 +5714,7 @@
       <c r="N26" s="64"/>
       <c r="O26" s="76"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="64"/>
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
@@ -5663,7 +5731,7 @@
       <c r="N27" s="64"/>
       <c r="O27" s="76"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="64"/>
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
@@ -5705,53 +5773,53 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="68" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20" customHeight="1">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="107" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="107" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="107" t="s">
-        <v>178</v>
-      </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="107" t="s">
-        <v>179</v>
-      </c>
-      <c r="N1" s="108"/>
-      <c r="O1" s="109"/>
-    </row>
-    <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="110"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
+      <c r="E1" s="106" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="107"/>
+      <c r="G1" s="106" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="106" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="107"/>
+      <c r="O1" s="108"/>
+    </row>
+    <row r="2" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="109"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
@@ -5768,36 +5836,36 @@
         <v>17</v>
       </c>
       <c r="J2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="O2" s="25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="L2" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="14" thickTop="1">
-      <c r="A3" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>154</v>
-      </c>
       <c r="D3" s="82" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -5815,36 +5883,36 @@
         <v>42463</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K3" t="s">
+        <v>286</v>
+      </c>
+      <c r="L3" s="86" t="s">
+        <v>289</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="L3" s="86" t="s">
-        <v>293</v>
-      </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" t="s">
+        <v>292</v>
+      </c>
+      <c r="O3" s="86" t="s">
         <v>294</v>
       </c>
-      <c r="N3" t="s">
-        <v>296</v>
-      </c>
-      <c r="O3" s="86" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D4" s="82" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -5862,36 +5930,36 @@
         <v>42463</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L4" s="86" t="s">
+        <v>288</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="L4" s="86" t="s">
-        <v>292</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>295</v>
-      </c>
       <c r="N4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O4" s="86" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D5" s="91" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -5909,36 +5977,36 @@
         <v>42465</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K5" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="L5" s="86" t="s">
+        <v>352</v>
+      </c>
+      <c r="M5" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="L5" s="86" t="s">
-        <v>356</v>
-      </c>
-      <c r="M5" s="13" t="s">
+      <c r="N5" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="O5" s="86" t="s">
         <v>357</v>
       </c>
-      <c r="N5" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="O5" s="86" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D6" s="91" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -5956,36 +6024,36 @@
         <v>42465</v>
       </c>
       <c r="J6" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="L6" s="86" t="s">
         <v>351</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="M6" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="L6" s="86" t="s">
-        <v>355</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>358</v>
-      </c>
       <c r="N6" s="13" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="O6" s="86" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E7">
         <v>15</v>
@@ -6003,36 +6071,36 @@
         <v>42464</v>
       </c>
       <c r="J7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L7" s="86" t="s">
         <v>309</v>
       </c>
-      <c r="K7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L7" s="86" t="s">
-        <v>313</v>
-      </c>
       <c r="M7" t="s">
+        <v>311</v>
+      </c>
+      <c r="N7" t="s">
+        <v>314</v>
+      </c>
+      <c r="O7" s="86" t="s">
         <v>315</v>
       </c>
-      <c r="N7" t="s">
-        <v>318</v>
-      </c>
-      <c r="O7" s="86" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -6050,36 +6118,36 @@
         <v>42464</v>
       </c>
       <c r="J8" t="s">
+        <v>306</v>
+      </c>
+      <c r="K8" t="s">
+        <v>307</v>
+      </c>
+      <c r="L8" s="86" t="s">
         <v>310</v>
       </c>
-      <c r="K8" t="s">
-        <v>311</v>
-      </c>
-      <c r="L8" s="86" t="s">
-        <v>314</v>
-      </c>
       <c r="M8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O8" s="86" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E9">
         <v>30</v>
@@ -6097,36 +6165,36 @@
         <v>42463</v>
       </c>
       <c r="J9" t="s">
+        <v>296</v>
+      </c>
+      <c r="K9" t="s">
+        <v>297</v>
+      </c>
+      <c r="L9" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="M9" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="K9" t="s">
-        <v>301</v>
-      </c>
-      <c r="L9" s="86" t="s">
-        <v>229</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>304</v>
-      </c>
       <c r="N9" s="13" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="O9" s="87" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E10">
         <v>30</v>
@@ -6144,74 +6212,74 @@
         <v>42463</v>
       </c>
       <c r="J10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K10" t="s">
+        <v>299</v>
+      </c>
+      <c r="L10" s="86" t="s">
+        <v>223</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="N10" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="L10" s="86" t="s">
-        <v>227</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>307</v>
-      </c>
       <c r="O10" s="88" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="14">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="64"/>
       <c r="B13" s="77" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="14">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="64"/>
       <c r="B14" s="77" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="39">
         <v>1</v>
       </c>
       <c r="B15" s="78" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="39">
         <v>2</v>
       </c>
       <c r="B16" s="78" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="26" customHeight="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39"/>
-      <c r="B17" s="113" t="s">
-        <v>364</v>
-      </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-    </row>
-    <row r="18" spans="1:6" ht="14">
+      <c r="B17" s="112" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="64"/>
       <c r="B18" s="77" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="39">
         <v>1</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -6236,58 +6304,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
     <col min="12" max="12" width="13" style="68" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18.6328125" customWidth="1"/>
+    <col min="14" max="14" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20" customHeight="1">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="107" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" s="109"/>
-      <c r="G1" s="107" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="107" t="s">
-        <v>178</v>
-      </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="107" t="s">
-        <v>179</v>
-      </c>
-      <c r="N1" s="108"/>
-      <c r="O1" s="109"/>
-    </row>
-    <row r="2" spans="1:15" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="110"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
+      <c r="E1" s="106" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="108"/>
+      <c r="G1" s="106" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="106" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="107"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="107"/>
+      <c r="O1" s="108"/>
+    </row>
+    <row r="2" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="109"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="89" t="s">
         <v>13</v>
       </c>
@@ -6304,36 +6372,36 @@
         <v>17</v>
       </c>
       <c r="J2" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="L2" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="M2" s="89" t="s">
+      <c r="O2" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="N2" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="14" thickTop="1">
+    </row>
+    <row r="3" spans="1:15" ht="13.2" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D3" s="91" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E3" s="17">
         <v>30</v>
@@ -6347,40 +6415,40 @@
       <c r="H3" s="39">
         <v>15</v>
       </c>
-      <c r="I3" s="96">
+      <c r="I3" s="95">
         <v>42470</v>
       </c>
-      <c r="J3" s="102" t="s">
-        <v>379</v>
-      </c>
-      <c r="K3" s="98" t="s">
-        <v>381</v>
-      </c>
-      <c r="L3" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="M3" s="101" t="s">
-        <v>385</v>
-      </c>
-      <c r="N3" s="103" t="s">
-        <v>387</v>
-      </c>
-      <c r="O3" s="95" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="J3" s="101" t="s">
+        <v>372</v>
+      </c>
+      <c r="K3" s="97" t="s">
+        <v>374</v>
+      </c>
+      <c r="L3" s="94" t="s">
+        <v>376</v>
+      </c>
+      <c r="M3" s="100" t="s">
+        <v>378</v>
+      </c>
+      <c r="N3" s="102" t="s">
+        <v>380</v>
+      </c>
+      <c r="O3" s="94" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E4" s="17">
         <v>30</v>
@@ -6394,40 +6462,40 @@
       <c r="H4" s="39">
         <v>15</v>
       </c>
-      <c r="I4" s="96">
+      <c r="I4" s="95">
         <v>42470</v>
       </c>
-      <c r="J4" s="102" t="s">
-        <v>380</v>
-      </c>
-      <c r="K4" s="98" t="s">
-        <v>382</v>
-      </c>
-      <c r="L4" s="95" t="s">
-        <v>384</v>
-      </c>
-      <c r="M4" s="101" t="s">
-        <v>386</v>
-      </c>
-      <c r="N4" s="103" t="s">
-        <v>388</v>
-      </c>
-      <c r="O4" s="95" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="J4" s="101" t="s">
+        <v>373</v>
+      </c>
+      <c r="K4" s="97" t="s">
+        <v>375</v>
+      </c>
+      <c r="L4" s="94" t="s">
+        <v>377</v>
+      </c>
+      <c r="M4" s="100" t="s">
+        <v>379</v>
+      </c>
+      <c r="N4" s="102" t="s">
+        <v>381</v>
+      </c>
+      <c r="O4" s="94" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D5" s="91" t="s">
-        <v>366</v>
+        <v>295</v>
       </c>
       <c r="E5" s="17">
         <v>40</v>
@@ -6435,46 +6503,46 @@
       <c r="F5" s="29">
         <v>120</v>
       </c>
-      <c r="G5" s="99" t="s">
+      <c r="G5" s="98" t="s">
+        <v>383</v>
+      </c>
+      <c r="H5" s="98" t="s">
+        <v>385</v>
+      </c>
+      <c r="I5" s="96">
+        <v>42477</v>
+      </c>
+      <c r="J5" s="98" t="s">
+        <v>386</v>
+      </c>
+      <c r="K5" s="99" t="s">
+        <v>388</v>
+      </c>
+      <c r="L5" s="94" t="s">
         <v>390</v>
       </c>
-      <c r="H5" s="99" t="s">
-        <v>392</v>
-      </c>
-      <c r="I5" s="97">
-        <v>42477</v>
-      </c>
-      <c r="J5" s="99" t="s">
+      <c r="M5" s="99" t="s">
+        <v>391</v>
+      </c>
+      <c r="N5" s="98" t="s">
         <v>393</v>
       </c>
-      <c r="K5" s="100" t="s">
-        <v>395</v>
-      </c>
-      <c r="L5" s="95" t="s">
-        <v>397</v>
-      </c>
-      <c r="M5" s="100" t="s">
-        <v>398</v>
-      </c>
-      <c r="N5" s="99" t="s">
-        <v>400</v>
-      </c>
-      <c r="O5" s="95" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5" s="94" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D6" s="91" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E6" s="17">
         <v>35</v>
@@ -6482,46 +6550,46 @@
       <c r="F6" s="29">
         <v>50</v>
       </c>
-      <c r="G6" s="99" t="s">
+      <c r="G6" s="98" t="s">
+        <v>383</v>
+      </c>
+      <c r="H6" s="98" t="s">
+        <v>384</v>
+      </c>
+      <c r="I6" s="96">
+        <v>42477</v>
+      </c>
+      <c r="J6" s="98" t="s">
+        <v>387</v>
+      </c>
+      <c r="K6" s="99" t="s">
+        <v>389</v>
+      </c>
+      <c r="L6" s="94" t="s">
         <v>390</v>
       </c>
-      <c r="H6" s="99" t="s">
-        <v>391</v>
-      </c>
-      <c r="I6" s="97">
-        <v>42477</v>
-      </c>
-      <c r="J6" s="99" t="s">
+      <c r="M6" s="99" t="s">
+        <v>392</v>
+      </c>
+      <c r="N6" s="98" t="s">
         <v>394</v>
       </c>
-      <c r="K6" s="100" t="s">
-        <v>396</v>
-      </c>
-      <c r="L6" s="95" t="s">
-        <v>397</v>
-      </c>
-      <c r="M6" s="100" t="s">
-        <v>399</v>
-      </c>
-      <c r="N6" s="99" t="s">
-        <v>401</v>
-      </c>
-      <c r="O6" s="95" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6" s="94" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D7" s="91" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E7" s="17">
         <v>20</v>
@@ -6529,46 +6597,46 @@
       <c r="F7" s="29">
         <v>30</v>
       </c>
-      <c r="G7" s="99">
+      <c r="G7" s="98">
         <v>9</v>
       </c>
-      <c r="H7" s="99">
+      <c r="H7" s="98">
         <v>40</v>
       </c>
-      <c r="I7" s="97">
+      <c r="I7" s="96">
         <v>42470</v>
       </c>
-      <c r="J7" s="99" t="s">
+      <c r="J7" s="98" t="s">
+        <v>363</v>
+      </c>
+      <c r="K7" s="99" t="s">
+        <v>365</v>
+      </c>
+      <c r="L7" s="94" t="s">
+        <v>367</v>
+      </c>
+      <c r="M7" s="100" t="s">
+        <v>368</v>
+      </c>
+      <c r="N7" s="98" t="s">
         <v>369</v>
       </c>
-      <c r="K7" s="100" t="s">
+      <c r="O7" s="94" t="s">
         <v>371</v>
       </c>
-      <c r="L7" s="95" t="s">
-        <v>373</v>
-      </c>
-      <c r="M7" s="101" t="s">
-        <v>374</v>
-      </c>
-      <c r="N7" s="99" t="s">
-        <v>376</v>
-      </c>
-      <c r="O7" s="95" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D8" s="91" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E8" s="17">
         <v>29</v>
@@ -6576,46 +6644,46 @@
       <c r="F8" s="29">
         <v>30</v>
       </c>
-      <c r="G8" s="99">
+      <c r="G8" s="98">
         <v>9</v>
       </c>
-      <c r="H8" s="99">
+      <c r="H8" s="98">
         <v>20</v>
       </c>
-      <c r="I8" s="97">
+      <c r="I8" s="96">
         <v>42470</v>
       </c>
-      <c r="J8" s="99" t="s">
+      <c r="J8" s="98" t="s">
+        <v>364</v>
+      </c>
+      <c r="K8" s="99" t="s">
+        <v>366</v>
+      </c>
+      <c r="L8" s="94" t="s">
+        <v>367</v>
+      </c>
+      <c r="M8" s="100" t="s">
+        <v>407</v>
+      </c>
+      <c r="N8" s="98" t="s">
         <v>370</v>
       </c>
-      <c r="K8" s="100" t="s">
-        <v>372</v>
-      </c>
-      <c r="L8" s="95" t="s">
-        <v>373</v>
-      </c>
-      <c r="M8" s="101" t="s">
-        <v>375</v>
-      </c>
-      <c r="N8" s="99" t="s">
-        <v>377</v>
-      </c>
-      <c r="O8" s="95" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8" s="94" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D9" s="91" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E9" s="17">
         <v>30</v>
@@ -6623,28 +6691,46 @@
       <c r="F9" s="29">
         <v>30</v>
       </c>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="95"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="G9" s="98" t="s">
+        <v>405</v>
+      </c>
+      <c r="H9" s="98" t="s">
+        <v>399</v>
+      </c>
+      <c r="I9" s="96">
+        <v>42478</v>
+      </c>
+      <c r="J9" s="98" t="s">
+        <v>400</v>
+      </c>
+      <c r="K9" s="99" t="s">
+        <v>402</v>
+      </c>
+      <c r="L9" s="94" t="s">
+        <v>404</v>
+      </c>
+      <c r="M9" s="99" t="s">
+        <v>408</v>
+      </c>
+      <c r="N9" s="98" t="s">
+        <v>410</v>
+      </c>
+      <c r="O9" s="94" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D10" s="91" t="s">
-        <v>366</v>
+        <v>295</v>
       </c>
       <c r="E10" s="17">
         <v>30</v>
@@ -6652,19 +6738,37 @@
       <c r="F10" s="29">
         <v>30</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="29"/>
-    </row>
-    <row r="19" spans="9:9">
+      <c r="G10" s="17">
+        <v>29</v>
+      </c>
+      <c r="H10" s="64">
+        <v>10</v>
+      </c>
+      <c r="I10" s="95">
+        <v>42478</v>
+      </c>
+      <c r="J10" s="101" t="s">
+        <v>401</v>
+      </c>
+      <c r="K10" s="113" t="s">
+        <v>403</v>
+      </c>
+      <c r="L10" s="94" t="s">
+        <v>406</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="N10" s="114" t="s">
+        <v>411</v>
+      </c>
+      <c r="O10" s="94" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -6688,588 +6792,588 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="29"/>
+    <col min="1" max="1" width="10.81640625" style="29"/>
     <col min="2" max="2" width="35" style="29" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="31" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="29"/>
+    <col min="3" max="3" width="49.453125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="16" customFormat="1" ht="28" customHeight="1" thickBot="1">
+    <row r="1" spans="1:4" s="16" customFormat="1" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30.6" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B4" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="35" thickTop="1">
-      <c r="A2" s="29" t="s">
+      <c r="C4" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17">
-      <c r="A3" s="28" t="s">
+      <c r="B5" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B6" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17">
-      <c r="A4" s="29" t="s">
+      <c r="C6" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="34">
-      <c r="A5" s="29" t="s">
+      <c r="B7" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17">
-      <c r="A6" s="29" t="s">
+      <c r="B8" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17">
-      <c r="A7" s="29" t="s">
+      <c r="B9" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="B10" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="51">
-      <c r="A8" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="34">
-      <c r="A9" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="D12" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="34">
-      <c r="A10" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="34">
-      <c r="A11" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="D11" s="28" t="s">
+      <c r="D18" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="90" t="s">
+        <v>345</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="D20" s="29" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34">
-      <c r="A12" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="29" t="s">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="90" t="s">
+        <v>326</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="51">
-      <c r="A13" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="68">
-      <c r="A14" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="29" t="s">
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="D34" s="28" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="34">
-      <c r="A15" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="29" t="s">
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="D35" s="28" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17">
-      <c r="A16" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="34">
-      <c r="A17" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17">
-      <c r="A18" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17">
-      <c r="A19" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17">
-      <c r="A20" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="90" t="s">
-        <v>349</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="34">
-      <c r="A21" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="90" t="s">
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="34">
-      <c r="A22" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="34">
-      <c r="A23" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="28" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A42" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="34">
-      <c r="A24" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="51">
-      <c r="A25" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="34">
-      <c r="A26" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>327</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="136">
-      <c r="A27" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17">
-      <c r="A28" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="34">
-      <c r="A29" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17">
-      <c r="A30" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17">
-      <c r="A31" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="34">
-      <c r="A32" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="17">
-      <c r="A33" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="34">
-      <c r="A34" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="51">
-      <c r="A35" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="34">
-      <c r="A36" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="34">
-      <c r="A37" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="34">
-      <c r="A38" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="34">
-      <c r="A39" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="34">
-      <c r="A40" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="C40" s="30" t="s">
+      <c r="C43" s="30" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="34">
-      <c r="A41" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="34">
-      <c r="A42" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="34">
-      <c r="A43" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
